--- a/cleaned_data/electronics_lifespan.xlsx
+++ b/cleaned_data/electronics_lifespan.xlsx
@@ -30,7 +30,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="E47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>https://i.unu.edu/media/ias.unu.edu-en/project/2238/E-waste-Guidelines_Partnership_2015.pdf</t>
   </si>
@@ -152,9 +152,6 @@
     <t>0303a (Laptop)</t>
   </si>
   <si>
-    <t>0303b (Tablet)</t>
-  </si>
-  <si>
     <t>0304</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
   </si>
   <si>
     <t>0401 (small consumer electronics)</t>
-  </si>
-  <si>
-    <t>0401b (headphones)</t>
   </si>
   <si>
     <t>0402</t>
@@ -308,7 +302,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,7 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -333,6 +327,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -344,35 +344,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -389,24 +389,24 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,7 +415,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,85 +432,85 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="9" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -530,6 +530,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="fffff2cb"/>
       <rgbColor rgb="ffe2eeda"/>
@@ -736,17 +737,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -773,10 +774,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1015,12 +1016,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1297,7 +1298,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1324,10 +1325,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1569,7 +1570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AY75"/>
+  <dimension ref="A1:AY73"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -5087,155 +5088,157 @@
     </row>
     <row r="25" ht="15.35" customHeight="1">
       <c r="A25" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" t="s" s="22">
         <v>34</v>
       </c>
+      <c r="B25" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="C25" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="D25" s="14"/>
       <c r="E25" s="15">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="F25" s="15">
-        <v>6.8</v>
+        <v>9.31</v>
       </c>
       <c r="G25" s="15">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="H25" s="15">
-        <v>6.8</v>
+        <v>9.31</v>
       </c>
       <c r="I25" s="16">
         <f>H25*(LN(2))^(1/G25)</f>
-        <v>5.40785235322058</v>
+        <v>7.66094550438917</v>
       </c>
       <c r="J25" s="16">
         <f>H25*EXP(GAMMALN(1+1/G25))</f>
-        <v>6.09670510438487</v>
+        <v>8.26428380215884</v>
       </c>
       <c r="K25" s="17">
         <v>1</v>
       </c>
       <c r="L25" s="18">
-        <v>0.954510075010561</v>
+        <v>0.985034048429217</v>
       </c>
       <c r="M25" s="18">
-        <v>0.868372354301885</v>
+        <v>0.946009846507625</v>
       </c>
       <c r="N25" s="18">
-        <v>0.7633719088095809</v>
+        <v>0.887852651315326</v>
       </c>
       <c r="O25" s="18">
-        <v>0.651915494474809</v>
+        <v>0.815225815921012</v>
       </c>
       <c r="P25" s="18">
-        <v>0.542581305237231</v>
+        <v>0.732882880880389</v>
       </c>
       <c r="Q25" s="18">
-        <v>0.441085268894976</v>
+        <v>0.645439769666644</v>
       </c>
       <c r="R25" s="18">
-        <v>0.350823357688717</v>
+        <v>0.557103573827807</v>
       </c>
       <c r="S25" s="18">
-        <v>0.273358989537063</v>
+        <v>0.471450570600184</v>
       </c>
       <c r="T25" s="18">
-        <v>0.208892589399002</v>
+        <v>0.391285026995041</v>
       </c>
       <c r="U25" s="18">
-        <v>0.156692379405517</v>
+        <v>0.318585451221994</v>
       </c>
       <c r="V25" s="18">
-        <v>0.11546266070766</v>
+        <v>0.254530069545075</v>
       </c>
       <c r="W25" s="18">
-        <v>0.08363612273634211</v>
+        <v>0.199584280404526</v>
       </c>
       <c r="X25" s="18">
-        <v>0.0595881425648883</v>
+        <v>0.153628634965265</v>
       </c>
       <c r="Y25" s="18">
-        <v>0.0417797857735589</v>
+        <v>0.116105708924658</v>
       </c>
       <c r="Z25" s="18">
-        <v>0.0288414112894885</v>
+        <v>0.0861670305190653</v>
       </c>
       <c r="AA25" s="18">
-        <v>0.0196107790267683</v>
+        <v>0.0628058315657793</v>
       </c>
       <c r="AB25" s="18">
-        <v>0.0131391984345964</v>
+        <v>0.0449666514927765</v>
       </c>
       <c r="AC25" s="18">
-        <v>0.008677450608294829</v>
+        <v>0.031627816367895</v>
       </c>
       <c r="AD25" s="18">
-        <v>0.00565074983278113</v>
+        <v>0.0218569066797897</v>
       </c>
       <c r="AE25" s="18">
-        <v>0.00362945535947912</v>
+        <v>0.0148422101332943</v>
       </c>
       <c r="AF25" s="18">
-        <v>0.00229995730050636</v>
+        <v>0.009904796568891211</v>
       </c>
       <c r="AG25" s="18">
-        <v>0.00143831590917232</v>
+        <v>0.00649641589330807</v>
       </c>
       <c r="AH25" s="18">
-        <v>0.000887873180040355</v>
+        <v>0.00418817893890588</v>
       </c>
       <c r="AI25" s="18">
-        <v>0.000541139377436051</v>
+        <v>0.00265423625349004</v>
       </c>
       <c r="AJ25" s="18">
-        <v>0.000325703489711282</v>
+        <v>0.00165369252430625</v>
       </c>
       <c r="AK25" s="18">
-        <v>0.000193632824727508</v>
+        <v>0.00101299419349032</v>
       </c>
       <c r="AL25" s="18">
-        <v>0.00011372665270748</v>
+        <v>0.000610141741985704</v>
       </c>
       <c r="AM25" s="18">
-        <v>6.60011152087137e-05</v>
+        <v>0.000361375937290132</v>
       </c>
       <c r="AN25" s="18">
-        <v>3.78548098625142e-05</v>
+        <v>0.000210486483330552</v>
       </c>
       <c r="AO25" s="18">
-        <v>2.14606571983245e-05</v>
+        <v>0.000120574705603338</v>
       </c>
       <c r="AP25" s="18">
-        <v>1.20277703283822e-05</v>
+        <v>6.79335948138293e-05</v>
       </c>
       <c r="AQ25" s="18">
-        <v>6.6651864336631e-06</v>
+        <v>3.7647632109894e-05</v>
       </c>
       <c r="AR25" s="18">
-        <v>3.65246934475039e-06</v>
+        <v>2.05230880454543e-05</v>
       </c>
       <c r="AS25" s="18">
-        <v>1.97955393888005e-06</v>
+        <v>1.10059129729834e-05</v>
       </c>
       <c r="AT25" s="18">
-        <v>1.06123482790377e-06</v>
+        <v>5.80648402048745e-06</v>
       </c>
       <c r="AU25" s="18">
-        <v>5.62825359318175e-07</v>
+        <v>3.01389998169643e-06</v>
       </c>
       <c r="AV25" s="18">
-        <v>2.95329140032052e-07</v>
+        <v>1.53920599077484e-06</v>
       </c>
       <c r="AW25" s="18">
-        <v>1.5334156588942e-07</v>
+        <v>7.73463991188272e-07</v>
       </c>
       <c r="AX25" s="18">
-        <v>7.87921645706291e-08</v>
+        <v>3.82455884295752e-07</v>
       </c>
       <c r="AY25" s="18">
-        <v>4.00702958591737e-08</v>
+        <v>1.86098246812705e-07</v>
       </c>
     </row>
     <row r="26" ht="15.35" customHeight="1">
@@ -5243,154 +5246,154 @@
         <v>35</v>
       </c>
       <c r="B26" s="20">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="C26" s="14">
-        <v>10.1</v>
+        <v>6.5</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="F26" s="15">
-        <v>9.31</v>
+        <v>7.22</v>
       </c>
       <c r="G26" s="15">
-        <v>1.88</v>
+        <v>1.24</v>
       </c>
       <c r="H26" s="15">
-        <v>9.31</v>
+        <v>7.22</v>
       </c>
       <c r="I26" s="16">
         <f>H26*(LN(2))^(1/G26)</f>
-        <v>7.66094550438917</v>
+        <v>5.37242837117668</v>
       </c>
       <c r="J26" s="16">
         <f>H26*EXP(GAMMALN(1+1/G26))</f>
-        <v>8.26428380215884</v>
+        <v>6.73706957118275</v>
       </c>
       <c r="K26" s="17">
         <v>1</v>
       </c>
       <c r="L26" s="18">
-        <v>0.985034048429217</v>
+        <v>0.917427734613027</v>
       </c>
       <c r="M26" s="18">
-        <v>0.946009846507625</v>
+        <v>0.815821778429058</v>
       </c>
       <c r="N26" s="18">
-        <v>0.887852651315326</v>
+        <v>0.714233140054695</v>
       </c>
       <c r="O26" s="18">
-        <v>0.815225815921012</v>
+        <v>0.61828595835288</v>
       </c>
       <c r="P26" s="18">
-        <v>0.732882880880389</v>
+        <v>0.530428964399606</v>
       </c>
       <c r="Q26" s="18">
-        <v>0.645439769666644</v>
+        <v>0.451619014780099</v>
       </c>
       <c r="R26" s="18">
-        <v>0.557103573827807</v>
+        <v>0.381992117722612</v>
       </c>
       <c r="S26" s="18">
-        <v>0.471450570600184</v>
+        <v>0.321212463827879</v>
       </c>
       <c r="T26" s="18">
-        <v>0.391285026995041</v>
+        <v>0.268678518077739</v>
       </c>
       <c r="U26" s="18">
-        <v>0.318585451221994</v>
+        <v>0.223652399121875</v>
       </c>
       <c r="V26" s="18">
-        <v>0.254530069545075</v>
+        <v>0.185343066431142</v>
       </c>
       <c r="W26" s="18">
-        <v>0.199584280404526</v>
+        <v>0.152959708828881</v>
       </c>
       <c r="X26" s="18">
-        <v>0.153628634965265</v>
+        <v>0.125745148297639</v>
       </c>
       <c r="Y26" s="18">
-        <v>0.116105708924658</v>
+        <v>0.102995590189193</v>
       </c>
       <c r="Z26" s="18">
-        <v>0.0861670305190653</v>
+        <v>0.084071010173091</v>
       </c>
       <c r="AA26" s="18">
-        <v>0.0628058315657793</v>
+        <v>0.0683991745763772</v>
       </c>
       <c r="AB26" s="18">
-        <v>0.0449666514927765</v>
+        <v>0.0554754216639957</v>
       </c>
       <c r="AC26" s="18">
-        <v>0.031627816367895</v>
+        <v>0.0448597234082106</v>
       </c>
       <c r="AD26" s="18">
-        <v>0.0218569066797897</v>
+        <v>0.0361721105889731</v>
       </c>
       <c r="AE26" s="18">
-        <v>0.0148422101332943</v>
+        <v>0.0290872255115323</v>
       </c>
       <c r="AF26" s="18">
-        <v>0.009904796568891211</v>
+        <v>0.0233285325939636</v>
       </c>
       <c r="AG26" s="18">
-        <v>0.00649641589330807</v>
+        <v>0.0186625450247803</v>
       </c>
       <c r="AH26" s="18">
-        <v>0.00418817893890588</v>
+        <v>0.0148932997921605</v>
       </c>
       <c r="AI26" s="18">
-        <v>0.00265423625349004</v>
+        <v>0.0118572221319306</v>
       </c>
       <c r="AJ26" s="18">
-        <v>0.00165369252430625</v>
+        <v>0.009418455253083271</v>
       </c>
       <c r="AK26" s="18">
-        <v>0.00101299419349032</v>
+        <v>0.00746468558178293</v>
       </c>
       <c r="AL26" s="18">
-        <v>0.000610141741985704</v>
+        <v>0.00590346275522113</v>
       </c>
       <c r="AM26" s="18">
-        <v>0.000361375937290132</v>
+        <v>0.0046589933908785</v>
       </c>
       <c r="AN26" s="18">
-        <v>0.000210486483330552</v>
+        <v>0.00366937533968104</v>
       </c>
       <c r="AO26" s="18">
-        <v>0.000120574705603338</v>
+        <v>0.00288423247816305</v>
       </c>
       <c r="AP26" s="18">
-        <v>6.79335948138293e-05</v>
+        <v>0.00226270741777834</v>
       </c>
       <c r="AQ26" s="18">
-        <v>3.7647632109894e-05</v>
+        <v>0.0017717695409819</v>
       </c>
       <c r="AR26" s="18">
-        <v>2.05230880454543e-05</v>
+        <v>0.00138479757176624</v>
       </c>
       <c r="AS26" s="18">
-        <v>1.10059129729834e-05</v>
+        <v>0.00108039876342869</v>
       </c>
       <c r="AT26" s="18">
-        <v>5.80648402048745e-06</v>
+        <v>0.000841430242776386</v>
       </c>
       <c r="AU26" s="18">
-        <v>3.01389998169643e-06</v>
+        <v>0.000654191739645871</v>
       </c>
       <c r="AV26" s="18">
-        <v>1.53920599077484e-06</v>
+        <v>0.000507762616633212</v>
       </c>
       <c r="AW26" s="18">
-        <v>7.73463991188272e-07</v>
+        <v>0.000393459642040628</v>
       </c>
       <c r="AX26" s="18">
-        <v>3.82455884295752e-07</v>
+        <v>0.000304395225546816</v>
       </c>
       <c r="AY26" s="18">
-        <v>1.86098246812705e-07</v>
+        <v>0.000235118810718027</v>
       </c>
     </row>
     <row r="27" ht="15.35" customHeight="1">
@@ -5398,154 +5401,154 @@
         <v>36</v>
       </c>
       <c r="B27" s="20">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="C27" s="14">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="15">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="F27" s="15">
-        <v>7.22</v>
+        <v>6.26</v>
       </c>
       <c r="G27" s="15">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="H27" s="15">
-        <v>7.22</v>
+        <v>6.26</v>
       </c>
       <c r="I27" s="16">
         <f>H27*(LN(2))^(1/G27)</f>
-        <v>5.37242837117668</v>
+        <v>4.94924977878072</v>
       </c>
       <c r="J27" s="16">
         <f>H27*EXP(GAMMALN(1+1/G27))</f>
-        <v>6.73706957118275</v>
+        <v>5.6264238413094</v>
       </c>
       <c r="K27" s="17">
         <v>1</v>
       </c>
       <c r="L27" s="18">
-        <v>0.917427734613027</v>
+        <v>0.944411635711254</v>
       </c>
       <c r="M27" s="18">
-        <v>0.815821778429058</v>
+        <v>0.84481618307105</v>
       </c>
       <c r="N27" s="18">
-        <v>0.714233140054695</v>
+        <v>0.728014858078329</v>
       </c>
       <c r="O27" s="18">
-        <v>0.61828595835288</v>
+        <v>0.608212867670748</v>
       </c>
       <c r="P27" s="18">
-        <v>0.530428964399606</v>
+        <v>0.494470962445294</v>
       </c>
       <c r="Q27" s="18">
-        <v>0.451619014780099</v>
+        <v>0.392206880015792</v>
       </c>
       <c r="R27" s="18">
-        <v>0.381992117722612</v>
+        <v>0.304096212063958</v>
       </c>
       <c r="S27" s="18">
-        <v>0.321212463827879</v>
+        <v>0.230823301684215</v>
       </c>
       <c r="T27" s="18">
-        <v>0.268678518077739</v>
+        <v>0.171731456244484</v>
       </c>
       <c r="U27" s="18">
-        <v>0.223652399121875</v>
+        <v>0.125360978249237</v>
       </c>
       <c r="V27" s="18">
-        <v>0.185343066431142</v>
+        <v>0.0898653494120888</v>
       </c>
       <c r="W27" s="18">
-        <v>0.152959708828881</v>
+        <v>0.06330878326183111</v>
       </c>
       <c r="X27" s="18">
-        <v>0.125745148297639</v>
+        <v>0.0438593182350827</v>
       </c>
       <c r="Y27" s="18">
-        <v>0.102995590189193</v>
+        <v>0.0298977216346501</v>
       </c>
       <c r="Z27" s="18">
-        <v>0.084071010173091</v>
+        <v>0.0200640305217786</v>
       </c>
       <c r="AA27" s="18">
-        <v>0.0683991745763772</v>
+        <v>0.0132618946178514</v>
       </c>
       <c r="AB27" s="18">
-        <v>0.0554754216639957</v>
+        <v>0.00863743981106246</v>
       </c>
       <c r="AC27" s="18">
-        <v>0.0448597234082106</v>
+        <v>0.00554530428944866</v>
       </c>
       <c r="AD27" s="18">
-        <v>0.0361721105889731</v>
+        <v>0.00351060278317328</v>
       </c>
       <c r="AE27" s="18">
-        <v>0.0290872255115323</v>
+        <v>0.00219228540955974</v>
       </c>
       <c r="AF27" s="18">
-        <v>0.0233285325939636</v>
+        <v>0.00135084103937932</v>
       </c>
       <c r="AG27" s="18">
-        <v>0.0186625450247803</v>
+        <v>0.000821535967180265</v>
       </c>
       <c r="AH27" s="18">
-        <v>0.0148932997921605</v>
+        <v>0.000493263906243824</v>
       </c>
       <c r="AI27" s="18">
-        <v>0.0118572221319306</v>
+        <v>0.00029246267034666</v>
       </c>
       <c r="AJ27" s="18">
-        <v>0.009418455253083271</v>
+        <v>0.000171277872372255</v>
       </c>
       <c r="AK27" s="18">
-        <v>0.00746468558178293</v>
+        <v>9.90985388851229e-05</v>
       </c>
       <c r="AL27" s="18">
-        <v>0.00590346275522113</v>
+        <v>5.66576458786994e-05</v>
       </c>
       <c r="AM27" s="18">
-        <v>0.0046589933908785</v>
+        <v>3.20155031902081e-05</v>
       </c>
       <c r="AN27" s="18">
-        <v>0.00366937533968104</v>
+        <v>1.78835399110566e-05</v>
       </c>
       <c r="AO27" s="18">
-        <v>0.00288423247816305</v>
+        <v>9.87676583430463e-06</v>
       </c>
       <c r="AP27" s="18">
-        <v>0.00226270741777834</v>
+        <v>5.39407748378906e-06</v>
       </c>
       <c r="AQ27" s="18">
-        <v>0.0017717695409819</v>
+        <v>2.91360298843024e-06</v>
       </c>
       <c r="AR27" s="18">
-        <v>0.00138479757176624</v>
+        <v>1.55675686930312e-06</v>
       </c>
       <c r="AS27" s="18">
-        <v>0.00108039876342869</v>
+        <v>8.2290927783113e-07</v>
       </c>
       <c r="AT27" s="18">
-        <v>0.000841430242776386</v>
+        <v>4.30412317453666e-07</v>
       </c>
       <c r="AU27" s="18">
-        <v>0.000654191739645871</v>
+        <v>2.22780553449375e-07</v>
       </c>
       <c r="AV27" s="18">
-        <v>0.000507762616633212</v>
+        <v>1.14126279537885e-07</v>
       </c>
       <c r="AW27" s="18">
-        <v>0.000393459642040628</v>
+        <v>5.78713453824875e-08</v>
       </c>
       <c r="AX27" s="18">
-        <v>0.000304395225546816</v>
+        <v>2.90511098510748e-08</v>
       </c>
       <c r="AY27" s="18">
-        <v>0.000235118810718027</v>
+        <v>1.44388591083455e-08</v>
       </c>
     </row>
     <row r="28" ht="15.35" customHeight="1">
@@ -5553,154 +5556,154 @@
         <v>37</v>
       </c>
       <c r="B28" s="20">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="C28" s="14">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="F28" s="15">
-        <v>6.26</v>
+        <v>7.78</v>
       </c>
       <c r="G28" s="15">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="H28" s="15">
-        <v>6.26</v>
+        <v>7.78</v>
       </c>
       <c r="I28" s="16">
         <f>H28*(LN(2))^(1/G28)</f>
-        <v>4.94924977878072</v>
+        <v>6.05279465126363</v>
       </c>
       <c r="J28" s="16">
         <f>H28*EXP(GAMMALN(1+1/G28))</f>
-        <v>5.6264238413094</v>
+        <v>7.04766629809732</v>
       </c>
       <c r="K28" s="17">
         <v>1</v>
       </c>
       <c r="L28" s="18">
-        <v>0.944411635711254</v>
+        <v>0.951207540500943</v>
       </c>
       <c r="M28" s="18">
-        <v>0.84481618307105</v>
+        <v>0.871431973369203</v>
       </c>
       <c r="N28" s="18">
-        <v>0.728014858078329</v>
+        <v>0.779773226418484</v>
       </c>
       <c r="O28" s="18">
-        <v>0.608212867670748</v>
+        <v>0.684821416303936</v>
       </c>
       <c r="P28" s="18">
-        <v>0.494470962445294</v>
+        <v>0.59190803714742</v>
       </c>
       <c r="Q28" s="18">
-        <v>0.392206880015792</v>
+        <v>0.504424081382679</v>
       </c>
       <c r="R28" s="18">
-        <v>0.304096212063958</v>
+        <v>0.424406585389785</v>
       </c>
       <c r="S28" s="18">
-        <v>0.230823301684215</v>
+        <v>0.352906366148752</v>
       </c>
       <c r="T28" s="18">
-        <v>0.171731456244484</v>
+        <v>0.290258508390807</v>
       </c>
       <c r="U28" s="18">
-        <v>0.125360978249237</v>
+        <v>0.23629381725171</v>
       </c>
       <c r="V28" s="18">
-        <v>0.0898653494120888</v>
+        <v>0.190506122901916</v>
       </c>
       <c r="W28" s="18">
-        <v>0.06330878326183111</v>
+        <v>0.152183098107332</v>
       </c>
       <c r="X28" s="18">
-        <v>0.0438593182350827</v>
+        <v>0.120506011523783</v>
       </c>
       <c r="Y28" s="18">
-        <v>0.0298977216346501</v>
+        <v>0.0946231638073201</v>
       </c>
       <c r="Z28" s="18">
-        <v>0.0200640305217786</v>
+        <v>0.0737014782781379</v>
       </c>
       <c r="AA28" s="18">
-        <v>0.0132618946178514</v>
+        <v>0.0569604527320963</v>
       </c>
       <c r="AB28" s="18">
-        <v>0.00863743981106246</v>
+        <v>0.0436923200261153</v>
       </c>
       <c r="AC28" s="18">
-        <v>0.00554530428944866</v>
+        <v>0.0332718149496661</v>
       </c>
       <c r="AD28" s="18">
-        <v>0.00351060278317328</v>
+        <v>0.025158440894516</v>
       </c>
       <c r="AE28" s="18">
-        <v>0.00219228540955974</v>
+        <v>0.0188936138704264</v>
       </c>
       <c r="AF28" s="18">
-        <v>0.00135084103937932</v>
+        <v>0.0140945682928407</v>
       </c>
       <c r="AG28" s="18">
-        <v>0.000821535967180265</v>
+        <v>0.0104464628508344</v>
       </c>
       <c r="AH28" s="18">
-        <v>0.000493263906243824</v>
+        <v>0.00769373939205753</v>
       </c>
       <c r="AI28" s="18">
-        <v>0.00029246267034666</v>
+        <v>0.00563146825966443</v>
       </c>
       <c r="AJ28" s="18">
-        <v>0.000171277872372255</v>
+        <v>0.00409715865421201</v>
       </c>
       <c r="AK28" s="18">
-        <v>9.90985388851229e-05</v>
+        <v>0.00296331696348806</v>
       </c>
       <c r="AL28" s="18">
-        <v>5.66576458786994e-05</v>
+        <v>0.00213089185421367</v>
       </c>
       <c r="AM28" s="18">
-        <v>3.20155031902081e-05</v>
+        <v>0.00152364356699031</v>
       </c>
       <c r="AN28" s="18">
-        <v>1.78835399110566e-05</v>
+        <v>0.00108340767543613</v>
       </c>
       <c r="AO28" s="18">
-        <v>9.87676583430463e-06</v>
+        <v>0.00076618263190098</v>
       </c>
       <c r="AP28" s="18">
-        <v>5.39407748378906e-06</v>
+        <v>0.00053894883619221</v>
       </c>
       <c r="AQ28" s="18">
-        <v>2.91360298843024e-06</v>
+        <v>0.000377119017378802</v>
       </c>
       <c r="AR28" s="18">
-        <v>1.55675686930312e-06</v>
+        <v>0.000262520865865312</v>
       </c>
       <c r="AS28" s="18">
-        <v>8.2290927783113e-07</v>
+        <v>0.000181819615556633</v>
       </c>
       <c r="AT28" s="18">
-        <v>4.30412317453666e-07</v>
+        <v>0.00012529809834394</v>
       </c>
       <c r="AU28" s="18">
-        <v>2.22780553449375e-07</v>
+        <v>8.59228791626476e-05</v>
       </c>
       <c r="AV28" s="18">
-        <v>1.14126279537885e-07</v>
+        <v>5.86362334284996e-05</v>
       </c>
       <c r="AW28" s="18">
-        <v>5.78713453824875e-08</v>
+        <v>3.98242094284962e-05</v>
       </c>
       <c r="AX28" s="18">
-        <v>2.90511098510748e-08</v>
+        <v>2.6920418361831e-05</v>
       </c>
       <c r="AY28" s="18">
-        <v>1.44388591083455e-08</v>
+        <v>1.81133383578835e-05</v>
       </c>
     </row>
     <row r="29" ht="15.35" customHeight="1">
@@ -5708,154 +5711,150 @@
         <v>38</v>
       </c>
       <c r="B29" s="20">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="C29" s="14">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="15">
-        <v>1.46</v>
-      </c>
-      <c r="F29" s="15">
-        <v>7.78</v>
-      </c>
-      <c r="G29" s="15">
-        <v>1.46</v>
-      </c>
-      <c r="H29" s="15">
-        <v>7.78</v>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20">
+        <v>2.2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>8.5</v>
       </c>
       <c r="I29" s="16">
         <f>H29*(LN(2))^(1/G29)</f>
-        <v>6.05279465126363</v>
+        <v>7.19559750533846</v>
       </c>
       <c r="J29" s="16">
         <f>H29*EXP(GAMMALN(1+1/G29))</f>
-        <v>7.04766629809732</v>
+        <v>7.52781046382676</v>
       </c>
       <c r="K29" s="17">
         <v>1</v>
       </c>
       <c r="L29" s="18">
-        <v>0.951207540500943</v>
+        <v>0.9910190796630171</v>
       </c>
       <c r="M29" s="18">
-        <v>0.871431973369203</v>
+        <v>0.9593954892022249</v>
       </c>
       <c r="N29" s="18">
-        <v>0.779773226418484</v>
+        <v>0.9038018236852839</v>
       </c>
       <c r="O29" s="18">
-        <v>0.684821416303936</v>
+        <v>0.826576440650405</v>
       </c>
       <c r="P29" s="18">
-        <v>0.59190803714742</v>
+        <v>0.732581633640124</v>
       </c>
       <c r="Q29" s="18">
-        <v>0.504424081382679</v>
+        <v>0.628297728447875</v>
       </c>
       <c r="R29" s="18">
-        <v>0.424406585389785</v>
+        <v>0.5208099383529839</v>
       </c>
       <c r="S29" s="18">
-        <v>0.352906366148752</v>
+        <v>0.416804670761067</v>
       </c>
       <c r="T29" s="18">
-        <v>0.290258508390807</v>
+        <v>0.321744687459206</v>
       </c>
       <c r="U29" s="18">
-        <v>0.23629381725171</v>
+        <v>0.239354369049415</v>
       </c>
       <c r="V29" s="18">
-        <v>0.190506122901916</v>
+        <v>0.171466868017625</v>
       </c>
       <c r="W29" s="18">
-        <v>0.152183098107332</v>
+        <v>0.118198542016045</v>
       </c>
       <c r="X29" s="18">
-        <v>0.120506011523783</v>
+        <v>0.07835080968352851</v>
       </c>
       <c r="Y29" s="18">
-        <v>0.0946231638073201</v>
+        <v>0.0499113988852056</v>
       </c>
       <c r="Z29" s="18">
-        <v>0.0737014782781379</v>
+        <v>0.030536744605176</v>
       </c>
       <c r="AA29" s="18">
-        <v>0.0569604527320963</v>
+        <v>0.0179336506744823</v>
       </c>
       <c r="AB29" s="18">
-        <v>0.0436923200261153</v>
+        <v>0.0101043079134401</v>
       </c>
       <c r="AC29" s="18">
-        <v>0.0332718149496661</v>
+        <v>0.00545904345076387</v>
       </c>
       <c r="AD29" s="18">
-        <v>0.025158440894516</v>
+        <v>0.00282676027504247</v>
       </c>
       <c r="AE29" s="18">
-        <v>0.0188936138704264</v>
+        <v>0.00140224313826287</v>
       </c>
       <c r="AF29" s="18">
-        <v>0.0140945682928407</v>
+        <v>0.00066608143540603</v>
       </c>
       <c r="AG29" s="18">
-        <v>0.0104464628508344</v>
+        <v>0.000302842129823677</v>
       </c>
       <c r="AH29" s="18">
-        <v>0.00769373939205753</v>
+        <v>0.000131738409990034</v>
       </c>
       <c r="AI29" s="18">
-        <v>0.00563146825966443</v>
+        <v>5.48080396979289e-05</v>
       </c>
       <c r="AJ29" s="18">
-        <v>0.00409715865421201</v>
+        <v>2.17994871110072e-05</v>
       </c>
       <c r="AK29" s="18">
-        <v>0.00296331696348806</v>
+        <v>8.286255109624109e-06</v>
       </c>
       <c r="AL29" s="18">
-        <v>0.00213089185421367</v>
+        <v>3.00902122185587e-06</v>
       </c>
       <c r="AM29" s="18">
-        <v>0.00152364356699031</v>
+        <v>1.04351030250083e-06</v>
       </c>
       <c r="AN29" s="18">
-        <v>0.00108340767543613</v>
+        <v>3.45483075925301e-07</v>
       </c>
       <c r="AO29" s="18">
-        <v>0.00076618263190098</v>
+        <v>1.09162502037741e-07</v>
       </c>
       <c r="AP29" s="18">
-        <v>0.00053894883619221</v>
+        <v>3.2907799041304e-08</v>
       </c>
       <c r="AQ29" s="18">
-        <v>0.000377119017378802</v>
+        <v>9.46168443594075e-09</v>
       </c>
       <c r="AR29" s="18">
-        <v>0.000262520865865312</v>
+        <v>2.59388910350822e-09</v>
       </c>
       <c r="AS29" s="18">
-        <v>0.000181819615556633</v>
+        <v>6.7782868207189e-10</v>
       </c>
       <c r="AT29" s="18">
-        <v>0.00012529809834394</v>
+        <v>1.68791092214349e-10</v>
       </c>
       <c r="AU29" s="18">
-        <v>8.59228791626476e-05</v>
+        <v>4.00421917845506e-11</v>
       </c>
       <c r="AV29" s="18">
-        <v>5.86362334284996e-05</v>
+        <v>9.04709640536794e-12</v>
       </c>
       <c r="AW29" s="18">
-        <v>3.98242094284962e-05</v>
+        <v>1.9462209621679e-12</v>
       </c>
       <c r="AX29" s="18">
-        <v>2.6920418361831e-05</v>
+        <v>3.98570065840431e-13</v>
       </c>
       <c r="AY29" s="18">
-        <v>1.81133383578835e-05</v>
+        <v>7.7715611723761e-14</v>
       </c>
     </row>
     <row r="30" ht="15.35" customHeight="1">
@@ -5863,150 +5862,152 @@
         <v>39</v>
       </c>
       <c r="B30" s="20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="C30" s="14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="D30" s="14"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="15">
+        <v>2.33</v>
+      </c>
       <c r="F30" s="19"/>
       <c r="G30" s="20">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H30" s="14">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I30" s="16">
         <f>H30*(LN(2))^(1/G30)</f>
-        <v>7.19559750533846</v>
+        <v>6.47726175451781</v>
       </c>
       <c r="J30" s="16">
         <f>H30*EXP(GAMMALN(1+1/G30))</f>
-        <v>7.52781046382676</v>
+        <v>6.65447863127306</v>
       </c>
       <c r="K30" s="17">
         <v>1</v>
       </c>
       <c r="L30" s="18">
-        <v>0.9910190796630171</v>
+        <v>0.993529497833208</v>
       </c>
       <c r="M30" s="18">
-        <v>0.9593954892022249</v>
+        <v>0.963944440975669</v>
       </c>
       <c r="N30" s="18">
-        <v>0.9038018236852839</v>
+        <v>0.903758694463658</v>
       </c>
       <c r="O30" s="18">
-        <v>0.826576440650405</v>
+        <v>0.812427295341236</v>
       </c>
       <c r="P30" s="18">
-        <v>0.732581633640124</v>
+        <v>0.695664782297325</v>
       </c>
       <c r="Q30" s="18">
-        <v>0.628297728447875</v>
+        <v>0.564150960837255</v>
       </c>
       <c r="R30" s="18">
-        <v>0.5208099383529839</v>
+        <v>0.431031853061771</v>
       </c>
       <c r="S30" s="18">
-        <v>0.416804670761067</v>
+        <v>0.308790620288928</v>
       </c>
       <c r="T30" s="18">
-        <v>0.321744687459206</v>
+        <v>0.206502870569466</v>
       </c>
       <c r="U30" s="18">
-        <v>0.239354369049415</v>
+        <v>0.128374827157909</v>
       </c>
       <c r="V30" s="18">
-        <v>0.171466868017625</v>
+        <v>0.0738939052841404</v>
       </c>
       <c r="W30" s="18">
-        <v>0.118198542016045</v>
+        <v>0.0392355394610362</v>
       </c>
       <c r="X30" s="18">
-        <v>0.07835080968352851</v>
+        <v>0.0191484230379092</v>
       </c>
       <c r="Y30" s="18">
-        <v>0.0499113988852056</v>
+        <v>0.00855998002357417</v>
       </c>
       <c r="Z30" s="18">
-        <v>0.030536744605176</v>
+        <v>0.00349348927664617</v>
       </c>
       <c r="AA30" s="18">
-        <v>0.0179336506744823</v>
+        <v>0.00129749052423167</v>
       </c>
       <c r="AB30" s="18">
-        <v>0.0101043079134401</v>
+        <v>0.000437183643800076</v>
       </c>
       <c r="AC30" s="18">
-        <v>0.00545904345076387</v>
+        <v>0.000133240654873079</v>
       </c>
       <c r="AD30" s="18">
-        <v>0.00282676027504247</v>
+        <v>3.66234080374506e-05</v>
       </c>
       <c r="AE30" s="18">
-        <v>0.00140224313826287</v>
+        <v>9.05316789701072e-06</v>
       </c>
       <c r="AF30" s="18">
-        <v>0.00066608143540603</v>
+        <v>2.00708082775947e-06</v>
       </c>
       <c r="AG30" s="18">
-        <v>0.000302842129823677</v>
+        <v>3.98000723711434e-07</v>
       </c>
       <c r="AH30" s="18">
-        <v>0.000131738409990034</v>
+        <v>7.04072399271283e-08</v>
       </c>
       <c r="AI30" s="18">
-        <v>5.48080396979289e-05</v>
+        <v>1.10828288768516e-08</v>
       </c>
       <c r="AJ30" s="18">
-        <v>2.17994871110072e-05</v>
+        <v>1.54843571298358e-09</v>
       </c>
       <c r="AK30" s="18">
-        <v>8.286255109624109e-06</v>
+        <v>1.91547666616998e-10</v>
       </c>
       <c r="AL30" s="18">
-        <v>3.00902122185587e-06</v>
+        <v>2.09292583264187e-11</v>
       </c>
       <c r="AM30" s="18">
-        <v>1.04351030250083e-06</v>
+        <v>2.01516581199712e-12</v>
       </c>
       <c r="AN30" s="18">
-        <v>3.45483075925301e-07</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="AO30" s="18">
-        <v>1.09162502037741e-07</v>
+        <v>1.26565424807268e-14</v>
       </c>
       <c r="AP30" s="18">
-        <v>3.2907799041304e-08</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="18">
-        <v>9.46168443594075e-09</v>
+        <v>0</v>
       </c>
       <c r="AR30" s="18">
-        <v>2.59388910350822e-09</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="18">
-        <v>6.7782868207189e-10</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="18">
-        <v>1.68791092214349e-10</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="18">
-        <v>4.00421917845506e-11</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="18">
-        <v>9.04709640536794e-12</v>
+        <v>0</v>
       </c>
       <c r="AW30" s="18">
-        <v>1.9462209621679e-12</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="18">
-        <v>3.98570065840431e-13</v>
+        <v>0</v>
       </c>
       <c r="AY30" s="18">
-        <v>7.7715611723761e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="15.35" customHeight="1">
@@ -6014,460 +6015,462 @@
         <v>40</v>
       </c>
       <c r="B31" s="20">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="C31" s="14">
-        <v>7.5</v>
-      </c>
-      <c r="D31" s="14"/>
+        <v>10.2</v>
+      </c>
+      <c r="D31" t="s" s="22">
+        <v>41</v>
+      </c>
       <c r="E31" s="15">
-        <v>2.33</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="14">
-        <v>7.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="15">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="H31" s="15">
+        <v>9.869999999999999</v>
       </c>
       <c r="I31" s="16">
         <f>H31*(LN(2))^(1/G31)</f>
-        <v>6.47726175451781</v>
+        <v>7.44517995882393</v>
       </c>
       <c r="J31" s="16">
         <f>H31*EXP(GAMMALN(1+1/G31))</f>
-        <v>6.65447863127306</v>
+        <v>9.1157022417575</v>
       </c>
       <c r="K31" s="17">
         <v>1</v>
       </c>
       <c r="L31" s="18">
-        <v>0.993529497833208</v>
+        <v>0.95029902935275</v>
       </c>
       <c r="M31" s="18">
-        <v>0.963944440975669</v>
+        <v>0.882034614288242</v>
       </c>
       <c r="N31" s="18">
-        <v>0.903758694463658</v>
+        <v>0.8084469797118961</v>
       </c>
       <c r="O31" s="18">
-        <v>0.812427295341236</v>
+        <v>0.734124761663707</v>
       </c>
       <c r="P31" s="18">
-        <v>0.695664782297325</v>
+        <v>0.661600202726244</v>
       </c>
       <c r="Q31" s="18">
-        <v>0.564150960837255</v>
+        <v>0.592395056761475</v>
       </c>
       <c r="R31" s="18">
-        <v>0.431031853061771</v>
+        <v>0.5274204884900749</v>
       </c>
       <c r="S31" s="18">
-        <v>0.308790620288928</v>
+        <v>0.467182598299519</v>
       </c>
       <c r="T31" s="18">
-        <v>0.206502870569466</v>
+        <v>0.411906946451292</v>
       </c>
       <c r="U31" s="18">
-        <v>0.128374827157909</v>
+        <v>0.361621816456547</v>
       </c>
       <c r="V31" s="18">
-        <v>0.0738939052841404</v>
+        <v>0.316217287914341</v>
       </c>
       <c r="W31" s="18">
-        <v>0.0392355394610362</v>
+        <v>0.275488614371294</v>
       </c>
       <c r="X31" s="18">
-        <v>0.0191484230379092</v>
+        <v>0.239168658264448</v>
       </c>
       <c r="Y31" s="18">
-        <v>0.00855998002357417</v>
+        <v>0.206952309482725</v>
       </c>
       <c r="Z31" s="18">
-        <v>0.00349348927664617</v>
+        <v>0.178514837513665</v>
       </c>
       <c r="AA31" s="18">
-        <v>0.00129749052423167</v>
+        <v>0.153525560021381</v>
       </c>
       <c r="AB31" s="18">
-        <v>0.000437183643800076</v>
+        <v>0.131657855794414</v>
       </c>
       <c r="AC31" s="18">
-        <v>0.000133240654873079</v>
+        <v>0.1125963124009</v>
       </c>
       <c r="AD31" s="18">
-        <v>3.66234080374506e-05</v>
+        <v>0.09604163021739349</v>
       </c>
       <c r="AE31" s="18">
-        <v>9.05316789701072e-06</v>
+        <v>0.0817137788409493</v>
       </c>
       <c r="AF31" s="18">
-        <v>2.00708082775947e-06</v>
+        <v>0.0693538047196109</v>
       </c>
       <c r="AG31" s="18">
-        <v>3.98000723711434e-07</v>
+        <v>0.0587246116216288</v>
       </c>
       <c r="AH31" s="18">
-        <v>7.04072399271283e-08</v>
+        <v>0.0496109730704913</v>
       </c>
       <c r="AI31" s="18">
-        <v>1.10828288768516e-08</v>
+        <v>0.0418189847158145</v>
       </c>
       <c r="AJ31" s="18">
-        <v>1.54843571298358e-09</v>
+        <v>0.0351751224813438</v>
       </c>
       <c r="AK31" s="18">
-        <v>1.91547666616998e-10</v>
+        <v>0.0295250375702779</v>
       </c>
       <c r="AL31" s="18">
-        <v>2.09292583264187e-11</v>
+        <v>0.0247321907584382</v>
       </c>
       <c r="AM31" s="18">
-        <v>2.01516581199712e-12</v>
+        <v>0.0206764048749594</v>
       </c>
       <c r="AN31" s="18">
-        <v>1.70530256582424e-13</v>
+        <v>0.0172523951472173</v>
       </c>
       <c r="AO31" s="18">
-        <v>1.26565424807268e-14</v>
+        <v>0.0143683214929701</v>
       </c>
       <c r="AP31" s="18">
-        <v>0</v>
+        <v>0.0119443943013091</v>
       </c>
       <c r="AQ31" s="18">
-        <v>0</v>
+        <v>0.00991155526047827</v>
       </c>
       <c r="AR31" s="18">
-        <v>0</v>
+        <v>0.00821024693938632</v>
       </c>
       <c r="AS31" s="18">
-        <v>0</v>
+        <v>0.00678927874466428</v>
       </c>
       <c r="AT31" s="18">
-        <v>0</v>
+        <v>0.00560479224224653</v>
       </c>
       <c r="AU31" s="18">
-        <v>0</v>
+        <v>0.00461932538331211</v>
       </c>
       <c r="AV31" s="18">
-        <v>0</v>
+        <v>0.00380097268100787</v>
       </c>
       <c r="AW31" s="18">
-        <v>0</v>
+        <v>0.00312263665423085</v>
       </c>
       <c r="AX31" s="18">
-        <v>0</v>
+        <v>0.00256136472664881</v>
       </c>
       <c r="AY31" s="18">
-        <v>0</v>
+        <v>0.00209776510903392</v>
       </c>
     </row>
     <row r="32" ht="15.35" customHeight="1">
       <c r="A32" t="s" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="20">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="C32" s="14">
-        <v>10.2</v>
-      </c>
-      <c r="D32" t="s" s="22">
-        <v>42</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="F32" s="15">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1.3</v>
-      </c>
-      <c r="H32" s="15">
-        <v>9.869999999999999</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="H32" s="14">
+        <v>8</v>
       </c>
       <c r="I32" s="16">
         <f>H32*(LN(2))^(1/G32)</f>
-        <v>7.44517995882393</v>
+        <v>5.05966558377741</v>
       </c>
       <c r="J32" s="16">
         <f>H32*EXP(GAMMALN(1+1/G32))</f>
-        <v>9.1157022417575</v>
+        <v>9.06402477055477</v>
       </c>
       <c r="K32" s="17">
         <v>1</v>
       </c>
       <c r="L32" s="18">
-        <v>0.95029902935275</v>
+        <v>0.827402030558777</v>
       </c>
       <c r="M32" s="18">
-        <v>0.882034614288242</v>
+        <v>0.719012182528504</v>
       </c>
       <c r="N32" s="18">
-        <v>0.8084469797118961</v>
+        <v>0.633640667059528</v>
       </c>
       <c r="O32" s="18">
-        <v>0.734124761663707</v>
+        <v>0.563071208995557</v>
       </c>
       <c r="P32" s="18">
-        <v>0.661600202726244</v>
+        <v>0.503284159200631</v>
       </c>
       <c r="Q32" s="18">
-        <v>0.592395056761475</v>
+        <v>0.451844185562732</v>
       </c>
       <c r="R32" s="18">
-        <v>0.5274204884900749</v>
+        <v>0.407105535486259</v>
       </c>
       <c r="S32" s="18">
-        <v>0.467182598299519</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="T32" s="18">
-        <v>0.411906946451292</v>
+        <v>0.333267929525423</v>
       </c>
       <c r="U32" s="18">
-        <v>0.361621816456547</v>
+        <v>0.302570604712472</v>
       </c>
       <c r="V32" s="18">
-        <v>0.316217287914341</v>
+        <v>0.27522789973244</v>
       </c>
       <c r="W32" s="18">
-        <v>0.275488614371294</v>
+        <v>0.250784351320816</v>
       </c>
       <c r="X32" s="18">
-        <v>0.239168658264448</v>
+        <v>0.228863680482972</v>
       </c>
       <c r="Y32" s="18">
-        <v>0.206952309482725</v>
+        <v>0.209151233976606</v>
       </c>
       <c r="Z32" s="18">
-        <v>0.178514837513665</v>
+        <v>0.191381227125852</v>
       </c>
       <c r="AA32" s="18">
-        <v>0.153525560021381</v>
+        <v>0.175327236804818</v>
       </c>
       <c r="AB32" s="18">
-        <v>0.131657855794414</v>
+        <v>0.160794963939376</v>
       </c>
       <c r="AC32" s="18">
-        <v>0.1125963124009</v>
+        <v>0.147616623039448</v>
       </c>
       <c r="AD32" s="18">
-        <v>0.09604163021739349</v>
+        <v>0.135646524799142</v>
       </c>
       <c r="AE32" s="18">
-        <v>0.0817137788409493</v>
+        <v>0.124757550827775</v>
       </c>
       <c r="AF32" s="18">
-        <v>0.0693538047196109</v>
+        <v>0.114838306975621</v>
       </c>
       <c r="AG32" s="18">
-        <v>0.0587246116216288</v>
+        <v>0.105790800645383</v>
       </c>
       <c r="AH32" s="18">
-        <v>0.0496109730704913</v>
+        <v>0.0975285281272424</v>
       </c>
       <c r="AI32" s="18">
-        <v>0.0418189847158145</v>
+        <v>0.08997488660784959</v>
       </c>
       <c r="AJ32" s="18">
-        <v>0.0351751224813438</v>
+        <v>0.0830618460140771</v>
       </c>
       <c r="AK32" s="18">
-        <v>0.0295250375702779</v>
+        <v>0.07672883079734071</v>
       </c>
       <c r="AL32" s="18">
-        <v>0.0247321907584382</v>
+        <v>0.07092177281617849</v>
       </c>
       <c r="AM32" s="18">
-        <v>0.0206764048749594</v>
+        <v>0.0655923047581389</v>
       </c>
       <c r="AN32" s="18">
-        <v>0.0172523951472173</v>
+        <v>0.0606970698268456</v>
       </c>
       <c r="AO32" s="18">
-        <v>0.0143683214929701</v>
+        <v>0.0561971282422558</v>
       </c>
       <c r="AP32" s="18">
-        <v>0.0119443943013091</v>
+        <v>0.0520574448402461</v>
       </c>
       <c r="AQ32" s="18">
-        <v>0.00991155526047827</v>
+        <v>0.0482464449829804</v>
       </c>
       <c r="AR32" s="18">
-        <v>0.00821024693938632</v>
+        <v>0.0447356283008478</v>
       </c>
       <c r="AS32" s="18">
-        <v>0.00678927874466428</v>
+        <v>0.0414992316246248</v>
       </c>
       <c r="AT32" s="18">
-        <v>0.00560479224224653</v>
+        <v>0.0385139339401553</v>
       </c>
       <c r="AU32" s="18">
-        <v>0.00461932538331211</v>
+        <v>0.0357585973877258</v>
       </c>
       <c r="AV32" s="18">
-        <v>0.00380097268100787</v>
+        <v>0.0332140392953247</v>
       </c>
       <c r="AW32" s="18">
-        <v>0.00312263665423085</v>
+        <v>0.0308628310256515</v>
       </c>
       <c r="AX32" s="18">
-        <v>0.00256136472664881</v>
+        <v>0.0286891200669016</v>
       </c>
       <c r="AY32" s="18">
-        <v>0.00209776510903392</v>
+        <v>0.0266784723348314</v>
       </c>
     </row>
     <row r="33" ht="15.35" customHeight="1">
-      <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" t="s" s="22">
+      <c r="A33" t="s" s="12">
         <v>43</v>
       </c>
+      <c r="B33" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="C33" s="23">
+        <v>15.6</v>
+      </c>
+      <c r="D33" s="23"/>
       <c r="E33" s="15">
-        <v>1.3</v>
+        <v>2.09</v>
       </c>
       <c r="F33" s="15">
-        <v>6.15</v>
+        <v>15.54</v>
       </c>
       <c r="G33" s="15">
-        <v>1.3</v>
+        <v>2.09</v>
       </c>
       <c r="H33" s="15">
-        <v>6.15</v>
+        <v>15.54</v>
       </c>
       <c r="I33" s="16">
         <f>H33*(LN(2))^(1/G33)</f>
-        <v>4.63909389531583</v>
+        <v>13.040401047062</v>
       </c>
       <c r="J33" s="16">
         <f>H33*EXP(GAMMALN(1+1/G33))</f>
-        <v>5.67999683756926</v>
+        <v>13.764151725312</v>
       </c>
       <c r="K33" s="17">
         <v>1</v>
       </c>
       <c r="L33" s="18">
-        <v>0.910019467790657</v>
+        <v>0.996770278244185</v>
       </c>
       <c r="M33" s="18">
-        <v>0.792813350295906</v>
+        <v>0.986321678962286</v>
       </c>
       <c r="N33" s="18">
-        <v>0.6748286929257979</v>
+        <v>0.9683706473624351</v>
       </c>
       <c r="O33" s="18">
-        <v>0.564585562600456</v>
+        <v>0.943048904095196</v>
       </c>
       <c r="P33" s="18">
-        <v>0.465774917588893</v>
+        <v>0.910757019429575</v>
       </c>
       <c r="Q33" s="18">
-        <v>0.379686505446294</v>
+        <v>0.872112382910432</v>
       </c>
       <c r="R33" s="18">
-        <v>0.306270614979934</v>
+        <v>0.827908777989947</v>
       </c>
       <c r="S33" s="18">
-        <v>0.244729871699978</v>
+        <v>0.779076150855379</v>
       </c>
       <c r="T33" s="18">
-        <v>0.193882068007736</v>
+        <v>0.726638656624779</v>
       </c>
       <c r="U33" s="18">
-        <v>0.152389032878742</v>
+        <v>0.671671686649042</v>
       </c>
       <c r="V33" s="18">
-        <v>0.11889952819532</v>
+        <v>0.61525948663652</v>
       </c>
       <c r="W33" s="18">
-        <v>0.0921347105193091</v>
+        <v>0.55845523155351</v>
       </c>
       <c r="X33" s="18">
-        <v>0.0709348732587808</v>
+        <v>0.5022453440275459</v>
       </c>
       <c r="Y33" s="18">
-        <v>0.0542803822548299</v>
+        <v>0.447519557954983</v>
       </c>
       <c r="Z33" s="18">
-        <v>0.0412958984500981</v>
+        <v>0.395047815413291</v>
       </c>
       <c r="AA33" s="18">
-        <v>0.0312442991591294</v>
+        <v>0.345464603274201</v>
       </c>
       <c r="AB33" s="18">
-        <v>0.0235147650385269</v>
+        <v>0.299260838835052</v>
       </c>
       <c r="AC33" s="18">
-        <v>0.0176080758317793</v>
+        <v>0.256782947031984</v>
       </c>
       <c r="AD33" s="18">
-        <v>0.0131211187544032</v>
+        <v>0.218238372361162</v>
       </c>
       <c r="AE33" s="18">
-        <v>0.00973186456298147</v>
+        <v>0.183706462958067</v>
       </c>
       <c r="AF33" s="18">
-        <v>0.00718553734528515</v>
+        <v>0.153153467201728</v>
       </c>
       <c r="AG33" s="18">
-        <v>0.00528234023456386</v>
+        <v>0.126450297976313</v>
       </c>
       <c r="AH33" s="18">
-        <v>0.00386685779883345</v>
+        <v>0.10339173916727</v>
       </c>
       <c r="AI33" s="18">
-        <v>0.00281910338127866</v>
+        <v>0.08371587755851551</v>
       </c>
       <c r="AJ33" s="18">
-        <v>0.00204709038629203</v>
+        <v>0.06712271978452131</v>
       </c>
       <c r="AK33" s="18">
-        <v>0.00148076083151349</v>
+        <v>0.0532911742948088</v>
       </c>
       <c r="AL33" s="18">
-        <v>0.00106708782633702</v>
+        <v>0.0418938182414598</v>
       </c>
       <c r="AM33" s="18">
-        <v>0.000766170355766205</v>
+        <v>0.0326091068831246</v>
       </c>
       <c r="AN33" s="18">
-        <v>0.00054815128724095</v>
+        <v>0.0251309005571851</v>
       </c>
       <c r="AO33" s="18">
-        <v>0.000390807664181092</v>
+        <v>0.0191753685282173</v>
       </c>
       <c r="AP33" s="18">
-        <v>0.000277682638429422</v>
+        <v>0.0144854723913118</v>
       </c>
       <c r="AQ33" s="18">
-        <v>0.000196648631448748</v>
+        <v>0.0108333315111979</v>
       </c>
       <c r="AR33" s="18">
-        <v>0.000138810209665885</v>
+        <v>0.00802083078463733</v>
       </c>
       <c r="AS33" s="18">
-        <v>9.76720412732002e-05</v>
+        <v>0.00587885161836543</v>
       </c>
       <c r="AT33" s="18">
-        <v>6.851190919754389e-05</v>
+        <v>0.00426549729082115</v>
       </c>
       <c r="AU33" s="18">
-        <v>4.79110856931309e-05</v>
+        <v>0.00306365166056577</v>
       </c>
       <c r="AV33" s="18">
-        <v>3.34045777451442e-05</v>
+        <v>0.00217816336768495</v>
       </c>
       <c r="AW33" s="18">
-        <v>2.32220572933262e-05</v>
+        <v>0.00153289340842078</v>
       </c>
       <c r="AX33" s="18">
-        <v>1.60969546370016e-05</v>
+        <v>0.0010678082191613</v>
       </c>
       <c r="AY33" s="18">
-        <v>1.11264758055896e-05</v>
+        <v>0.000736247722509575</v>
       </c>
     </row>
     <row r="34" ht="15.35" customHeight="1">
@@ -6475,150 +6478,154 @@
         <v>44</v>
       </c>
       <c r="B34" s="20">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="C34" s="14">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="D34" s="14"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20">
-        <v>0.8</v>
-      </c>
-      <c r="H34" s="14">
-        <v>8</v>
+      <c r="E34" s="15">
+        <v>1.14</v>
+      </c>
+      <c r="F34" s="15">
+        <v>8.33</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1.14</v>
+      </c>
+      <c r="H34" s="15">
+        <v>8.33</v>
       </c>
       <c r="I34" s="16">
         <f>H34*(LN(2))^(1/G34)</f>
-        <v>5.05966558377741</v>
+        <v>6.03973957481696</v>
       </c>
       <c r="J34" s="16">
         <f>H34*EXP(GAMMALN(1+1/G34))</f>
-        <v>9.06402477055477</v>
+        <v>7.94812079369175</v>
       </c>
       <c r="K34" s="17">
         <v>1</v>
       </c>
       <c r="L34" s="18">
-        <v>0.827402030558777</v>
+        <v>0.914643863784779</v>
       </c>
       <c r="M34" s="18">
-        <v>0.719012182528504</v>
+        <v>0.821498578848634</v>
       </c>
       <c r="N34" s="18">
-        <v>0.633640667059528</v>
+        <v>0.7318614343211201</v>
       </c>
       <c r="O34" s="18">
-        <v>0.563071208995557</v>
+        <v>0.648350169024533</v>
       </c>
       <c r="P34" s="18">
-        <v>0.503284159200631</v>
+        <v>0.571869828957048</v>
       </c>
       <c r="Q34" s="18">
-        <v>0.451844185562732</v>
+        <v>0.502605156545557</v>
       </c>
       <c r="R34" s="18">
-        <v>0.407105535486259</v>
+        <v>0.440379586769114</v>
       </c>
       <c r="S34" s="18">
-        <v>0.367879441171442</v>
+        <v>0.384825758058616</v>
       </c>
       <c r="T34" s="18">
-        <v>0.333267929525423</v>
+        <v>0.33547848515911</v>
       </c>
       <c r="U34" s="18">
-        <v>0.302570604712472</v>
+        <v>0.291829406347859</v>
       </c>
       <c r="V34" s="18">
-        <v>0.27522789973244</v>
+        <v>0.253360340418949</v>
       </c>
       <c r="W34" s="18">
-        <v>0.250784351320816</v>
+        <v>0.21956386816691</v>
       </c>
       <c r="X34" s="18">
-        <v>0.228863680482972</v>
+        <v>0.189955846772526</v>
       </c>
       <c r="Y34" s="18">
-        <v>0.209151233976606</v>
+        <v>0.164082662350917</v>
       </c>
       <c r="Z34" s="18">
-        <v>0.191381227125852</v>
+        <v>0.141524987108997</v>
       </c>
       <c r="AA34" s="18">
-        <v>0.175327236804818</v>
+        <v>0.121899199610003</v>
       </c>
       <c r="AB34" s="18">
-        <v>0.160794963939376</v>
+        <v>0.104857250473821</v>
       </c>
       <c r="AC34" s="18">
-        <v>0.147616623039448</v>
+        <v>0.0900855125309056</v>
       </c>
       <c r="AD34" s="18">
-        <v>0.135646524799142</v>
+        <v>0.07730299147045989</v>
       </c>
       <c r="AE34" s="18">
-        <v>0.124757550827775</v>
+        <v>0.0662591608559613</v>
       </c>
       <c r="AF34" s="18">
-        <v>0.114838306975621</v>
+        <v>0.0567316065833967</v>
       </c>
       <c r="AG34" s="18">
-        <v>0.105790800645383</v>
+        <v>0.0485236096716601</v>
       </c>
       <c r="AH34" s="18">
-        <v>0.0975285281272424</v>
+        <v>0.0414617558070932</v>
       </c>
       <c r="AI34" s="18">
-        <v>0.08997488660784959</v>
+        <v>0.0353936307499907</v>
       </c>
       <c r="AJ34" s="18">
-        <v>0.0830618460140771</v>
+        <v>0.030185639439258</v>
       </c>
       <c r="AK34" s="18">
-        <v>0.07672883079734071</v>
+        <v>0.0257209712305521</v>
       </c>
       <c r="AL34" s="18">
-        <v>0.07092177281617849</v>
+        <v>0.0218977226257004</v>
       </c>
       <c r="AM34" s="18">
-        <v>0.0655923047581389</v>
+        <v>0.0186271809757056</v>
       </c>
       <c r="AN34" s="18">
-        <v>0.0606970698268456</v>
+        <v>0.0158322671425704</v>
       </c>
       <c r="AO34" s="18">
-        <v>0.0561971282422558</v>
+        <v>0.0134461313750515</v>
       </c>
       <c r="AP34" s="18">
-        <v>0.0520574448402461</v>
+        <v>0.011410894232622</v>
       </c>
       <c r="AQ34" s="18">
-        <v>0.0482464449829804</v>
+        <v>0.009676522935907371</v>
       </c>
       <c r="AR34" s="18">
-        <v>0.0447356283008478</v>
+        <v>0.00819983277044212</v>
       </c>
       <c r="AS34" s="18">
-        <v>0.0414992316246248</v>
+        <v>0.00694360292690044</v>
       </c>
       <c r="AT34" s="18">
-        <v>0.0385139339401553</v>
+        <v>0.00587579627612678</v>
       </c>
       <c r="AU34" s="18">
-        <v>0.0357585973877258</v>
+        <v>0.00496887293902837</v>
       </c>
       <c r="AV34" s="18">
-        <v>0.0332140392953247</v>
+        <v>0.00419918803536978</v>
       </c>
       <c r="AW34" s="18">
-        <v>0.0308628310256515</v>
+        <v>0.00354646461887653</v>
       </c>
       <c r="AX34" s="18">
-        <v>0.0286891200669016</v>
+        <v>0.00299333348238118</v>
       </c>
       <c r="AY34" s="18">
-        <v>0.0266784723348314</v>
+        <v>0.00252493221226768</v>
       </c>
     </row>
     <row r="35" ht="15.35" customHeight="1">
@@ -6626,154 +6633,154 @@
         <v>45</v>
       </c>
       <c r="B35" s="20">
-        <v>2.1</v>
-      </c>
-      <c r="C35" s="23">
-        <v>15.6</v>
-      </c>
-      <c r="D35" s="23"/>
+        <v>1.5</v>
+      </c>
+      <c r="C35" s="14">
+        <v>10.8</v>
+      </c>
+      <c r="D35" s="14"/>
       <c r="E35" s="15">
-        <v>2.09</v>
+        <v>1.49</v>
       </c>
       <c r="F35" s="15">
-        <v>15.54</v>
+        <v>11.5</v>
       </c>
       <c r="G35" s="15">
-        <v>2.09</v>
+        <v>1.49</v>
       </c>
       <c r="H35" s="15">
-        <v>15.54</v>
+        <v>11.5</v>
       </c>
       <c r="I35" s="16">
         <f>H35*(LN(2))^(1/G35)</f>
-        <v>13.040401047062</v>
+        <v>8.992269011610521</v>
       </c>
       <c r="J35" s="16">
         <f>H35*EXP(GAMMALN(1+1/G35))</f>
-        <v>13.764151725312</v>
+        <v>10.3901018557827</v>
       </c>
       <c r="K35" s="17">
         <v>1</v>
       </c>
       <c r="L35" s="18">
-        <v>0.996770278244185</v>
+        <v>0.974066153379046</v>
       </c>
       <c r="M35" s="18">
-        <v>0.986321678962286</v>
+        <v>0.928851361780728</v>
       </c>
       <c r="N35" s="18">
-        <v>0.9683706473624351</v>
+        <v>0.873678665969242</v>
       </c>
       <c r="O35" s="18">
-        <v>0.943048904095196</v>
+        <v>0.81276402408556</v>
       </c>
       <c r="P35" s="18">
-        <v>0.910757019429575</v>
+        <v>0.748948558678657</v>
       </c>
       <c r="Q35" s="18">
-        <v>0.872112382910432</v>
+        <v>0.68432668931087</v>
       </c>
       <c r="R35" s="18">
-        <v>0.827908777989947</v>
+        <v>0.6204803236588901</v>
       </c>
       <c r="S35" s="18">
-        <v>0.779076150855379</v>
+        <v>0.558598966501641</v>
       </c>
       <c r="T35" s="18">
-        <v>0.726638656624779</v>
+        <v>0.499556139925528</v>
       </c>
       <c r="U35" s="18">
-        <v>0.671671686649042</v>
+        <v>0.443965762273808</v>
       </c>
       <c r="V35" s="18">
-        <v>0.61525948663652</v>
+        <v>0.392227734286418</v>
       </c>
       <c r="W35" s="18">
-        <v>0.55845523155351</v>
+        <v>0.344566675070978</v>
       </c>
       <c r="X35" s="18">
-        <v>0.5022453440275459</v>
+        <v>0.301065581340515</v>
       </c>
       <c r="Y35" s="18">
-        <v>0.447519557954983</v>
+        <v>0.261695251626857</v>
       </c>
       <c r="Z35" s="18">
-        <v>0.395047815413291</v>
+        <v>0.226339918376851</v>
       </c>
       <c r="AA35" s="18">
-        <v>0.345464603274201</v>
+        <v>0.194819372855103</v>
       </c>
       <c r="AB35" s="18">
-        <v>0.299260838835052</v>
+        <v>0.166907819195148</v>
       </c>
       <c r="AC35" s="18">
-        <v>0.256782947031984</v>
+        <v>0.142349692249047</v>
       </c>
       <c r="AD35" s="18">
-        <v>0.218238372361162</v>
+        <v>0.120872688502546</v>
       </c>
       <c r="AE35" s="18">
-        <v>0.183706462958067</v>
+        <v>0.102198275403882</v>
       </c>
       <c r="AF35" s="18">
-        <v>0.153153467201728</v>
+        <v>0.086049955264645</v>
       </c>
       <c r="AG35" s="18">
-        <v>0.126450297976313</v>
+        <v>0.0721595629821439</v>
       </c>
       <c r="AH35" s="18">
-        <v>0.10339173916727</v>
+        <v>0.0602718720159467</v>
       </c>
       <c r="AI35" s="18">
-        <v>0.08371587755851551</v>
+        <v>0.0501477712783588</v>
       </c>
       <c r="AJ35" s="18">
-        <v>0.06712271978452131</v>
+        <v>0.0415662583235277</v>
       </c>
       <c r="AK35" s="18">
-        <v>0.0532911742948088</v>
+        <v>0.0343254730323634</v>
       </c>
       <c r="AL35" s="18">
-        <v>0.0418938182414598</v>
+        <v>0.0282429724087548</v>
       </c>
       <c r="AM35" s="18">
-        <v>0.0326091068831246</v>
+        <v>0.0231554224631561</v>
       </c>
       <c r="AN35" s="18">
-        <v>0.0251309005571851</v>
+        <v>0.0189178585675733</v>
       </c>
       <c r="AO35" s="18">
-        <v>0.0191753685282173</v>
+        <v>0.0154026419827467</v>
       </c>
       <c r="AP35" s="18">
-        <v>0.0144854723913118</v>
+        <v>0.0124982181125216</v>
       </c>
       <c r="AQ35" s="18">
-        <v>0.0108333315111979</v>
+        <v>0.0101077618518998</v>
       </c>
       <c r="AR35" s="18">
-        <v>0.00802083078463733</v>
+        <v>0.00814777740559924</v>
       </c>
       <c r="AS35" s="18">
-        <v>0.00587885161836543</v>
+        <v>0.00654670425925707</v>
       </c>
       <c r="AT35" s="18">
-        <v>0.00426549729082115</v>
+        <v>0.00524356756823774</v>
       </c>
       <c r="AU35" s="18">
-        <v>0.00306365166056577</v>
+        <v>0.00418669998792132</v>
       </c>
       <c r="AV35" s="18">
-        <v>0.00217816336768495</v>
+        <v>0.00333255274466981</v>
       </c>
       <c r="AW35" s="18">
-        <v>0.00153289340842078</v>
+        <v>0.00264460634242603</v>
       </c>
       <c r="AX35" s="18">
-        <v>0.0010678082191613</v>
+        <v>0.00209238550147739</v>
       </c>
       <c r="AY35" s="18">
-        <v>0.000736247722509575</v>
+        <v>0.00165057851397354</v>
       </c>
     </row>
     <row r="36" ht="15.35" customHeight="1">
@@ -6781,154 +6788,154 @@
         <v>46</v>
       </c>
       <c r="B36" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="C36" s="14">
-        <v>10.5</v>
-      </c>
-      <c r="D36" s="14"/>
+        <v>1.4</v>
+      </c>
+      <c r="C36" s="23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D36" s="23"/>
       <c r="E36" s="15">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="F36" s="15">
-        <v>8.33</v>
+        <v>6.75</v>
       </c>
       <c r="G36" s="15">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="H36" s="15">
-        <v>8.33</v>
+        <v>6.75</v>
       </c>
       <c r="I36" s="16">
         <f>H36*(LN(2))^(1/G36)</f>
-        <v>6.03973957481696</v>
+        <v>4.96070790817639</v>
       </c>
       <c r="J36" s="16">
         <f>H36*EXP(GAMMALN(1+1/G36))</f>
-        <v>7.94812079369175</v>
+        <v>6.36330542358482</v>
       </c>
       <c r="K36" s="17">
         <v>1</v>
       </c>
       <c r="L36" s="18">
-        <v>0.914643863784779</v>
+        <v>0.902064632981608</v>
       </c>
       <c r="M36" s="18">
-        <v>0.821498578848634</v>
+        <v>0.790448325876233</v>
       </c>
       <c r="N36" s="18">
-        <v>0.7318614343211201</v>
+        <v>0.683191178149955</v>
       </c>
       <c r="O36" s="18">
-        <v>0.648350169024533</v>
+        <v>0.5847840950836219</v>
       </c>
       <c r="P36" s="18">
-        <v>0.571869828957048</v>
+        <v>0.496741551144485</v>
       </c>
       <c r="Q36" s="18">
-        <v>0.502605156545557</v>
+        <v>0.419279476184716</v>
       </c>
       <c r="R36" s="18">
-        <v>0.440379586769114</v>
+        <v>0.351963562549551</v>
       </c>
       <c r="S36" s="18">
-        <v>0.384825758058616</v>
+        <v>0.294031568486009</v>
       </c>
       <c r="T36" s="18">
-        <v>0.33547848515911</v>
+        <v>0.244573020127165</v>
       </c>
       <c r="U36" s="18">
-        <v>0.291829406347859</v>
+        <v>0.202634493536662</v>
       </c>
       <c r="V36" s="18">
-        <v>0.253360340418949</v>
+        <v>0.16728182619928</v>
       </c>
       <c r="W36" s="18">
-        <v>0.21956386816691</v>
+        <v>0.137635865254338</v>
       </c>
       <c r="X36" s="18">
-        <v>0.189955846772526</v>
+        <v>0.112891439973968</v>
       </c>
       <c r="Y36" s="18">
-        <v>0.164082662350917</v>
+        <v>0.09232558613576961</v>
       </c>
       <c r="Z36" s="18">
-        <v>0.141524987108997</v>
+        <v>0.07529893158318431</v>
       </c>
       <c r="AA36" s="18">
-        <v>0.121899199610003</v>
+        <v>0.0612528412188198</v>
       </c>
       <c r="AB36" s="18">
-        <v>0.104857250473821</v>
+        <v>0.0497040682225286</v>
       </c>
       <c r="AC36" s="18">
-        <v>0.0900855125309056</v>
+        <v>0.0402380866782103</v>
       </c>
       <c r="AD36" s="18">
-        <v>0.07730299147045989</v>
+        <v>0.0325018888042132</v>
       </c>
       <c r="AE36" s="18">
-        <v>0.0662591608559613</v>
+        <v>0.0261967579649258</v>
       </c>
       <c r="AF36" s="18">
-        <v>0.0567316065833967</v>
+        <v>0.0210713390964512</v>
       </c>
       <c r="AG36" s="18">
-        <v>0.0485236096716601</v>
+        <v>0.0169151964527142</v>
       </c>
       <c r="AH36" s="18">
-        <v>0.0414617558070932</v>
+        <v>0.0135529578809367</v>
       </c>
       <c r="AI36" s="18">
-        <v>0.0353936307499907</v>
+        <v>0.010839083428215</v>
       </c>
       <c r="AJ36" s="18">
-        <v>0.030185639439258</v>
+        <v>0.008653255599955891</v>
       </c>
       <c r="AK36" s="18">
-        <v>0.0257209712305521</v>
+        <v>0.00689636300184793</v>
       </c>
       <c r="AL36" s="18">
-        <v>0.0218977226257004</v>
+        <v>0.00548703401477324</v>
       </c>
       <c r="AM36" s="18">
-        <v>0.0186271809757056</v>
+        <v>0.00435866938094187</v>
       </c>
       <c r="AN36" s="18">
-        <v>0.0158322671425704</v>
+        <v>0.00345691979304419</v>
       </c>
       <c r="AO36" s="18">
-        <v>0.0134461313750515</v>
+        <v>0.00273755509003371</v>
       </c>
       <c r="AP36" s="18">
-        <v>0.011410894232622</v>
+        <v>0.00216467426067413</v>
       </c>
       <c r="AQ36" s="18">
-        <v>0.009676522935907371</v>
+        <v>0.00170920927732277</v>
       </c>
       <c r="AR36" s="18">
-        <v>0.00819983277044212</v>
+        <v>0.00134768022491638</v>
       </c>
       <c r="AS36" s="18">
-        <v>0.00694360292690044</v>
+        <v>0.00106116384178423</v>
       </c>
       <c r="AT36" s="18">
-        <v>0.00587579627612678</v>
+        <v>0.000834442176973038</v>
       </c>
       <c r="AU36" s="18">
-        <v>0.00496887293902837</v>
+        <v>0.00065530242111822</v>
       </c>
       <c r="AV36" s="18">
-        <v>0.00419918803536978</v>
+        <v>0.000513962984196259</v>
       </c>
       <c r="AW36" s="18">
-        <v>0.00354646461887653</v>
+        <v>0.000402604523685013</v>
       </c>
       <c r="AX36" s="18">
-        <v>0.00299333348238118</v>
+        <v>0.000314987855057347</v>
       </c>
       <c r="AY36" s="18">
-        <v>0.00252493221226768</v>
+        <v>0.000246143510188812</v>
       </c>
     </row>
     <row r="37" ht="15.35" customHeight="1">
@@ -6936,154 +6943,150 @@
         <v>47</v>
       </c>
       <c r="B37" s="20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C37" s="14">
-        <v>10.8</v>
+        <v>12.6</v>
       </c>
       <c r="D37" s="14"/>
-      <c r="E37" s="15">
-        <v>1.49</v>
-      </c>
-      <c r="F37" s="15">
-        <v>11.5</v>
-      </c>
-      <c r="G37" s="15">
-        <v>1.49</v>
-      </c>
-      <c r="H37" s="15">
-        <v>11.5</v>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20">
+        <v>2</v>
+      </c>
+      <c r="H37" s="14">
+        <v>12.6</v>
       </c>
       <c r="I37" s="16">
         <f>H37*(LN(2))^(1/G37)</f>
-        <v>8.992269011610521</v>
+        <v>10.490188100587</v>
       </c>
       <c r="J37" s="16">
         <f>H37*EXP(GAMMALN(1+1/G37))</f>
-        <v>10.3901018557827</v>
+        <v>11.1664592607048</v>
       </c>
       <c r="K37" s="17">
         <v>1</v>
       </c>
       <c r="L37" s="18">
-        <v>0.974066153379046</v>
+        <v>0.993720980132259</v>
       </c>
       <c r="M37" s="18">
-        <v>0.928851361780728</v>
+        <v>0.975119488397629</v>
       </c>
       <c r="N37" s="18">
-        <v>0.873678665969242</v>
+        <v>0.94488756027489</v>
       </c>
       <c r="O37" s="18">
-        <v>0.81276402408556</v>
+        <v>0.904130967832998</v>
       </c>
       <c r="P37" s="18">
-        <v>0.748948558678657</v>
+        <v>0.854302104364696</v>
       </c>
       <c r="Q37" s="18">
-        <v>0.68432668931087</v>
+        <v>0.7971141629458121</v>
       </c>
       <c r="R37" s="18">
-        <v>0.6204803236588901</v>
+        <v>0.734443671929731</v>
       </c>
       <c r="S37" s="18">
-        <v>0.558598966501641</v>
+        <v>0.6682290916634051</v>
       </c>
       <c r="T37" s="18">
-        <v>0.499556139925528</v>
+        <v>0.600373041198405</v>
       </c>
       <c r="U37" s="18">
-        <v>0.443965762273808</v>
+        <v>0.532654873057316</v>
       </c>
       <c r="V37" s="18">
-        <v>0.392227734286418</v>
+        <v>0.466658890902423</v>
       </c>
       <c r="W37" s="18">
-        <v>0.344566675070978</v>
+        <v>0.403721708608598</v>
       </c>
       <c r="X37" s="18">
-        <v>0.301065581340515</v>
+        <v>0.344900305242036</v>
       </c>
       <c r="Y37" s="18">
-        <v>0.261695251626857</v>
+        <v>0.29096045886431</v>
       </c>
       <c r="Z37" s="18">
-        <v>0.226339918376851</v>
+        <v>0.24238362999516</v>
       </c>
       <c r="AA37" s="18">
-        <v>0.194819372855103</v>
+        <v>0.199389147125304</v>
       </c>
       <c r="AB37" s="18">
-        <v>0.166907819195148</v>
+        <v>0.161967792905745</v>
       </c>
       <c r="AC37" s="18">
-        <v>0.142349692249047</v>
+        <v>0.12992260830506</v>
       </c>
       <c r="AD37" s="18">
-        <v>0.120872688502546</v>
+        <v>0.102912876083082</v>
       </c>
       <c r="AE37" s="18">
-        <v>0.102198275403882</v>
+        <v>0.0804977271554386</v>
       </c>
       <c r="AF37" s="18">
-        <v>0.086049955264645</v>
+        <v>0.0621765240221163</v>
       </c>
       <c r="AG37" s="18">
-        <v>0.0721595629821439</v>
+        <v>0.0474239995806698</v>
       </c>
       <c r="AH37" s="18">
-        <v>0.0602718720159467</v>
+        <v>0.0357189624492648</v>
       </c>
       <c r="AI37" s="18">
-        <v>0.0501477712783588</v>
+        <v>0.0265661371457251</v>
       </c>
       <c r="AJ37" s="18">
-        <v>0.0415662583235277</v>
+        <v>0.0195113313142952</v>
       </c>
       <c r="AK37" s="18">
-        <v>0.0343254730323634</v>
+        <v>0.0141505824089795</v>
       </c>
       <c r="AL37" s="18">
-        <v>0.0282429724087548</v>
+        <v>0.0101342273814857</v>
       </c>
       <c r="AM37" s="18">
-        <v>0.0231554224631561</v>
+        <v>0.00716697503761243</v>
       </c>
       <c r="AN37" s="18">
-        <v>0.0189178585675733</v>
+        <v>0.00500506886620589</v>
       </c>
       <c r="AO37" s="18">
-        <v>0.0154026419827467</v>
+        <v>0.00345154183056251</v>
       </c>
       <c r="AP37" s="18">
-        <v>0.0124982181125216</v>
+        <v>0.00235041820862336</v>
       </c>
       <c r="AQ37" s="18">
-        <v>0.0101077618518998</v>
+        <v>0.00158054207969771</v>
       </c>
       <c r="AR37" s="18">
-        <v>0.00814777740559924</v>
+        <v>0.0010495325222678</v>
       </c>
       <c r="AS37" s="18">
-        <v>0.00654670425925707</v>
+        <v>0.000688199981863202</v>
       </c>
       <c r="AT37" s="18">
-        <v>0.00524356756823774</v>
+        <v>0.000445617595592029</v>
       </c>
       <c r="AU37" s="18">
-        <v>0.00418669998792132</v>
+        <v>0.000284930488876567</v>
       </c>
       <c r="AV37" s="18">
-        <v>0.00333255274466981</v>
+        <v>0.00017990549707847</v>
       </c>
       <c r="AW37" s="18">
-        <v>0.00264460634242603</v>
+        <v>0.000112170553272728</v>
       </c>
       <c r="AX37" s="18">
-        <v>0.00209238550147739</v>
+        <v>6.90624861902078e-05</v>
       </c>
       <c r="AY37" s="18">
-        <v>0.00165057851397354</v>
+        <v>4.1988897653833e-05</v>
       </c>
     </row>
     <row r="38" ht="15.35" customHeight="1">
@@ -7091,154 +7094,154 @@
         <v>48</v>
       </c>
       <c r="B38" s="20">
-        <v>1.4</v>
-      </c>
-      <c r="C38" s="23">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D38" s="23"/>
+        <v>2.1</v>
+      </c>
+      <c r="C38" s="14">
+        <v>12</v>
+      </c>
+      <c r="D38" s="14"/>
       <c r="E38" s="15">
-        <v>1.19</v>
+        <v>2.01</v>
       </c>
       <c r="F38" s="15">
-        <v>6.75</v>
+        <v>11.75</v>
       </c>
       <c r="G38" s="15">
-        <v>1.19</v>
+        <v>2.01</v>
       </c>
       <c r="H38" s="15">
-        <v>6.75</v>
+        <v>11.75</v>
       </c>
       <c r="I38" s="16">
         <f>H38*(LN(2))^(1/G38)</f>
-        <v>4.96070790817639</v>
+        <v>9.79143970028669</v>
       </c>
       <c r="J38" s="16">
         <f>H38*EXP(GAMMALN(1+1/G38))</f>
-        <v>6.36330542358482</v>
+        <v>10.4122513396918</v>
       </c>
       <c r="K38" s="17">
         <v>1</v>
       </c>
       <c r="L38" s="18">
-        <v>0.902064632981608</v>
+        <v>0.992958093540786</v>
       </c>
       <c r="M38" s="18">
-        <v>0.790448325876233</v>
+        <v>0.9719373948211431</v>
       </c>
       <c r="N38" s="18">
-        <v>0.683191178149955</v>
+        <v>0.937719941935953</v>
       </c>
       <c r="O38" s="18">
-        <v>0.5847840950836219</v>
+        <v>0.891680433697392</v>
       </c>
       <c r="P38" s="18">
-        <v>0.496741551144485</v>
+        <v>0.835657157902277</v>
       </c>
       <c r="Q38" s="18">
-        <v>0.419279476184716</v>
+        <v>0.771819277481909</v>
       </c>
       <c r="R38" s="18">
-        <v>0.351963562549551</v>
+        <v>0.702522228476716</v>
       </c>
       <c r="S38" s="18">
-        <v>0.294031568486009</v>
+        <v>0.6301611995991691</v>
       </c>
       <c r="T38" s="18">
-        <v>0.244573020127165</v>
+        <v>0.557034218136617</v>
       </c>
       <c r="U38" s="18">
-        <v>0.202634493536662</v>
+        <v>0.485225036441062</v>
       </c>
       <c r="V38" s="18">
-        <v>0.16728182619928</v>
+        <v>0.416513338547273</v>
       </c>
       <c r="W38" s="18">
-        <v>0.137635865254338</v>
+        <v>0.352316451809494</v>
       </c>
       <c r="X38" s="18">
-        <v>0.112891439973968</v>
+        <v>0.29366329529949</v>
       </c>
       <c r="Y38" s="18">
-        <v>0.09232558613576961</v>
+        <v>0.241198180269176</v>
       </c>
       <c r="Z38" s="18">
-        <v>0.07529893158318431</v>
+        <v>0.195209638588594</v>
       </c>
       <c r="AA38" s="18">
-        <v>0.0612528412188198</v>
+        <v>0.155677891439349</v>
       </c>
       <c r="AB38" s="18">
-        <v>0.0497040682225286</v>
+        <v>0.122333933794669</v>
       </c>
       <c r="AC38" s="18">
-        <v>0.0402380866782103</v>
+        <v>0.09472342044545221</v>
       </c>
       <c r="AD38" s="18">
-        <v>0.0325018888042132</v>
+        <v>0.0722694195004783</v>
       </c>
       <c r="AE38" s="18">
-        <v>0.0261967579649258</v>
+        <v>0.0543294181794467</v>
       </c>
       <c r="AF38" s="18">
-        <v>0.0210713390964512</v>
+        <v>0.0402434812242856</v>
       </c>
       <c r="AG38" s="18">
-        <v>0.0169151964527142</v>
+        <v>0.029371957778549</v>
       </c>
       <c r="AH38" s="18">
-        <v>0.0135529578809367</v>
+        <v>0.0211224419079047</v>
       </c>
       <c r="AI38" s="18">
-        <v>0.010839083428215</v>
+        <v>0.0149667109462045</v>
       </c>
       <c r="AJ38" s="18">
-        <v>0.008653255599955891</v>
+        <v>0.010449052183428</v>
       </c>
       <c r="AK38" s="18">
-        <v>0.00689636300184793</v>
+        <v>0.00718775190319532</v>
       </c>
       <c r="AL38" s="18">
-        <v>0.00548703401477324</v>
+        <v>0.00487160858506575</v>
       </c>
       <c r="AM38" s="18">
-        <v>0.00435866938094187</v>
+        <v>0.00325321221437025</v>
       </c>
       <c r="AN38" s="18">
-        <v>0.00345691979304419</v>
+        <v>0.00214047794233463</v>
       </c>
       <c r="AO38" s="18">
-        <v>0.00273755509003371</v>
+        <v>0.00138760294699236</v>
       </c>
       <c r="AP38" s="18">
-        <v>0.00216467426067413</v>
+        <v>0.0008862853672654269</v>
       </c>
       <c r="AQ38" s="18">
-        <v>0.00170920927732277</v>
+        <v>0.000557742500070568</v>
       </c>
       <c r="AR38" s="18">
-        <v>0.00134768022491638</v>
+        <v>0.000345814855374327</v>
       </c>
       <c r="AS38" s="18">
-        <v>0.00106116384178423</v>
+        <v>0.000211252235388204</v>
       </c>
       <c r="AT38" s="18">
-        <v>0.000834442176973038</v>
+        <v>0.000127146618678742</v>
       </c>
       <c r="AU38" s="18">
-        <v>0.00065530242111822</v>
+        <v>7.539668993383759e-05</v>
       </c>
       <c r="AV38" s="18">
-        <v>0.000513962984196259</v>
+        <v>4.40495918118122e-05</v>
       </c>
       <c r="AW38" s="18">
-        <v>0.000402604523685013</v>
+        <v>2.53554819920065e-05</v>
       </c>
       <c r="AX38" s="18">
-        <v>0.000314987855057347</v>
+        <v>1.43793913495172e-05</v>
       </c>
       <c r="AY38" s="18">
-        <v>0.000246143510188812</v>
+        <v>8.034264191381091e-06</v>
       </c>
     </row>
     <row r="39" ht="15.35" customHeight="1">
@@ -7246,150 +7249,150 @@
         <v>49</v>
       </c>
       <c r="B39" s="20">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="C39" s="14">
-        <v>12.6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="20">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H39" s="14">
-        <v>12.6</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="I39" s="16">
         <f>H39*(LN(2))^(1/G39)</f>
-        <v>10.490188100587</v>
+        <v>6.71151222636892</v>
       </c>
       <c r="J39" s="16">
         <f>H39*EXP(GAMMALN(1+1/G39))</f>
-        <v>11.1664592607048</v>
+        <v>7.94761152164488</v>
       </c>
       <c r="K39" s="17">
         <v>1</v>
       </c>
       <c r="L39" s="18">
-        <v>0.993720980132259</v>
+        <v>0.952918860381032</v>
       </c>
       <c r="M39" s="18">
-        <v>0.975119488397629</v>
+        <v>0.880497746105513</v>
       </c>
       <c r="N39" s="18">
-        <v>0.94488756027489</v>
+        <v>0.7989030495889951</v>
       </c>
       <c r="O39" s="18">
-        <v>0.904130967832998</v>
+        <v>0.714721708969427</v>
       </c>
       <c r="P39" s="18">
-        <v>0.854302104364696</v>
+        <v>0.631900390339654</v>
       </c>
       <c r="Q39" s="18">
-        <v>0.7971141629458121</v>
+        <v>0.5529429582555641</v>
       </c>
       <c r="R39" s="18">
-        <v>0.734443671929731</v>
+        <v>0.479402524021105</v>
       </c>
       <c r="S39" s="18">
-        <v>0.6682290916634051</v>
+        <v>0.412159358575118</v>
       </c>
       <c r="T39" s="18">
-        <v>0.600373041198405</v>
+        <v>0.351607073940637</v>
       </c>
       <c r="U39" s="18">
-        <v>0.532654873057316</v>
+        <v>0.297788939923312</v>
       </c>
       <c r="V39" s="18">
-        <v>0.466658890902423</v>
+        <v>0.250501913207522</v>
       </c>
       <c r="W39" s="18">
-        <v>0.403721708608598</v>
+        <v>0.209377169346536</v>
       </c>
       <c r="X39" s="18">
-        <v>0.344900305242036</v>
+        <v>0.173942336847176</v>
       </c>
       <c r="Y39" s="18">
-        <v>0.29096045886431</v>
+        <v>0.143669004577289</v>
       </c>
       <c r="Z39" s="18">
-        <v>0.24238362999516</v>
+        <v>0.118008243685657</v>
       </c>
       <c r="AA39" s="18">
-        <v>0.199389147125304</v>
+        <v>0.096416393267149</v>
       </c>
       <c r="AB39" s="18">
-        <v>0.161967792905745</v>
+        <v>0.0783730143590515</v>
       </c>
       <c r="AC39" s="18">
-        <v>0.12992260830506</v>
+        <v>0.0633926394851391</v>
       </c>
       <c r="AD39" s="18">
-        <v>0.102912876083082</v>
+        <v>0.051031702474466</v>
       </c>
       <c r="AE39" s="18">
-        <v>0.0804977271554386</v>
+        <v>0.0408918139446991</v>
       </c>
       <c r="AF39" s="18">
-        <v>0.0621765240221163</v>
+        <v>0.0326203485349098</v>
       </c>
       <c r="AG39" s="18">
-        <v>0.0474239995806698</v>
+        <v>0.0259091306895897</v>
       </c>
       <c r="AH39" s="18">
-        <v>0.0357189624492648</v>
+        <v>0.0204918471753626</v>
       </c>
       <c r="AI39" s="18">
-        <v>0.0265661371457251</v>
+        <v>0.0161406768394413</v>
       </c>
       <c r="AJ39" s="18">
-        <v>0.0195113313142952</v>
+        <v>0.0126625110104044</v>
       </c>
       <c r="AK39" s="18">
-        <v>0.0141505824089795</v>
+        <v>0.009895040353644189</v>
       </c>
       <c r="AL39" s="18">
-        <v>0.0101342273814857</v>
+        <v>0.00770290436444632</v>
       </c>
       <c r="AM39" s="18">
-        <v>0.00716697503761243</v>
+        <v>0.00597403611183733</v>
       </c>
       <c r="AN39" s="18">
-        <v>0.00500506886620589</v>
+        <v>0.00461628527007163</v>
       </c>
       <c r="AO39" s="18">
-        <v>0.00345154183056251</v>
+        <v>0.00355436480136817</v>
       </c>
       <c r="AP39" s="18">
-        <v>0.00235041820862336</v>
+        <v>0.00272713887527931</v>
       </c>
       <c r="AQ39" s="18">
-        <v>0.00158054207969771</v>
+        <v>0.00208524987460501</v>
       </c>
       <c r="AR39" s="18">
-        <v>0.0010495325222678</v>
+        <v>0.00158906899211575</v>
       </c>
       <c r="AS39" s="18">
-        <v>0.000688199981863202</v>
+        <v>0.00120694653300857</v>
       </c>
       <c r="AT39" s="18">
-        <v>0.000445617595592029</v>
+        <v>0.000913733393117622</v>
       </c>
       <c r="AU39" s="18">
-        <v>0.000284930488876567</v>
+        <v>0.000689543282142102</v>
       </c>
       <c r="AV39" s="18">
-        <v>0.00017990549707847</v>
+        <v>0.000518725297696143</v>
       </c>
       <c r="AW39" s="18">
-        <v>0.000112170553272728</v>
+        <v>0.000389017794002799</v>
       </c>
       <c r="AX39" s="18">
-        <v>6.90624861902078e-05</v>
+        <v>0.000290856639563519</v>
       </c>
       <c r="AY39" s="18">
-        <v>4.1988897653833e-05</v>
+        <v>0.000216813555032558</v>
       </c>
     </row>
     <row r="40" ht="15.35" customHeight="1">
@@ -7397,154 +7400,150 @@
         <v>50</v>
       </c>
       <c r="B40" s="20">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="C40" s="14">
-        <v>12</v>
+        <v>8.43</v>
       </c>
       <c r="D40" s="14"/>
-      <c r="E40" s="15">
-        <v>2.01</v>
-      </c>
-      <c r="F40" s="15">
-        <v>11.75</v>
-      </c>
-      <c r="G40" s="15">
-        <v>2.01</v>
-      </c>
-      <c r="H40" s="15">
-        <v>11.75</v>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="H40" s="14">
+        <v>8.43</v>
       </c>
       <c r="I40" s="16">
         <f>H40*(LN(2))^(1/G40)</f>
-        <v>9.79143970028669</v>
+        <v>6.70414637318375</v>
       </c>
       <c r="J40" s="16">
         <f>H40*EXP(GAMMALN(1+1/G40))</f>
-        <v>10.4122513396918</v>
+        <v>7.55812118087712</v>
       </c>
       <c r="K40" s="17">
         <v>1</v>
       </c>
       <c r="L40" s="18">
-        <v>0.992958093540786</v>
+        <v>0.967526651768416</v>
       </c>
       <c r="M40" s="18">
-        <v>0.9719373948211431</v>
+        <v>0.904769917437911</v>
       </c>
       <c r="N40" s="18">
-        <v>0.937719941935953</v>
+        <v>0.825755627398077</v>
       </c>
       <c r="O40" s="18">
-        <v>0.891680433697392</v>
+        <v>0.738326259718498</v>
       </c>
       <c r="P40" s="18">
-        <v>0.835657157902277</v>
+        <v>0.648211195660077</v>
       </c>
       <c r="Q40" s="18">
-        <v>0.771819277481909</v>
+        <v>0.559681574462812</v>
       </c>
       <c r="R40" s="18">
-        <v>0.702522228476716</v>
+        <v>0.475811723598345</v>
       </c>
       <c r="S40" s="18">
-        <v>0.6301611995991691</v>
+        <v>0.398660839465556</v>
       </c>
       <c r="T40" s="18">
-        <v>0.557034218136617</v>
+        <v>0.329440267512499</v>
       </c>
       <c r="U40" s="18">
-        <v>0.485225036441062</v>
+        <v>0.26867746607302</v>
       </c>
       <c r="V40" s="18">
-        <v>0.416513338547273</v>
+        <v>0.216373396045717</v>
       </c>
       <c r="W40" s="18">
-        <v>0.352316451809494</v>
+        <v>0.172147224411314</v>
       </c>
       <c r="X40" s="18">
-        <v>0.29366329529949</v>
+        <v>0.135363175609052</v>
       </c>
       <c r="Y40" s="18">
-        <v>0.241198180269176</v>
+        <v>0.105236450456275</v>
       </c>
       <c r="Z40" s="18">
-        <v>0.195209638588594</v>
+        <v>0.0809172875352302</v>
       </c>
       <c r="AA40" s="18">
-        <v>0.155677891439349</v>
+        <v>0.0615540240486768</v>
       </c>
       <c r="AB40" s="18">
-        <v>0.122333933794669</v>
+        <v>0.0463372724925858</v>
       </c>
       <c r="AC40" s="18">
-        <v>0.09472342044545221</v>
+        <v>0.0345280662334416</v>
       </c>
       <c r="AD40" s="18">
-        <v>0.0722694195004783</v>
+        <v>0.0254731163690634</v>
       </c>
       <c r="AE40" s="18">
-        <v>0.0543294181794467</v>
+        <v>0.0186102703037593</v>
       </c>
       <c r="AF40" s="18">
-        <v>0.0402434812242856</v>
+        <v>0.0134669796593931</v>
       </c>
       <c r="AG40" s="18">
-        <v>0.029371957778549</v>
+        <v>0.009654170379238989</v>
       </c>
       <c r="AH40" s="18">
-        <v>0.0211224419079047</v>
+        <v>0.00685744082775819</v>
       </c>
       <c r="AI40" s="18">
-        <v>0.0149667109462045</v>
+        <v>0.00482705245526394</v>
       </c>
       <c r="AJ40" s="18">
-        <v>0.010449052183428</v>
+        <v>0.00336775992646532</v>
       </c>
       <c r="AK40" s="18">
-        <v>0.00718775190319532</v>
+        <v>0.00232917405475641</v>
       </c>
       <c r="AL40" s="18">
-        <v>0.00487160858506575</v>
+        <v>0.001597068778313</v>
       </c>
       <c r="AM40" s="18">
-        <v>0.00325321221437025</v>
+        <v>0.0010858308928372</v>
       </c>
       <c r="AN40" s="18">
-        <v>0.00214047794233463</v>
+        <v>0.000732100784866963</v>
       </c>
       <c r="AO40" s="18">
-        <v>0.00138760294699236</v>
+        <v>0.000489553619574146</v>
       </c>
       <c r="AP40" s="18">
-        <v>0.0008862853672654269</v>
+        <v>0.000324712192834031</v>
       </c>
       <c r="AQ40" s="18">
-        <v>0.000557742500070568</v>
+        <v>0.000213654422360321</v>
       </c>
       <c r="AR40" s="18">
-        <v>0.000345814855374327</v>
+        <v>0.000139471067386654</v>
       </c>
       <c r="AS40" s="18">
-        <v>0.000211252235388204</v>
+        <v>9.03352841797878e-05</v>
       </c>
       <c r="AT40" s="18">
-        <v>0.000127146618678742</v>
+        <v>5.80593423916698e-05</v>
       </c>
       <c r="AU40" s="18">
-        <v>7.539668993383759e-05</v>
+        <v>3.70311280941671e-05</v>
       </c>
       <c r="AV40" s="18">
-        <v>4.40495918118122e-05</v>
+        <v>2.34411606342411e-05</v>
       </c>
       <c r="AW40" s="18">
-        <v>2.53554819920065e-05</v>
+        <v>1.47280213403933e-05</v>
       </c>
       <c r="AX40" s="18">
-        <v>1.43793913495172e-05</v>
+        <v>9.185383235355e-06</v>
       </c>
       <c r="AY40" s="18">
-        <v>8.034264191381091e-06</v>
+        <v>5.68683920854074e-06</v>
       </c>
     </row>
     <row r="41" ht="15.35" customHeight="1">
@@ -7552,150 +7551,150 @@
         <v>51</v>
       </c>
       <c r="B41" s="20">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="C41" s="14">
-        <v>8.720000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="20">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H41" s="14">
-        <v>8.720000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="I41" s="16">
         <f>H41*(LN(2))^(1/G41)</f>
-        <v>6.71151222636892</v>
+        <v>6.95106743022065</v>
       </c>
       <c r="J41" s="16">
         <f>H41*EXP(GAMMALN(1+1/G41))</f>
-        <v>7.94761152164488</v>
+        <v>7.48047275296809</v>
       </c>
       <c r="K41" s="17">
         <v>1</v>
       </c>
       <c r="L41" s="18">
-        <v>0.952918860381032</v>
+        <v>0.9827356019253149</v>
       </c>
       <c r="M41" s="18">
-        <v>0.880497746105513</v>
+        <v>0.937071496347746</v>
       </c>
       <c r="N41" s="18">
-        <v>0.7989030495889951</v>
+        <v>0.868985026624541</v>
       </c>
       <c r="O41" s="18">
-        <v>0.714721708969427</v>
+        <v>0.784606849430465</v>
       </c>
       <c r="P41" s="18">
-        <v>0.631900390339654</v>
+        <v>0.690281603890142</v>
       </c>
       <c r="Q41" s="18">
-        <v>0.5529429582555641</v>
+        <v>0.59208741490848</v>
       </c>
       <c r="R41" s="18">
-        <v>0.479402524021105</v>
+        <v>0.495371386930553</v>
       </c>
       <c r="S41" s="18">
-        <v>0.412159358575118</v>
+        <v>0.404415429357569</v>
       </c>
       <c r="T41" s="18">
-        <v>0.351607073940637</v>
+        <v>0.322268556370609</v>
       </c>
       <c r="U41" s="18">
-        <v>0.297788939923312</v>
+        <v>0.250740742031105</v>
       </c>
       <c r="V41" s="18">
-        <v>0.250501913207522</v>
+        <v>0.190527505758298</v>
       </c>
       <c r="W41" s="18">
-        <v>0.209377169346536</v>
+        <v>0.141420992357453</v>
       </c>
       <c r="X41" s="18">
-        <v>0.173942336847176</v>
+        <v>0.10256089166009</v>
       </c>
       <c r="Y41" s="18">
-        <v>0.143669004577289</v>
+        <v>0.07268451992115341</v>
       </c>
       <c r="Z41" s="18">
-        <v>0.118008243685657</v>
+        <v>0.0503463813724245</v>
       </c>
       <c r="AA41" s="18">
-        <v>0.096416393267149</v>
+        <v>0.0340901688817354</v>
       </c>
       <c r="AB41" s="18">
-        <v>0.0783730143590515</v>
+        <v>0.0225677423113474</v>
       </c>
       <c r="AC41" s="18">
-        <v>0.0633926394851391</v>
+        <v>0.014608459796596</v>
       </c>
       <c r="AD41" s="18">
-        <v>0.051031702474466</v>
+        <v>0.009247698475168931</v>
       </c>
       <c r="AE41" s="18">
-        <v>0.0408918139446991</v>
+        <v>0.00572569315470106</v>
       </c>
       <c r="AF41" s="18">
-        <v>0.0326203485349098</v>
+        <v>0.0034676637171569</v>
       </c>
       <c r="AG41" s="18">
-        <v>0.0259091306895897</v>
+        <v>0.00205450426976372</v>
       </c>
       <c r="AH41" s="18">
-        <v>0.0204918471753626</v>
+        <v>0.00119091997768106</v>
       </c>
       <c r="AI41" s="18">
-        <v>0.0161406768394413</v>
+        <v>0.0006754694290977969</v>
       </c>
       <c r="AJ41" s="18">
-        <v>0.0126625110104044</v>
+        <v>0.000374900964580482</v>
       </c>
       <c r="AK41" s="18">
-        <v>0.009895040353644189</v>
+        <v>0.00020363551140834</v>
       </c>
       <c r="AL41" s="18">
-        <v>0.00770290436444632</v>
+        <v>0.000108256323788414</v>
       </c>
       <c r="AM41" s="18">
-        <v>0.00597403611183733</v>
+        <v>5.63314613399868e-05</v>
       </c>
       <c r="AN41" s="18">
-        <v>0.00461628527007163</v>
+        <v>2.86933013644575e-05</v>
       </c>
       <c r="AO41" s="18">
-        <v>0.00355436480136817</v>
+        <v>1.43078459245993e-05</v>
       </c>
       <c r="AP41" s="18">
-        <v>0.00272713887527931</v>
+        <v>6.98495298234736e-06</v>
       </c>
       <c r="AQ41" s="18">
-        <v>0.00208524987460501</v>
+        <v>3.33870736113351e-06</v>
       </c>
       <c r="AR41" s="18">
-        <v>0.00158906899211575</v>
+        <v>1.5626004463698e-06</v>
       </c>
       <c r="AS41" s="18">
-        <v>0.00120694653300857</v>
+        <v>7.161440012115611e-07</v>
       </c>
       <c r="AT41" s="18">
-        <v>0.000913733393117622</v>
+        <v>3.21412511938846e-07</v>
       </c>
       <c r="AU41" s="18">
-        <v>0.000689543282142102</v>
+        <v>1.41273765685845e-07</v>
       </c>
       <c r="AV41" s="18">
-        <v>0.000518725297696143</v>
+        <v>6.08165929838478e-08</v>
       </c>
       <c r="AW41" s="18">
-        <v>0.000389017794002799</v>
+        <v>2.56430221501347e-08</v>
       </c>
       <c r="AX41" s="18">
-        <v>0.000290856639563519</v>
+        <v>1.0590754273565e-08</v>
       </c>
       <c r="AY41" s="18">
-        <v>0.000216813555032558</v>
+        <v>4.2846807213337e-09</v>
       </c>
     </row>
     <row r="42" ht="15.35" customHeight="1">
@@ -7706,7 +7705,7 @@
         <v>1.6</v>
       </c>
       <c r="C42" s="14">
-        <v>8.43</v>
+        <v>6.9</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="19"/>
@@ -7715,138 +7714,138 @@
         <v>1.6</v>
       </c>
       <c r="H42" s="14">
-        <v>8.43</v>
+        <v>6.9</v>
       </c>
       <c r="I42" s="16">
         <f>H42*(LN(2))^(1/G42)</f>
-        <v>6.70414637318375</v>
+        <v>5.48737959370912</v>
       </c>
       <c r="J42" s="16">
         <f>H42*EXP(GAMMALN(1+1/G42))</f>
-        <v>7.55812118087712</v>
+        <v>6.18636253239053</v>
       </c>
       <c r="K42" s="17">
         <v>1</v>
       </c>
       <c r="L42" s="18">
-        <v>0.967526651768416</v>
+        <v>0.955536611850431</v>
       </c>
       <c r="M42" s="18">
-        <v>0.904769917437911</v>
+        <v>0.871206501011626</v>
       </c>
       <c r="N42" s="18">
-        <v>0.825755627398077</v>
+        <v>0.768145499056309</v>
       </c>
       <c r="O42" s="18">
-        <v>0.738326259718498</v>
+        <v>0.658386839697665</v>
       </c>
       <c r="P42" s="18">
-        <v>0.648211195660077</v>
+        <v>0.550294712995351</v>
       </c>
       <c r="Q42" s="18">
-        <v>0.559681574462812</v>
+        <v>0.449499901025526</v>
       </c>
       <c r="R42" s="18">
-        <v>0.475811723598345</v>
+        <v>0.359410880467123</v>
       </c>
       <c r="S42" s="18">
-        <v>0.398660839465556</v>
+        <v>0.28166813453042</v>
       </c>
       <c r="T42" s="18">
-        <v>0.329440267512499</v>
+        <v>0.216582935689345</v>
       </c>
       <c r="U42" s="18">
-        <v>0.26867746607302</v>
+        <v>0.163543060120604</v>
       </c>
       <c r="V42" s="18">
-        <v>0.216373396045717</v>
+        <v>0.121363289473475</v>
       </c>
       <c r="W42" s="18">
-        <v>0.172147224411314</v>
+        <v>0.0885672183000034</v>
       </c>
       <c r="X42" s="18">
-        <v>0.135363175609052</v>
+        <v>0.06359723164353</v>
       </c>
       <c r="Y42" s="18">
-        <v>0.105236450456275</v>
+        <v>0.044957743056531</v>
       </c>
       <c r="Z42" s="18">
-        <v>0.0809172875352302</v>
+        <v>0.0313019006393527</v>
       </c>
       <c r="AA42" s="18">
-        <v>0.0615540240486768</v>
+        <v>0.0214741847378157</v>
       </c>
       <c r="AB42" s="18">
-        <v>0.0463372724925858</v>
+        <v>0.014521323728216</v>
       </c>
       <c r="AC42" s="18">
-        <v>0.0345280662334416</v>
+        <v>0.00968253992694146</v>
       </c>
       <c r="AD42" s="18">
-        <v>0.0254731163690634</v>
+        <v>0.00636801512579199</v>
       </c>
       <c r="AE42" s="18">
-        <v>0.0186102703037593</v>
+        <v>0.00413217164336332</v>
       </c>
       <c r="AF42" s="18">
-        <v>0.0134669796593931</v>
+        <v>0.00264624944517833</v>
       </c>
       <c r="AG42" s="18">
-        <v>0.009654170379238989</v>
+        <v>0.00167290782713203</v>
       </c>
       <c r="AH42" s="18">
-        <v>0.00685744082775819</v>
+        <v>0.00104425256822482</v>
       </c>
       <c r="AI42" s="18">
-        <v>0.00482705245526394</v>
+        <v>0.000643766697117187</v>
       </c>
       <c r="AJ42" s="18">
-        <v>0.00336775992646532</v>
+        <v>0.000392041681856248</v>
       </c>
       <c r="AK42" s="18">
-        <v>0.00232917405475641</v>
+        <v>0.000235886424993614</v>
       </c>
       <c r="AL42" s="18">
-        <v>0.001597068778313</v>
+        <v>0.000140256212312728</v>
       </c>
       <c r="AM42" s="18">
-        <v>0.0010858308928372</v>
+        <v>8.24265129399926e-05</v>
       </c>
       <c r="AN42" s="18">
-        <v>0.000732100784866963</v>
+        <v>4.78862376166456e-05</v>
       </c>
       <c r="AO42" s="18">
-        <v>0.000489553619574146</v>
+        <v>2.75057315201055e-05</v>
       </c>
       <c r="AP42" s="18">
-        <v>0.000324712192834031</v>
+        <v>1.56232296055769e-05</v>
       </c>
       <c r="AQ42" s="18">
-        <v>0.000213654422360321</v>
+        <v>8.776411343114351e-06</v>
       </c>
       <c r="AR42" s="18">
-        <v>0.000139471067386654</v>
+        <v>4.87665764870027e-06</v>
       </c>
       <c r="AS42" s="18">
-        <v>9.03352841797878e-05</v>
+        <v>2.68067842368325e-06</v>
       </c>
       <c r="AT42" s="18">
-        <v>5.80593423916698e-05</v>
+        <v>1.45794089911888e-06</v>
       </c>
       <c r="AU42" s="18">
-        <v>3.70311280941671e-05</v>
+        <v>7.84623340632784e-07</v>
       </c>
       <c r="AV42" s="18">
-        <v>2.34411606342411e-05</v>
+        <v>4.17887991321919e-07</v>
       </c>
       <c r="AW42" s="18">
-        <v>1.47280213403933e-05</v>
+        <v>2.20285153007538e-07</v>
       </c>
       <c r="AX42" s="18">
-        <v>9.185383235355e-06</v>
+        <v>1.14943575990623e-07</v>
       </c>
       <c r="AY42" s="18">
-        <v>5.68683920854074e-06</v>
+        <v>5.9375061978173e-08</v>
       </c>
     </row>
     <row r="43" ht="15.35" customHeight="1">
@@ -7854,150 +7853,150 @@
         <v>53</v>
       </c>
       <c r="B43" s="20">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="C43" s="14">
-        <v>8.43</v>
+        <v>4.57</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H43" s="14">
-        <v>8.43</v>
+        <v>4.57</v>
       </c>
       <c r="I43" s="16">
         <f>H43*(LN(2))^(1/G43)</f>
-        <v>6.95106743022065</v>
+        <v>3.36721425208747</v>
       </c>
       <c r="J43" s="16">
         <f>H43*EXP(GAMMALN(1+1/G43))</f>
-        <v>7.48047275296809</v>
+        <v>4.29879727223345</v>
       </c>
       <c r="K43" s="17">
         <v>1</v>
       </c>
       <c r="L43" s="18">
-        <v>0.9827356019253149</v>
+        <v>0.850889300854578</v>
       </c>
       <c r="M43" s="18">
-        <v>0.937071496347746</v>
+        <v>0.69006596079243</v>
       </c>
       <c r="N43" s="18">
-        <v>0.868985026624541</v>
+        <v>0.546917870364024</v>
       </c>
       <c r="O43" s="18">
-        <v>0.784606849430465</v>
+        <v>0.426449693527738</v>
       </c>
       <c r="P43" s="18">
-        <v>0.690281603890142</v>
+        <v>0.328260724482205</v>
       </c>
       <c r="Q43" s="18">
-        <v>0.59208741490848</v>
+        <v>0.24997877012068</v>
       </c>
       <c r="R43" s="18">
-        <v>0.495371386930553</v>
+        <v>0.188607881790407</v>
       </c>
       <c r="S43" s="18">
-        <v>0.404415429357569</v>
+        <v>0.141143056081177</v>
       </c>
       <c r="T43" s="18">
-        <v>0.322268556370609</v>
+        <v>0.104849027492654</v>
       </c>
       <c r="U43" s="18">
-        <v>0.250740742031105</v>
+        <v>0.07736828086391789</v>
       </c>
       <c r="V43" s="18">
-        <v>0.190527505758298</v>
+        <v>0.0567401952416042</v>
       </c>
       <c r="W43" s="18">
-        <v>0.141420992357453</v>
+        <v>0.041375630512679</v>
       </c>
       <c r="X43" s="18">
-        <v>0.10256089166009</v>
+        <v>0.0300117328872385</v>
       </c>
       <c r="Y43" s="18">
-        <v>0.07268451992115341</v>
+        <v>0.0216607532160739</v>
       </c>
       <c r="Z43" s="18">
-        <v>0.0503463813724245</v>
+        <v>0.0155602595049492</v>
       </c>
       <c r="AA43" s="18">
-        <v>0.0340901688817354</v>
+        <v>0.0111283447475038</v>
       </c>
       <c r="AB43" s="18">
-        <v>0.0225677423113474</v>
+        <v>0.00792523184498894</v>
       </c>
       <c r="AC43" s="18">
-        <v>0.014608459796596</v>
+        <v>0.0056214440185921</v>
       </c>
       <c r="AD43" s="18">
-        <v>0.009247698475168931</v>
+        <v>0.00397206554946339</v>
       </c>
       <c r="AE43" s="18">
-        <v>0.00572569315470106</v>
+        <v>0.00279632838251376</v>
       </c>
       <c r="AF43" s="18">
-        <v>0.0034676637171569</v>
+        <v>0.00196167667202918</v>
       </c>
       <c r="AG43" s="18">
-        <v>0.00205450426976372</v>
+        <v>0.00137149075056053</v>
       </c>
       <c r="AH43" s="18">
-        <v>0.00119091997768106</v>
+        <v>0.000955737028827008</v>
       </c>
       <c r="AI43" s="18">
-        <v>0.0006754694290977969</v>
+        <v>0.000663916790693331</v>
       </c>
       <c r="AJ43" s="18">
-        <v>0.000374900964580482</v>
+        <v>0.000459795267186758</v>
       </c>
       <c r="AK43" s="18">
-        <v>0.00020363551140834</v>
+        <v>0.000317492535817698</v>
       </c>
       <c r="AL43" s="18">
-        <v>0.000108256323788414</v>
+        <v>0.000218605122211835</v>
       </c>
       <c r="AM43" s="18">
-        <v>5.63314613399868e-05</v>
+        <v>0.000150100417264598</v>
       </c>
       <c r="AN43" s="18">
-        <v>2.86933013644575e-05</v>
+        <v>0.000102785721956877</v>
       </c>
       <c r="AO43" s="18">
-        <v>1.43078459245993e-05</v>
+        <v>7.02013439500826e-05</v>
       </c>
       <c r="AP43" s="18">
-        <v>6.98495298234736e-06</v>
+        <v>4.78244818327145e-05</v>
       </c>
       <c r="AQ43" s="18">
-        <v>3.33870736113351e-06</v>
+        <v>3.24994507812093e-05</v>
       </c>
       <c r="AR43" s="18">
-        <v>1.5626004463698e-06</v>
+        <v>2.20317879466858e-05</v>
       </c>
       <c r="AS43" s="18">
-        <v>7.161440012115611e-07</v>
+        <v>1.49003690742555e-05</v>
       </c>
       <c r="AT43" s="18">
-        <v>3.21412511938846e-07</v>
+        <v>1.00540745278099e-05</v>
       </c>
       <c r="AU43" s="18">
-        <v>1.41273765685845e-07</v>
+        <v>6.76874176630538e-06</v>
       </c>
       <c r="AV43" s="18">
-        <v>6.08165929838478e-08</v>
+        <v>4.54691032614196e-06</v>
       </c>
       <c r="AW43" s="18">
-        <v>2.56430221501347e-08</v>
+        <v>3.04781212467908e-06</v>
       </c>
       <c r="AX43" s="18">
-        <v>1.0590754273565e-08</v>
+        <v>2.03865215575583e-06</v>
       </c>
       <c r="AY43" s="18">
-        <v>4.2846807213337e-09</v>
+        <v>1.36081805979238e-06</v>
       </c>
     </row>
     <row r="44" ht="15.35" customHeight="1">
@@ -8005,150 +8004,150 @@
         <v>54</v>
       </c>
       <c r="B44" s="20">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="C44" s="14">
-        <v>6.9</v>
+        <v>16.59</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="20">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H44" s="14">
-        <v>6.9</v>
+        <v>16.59</v>
       </c>
       <c r="I44" s="16">
         <f>H44*(LN(2))^(1/G44)</f>
-        <v>5.48737959370912</v>
+        <v>14.146208822776</v>
       </c>
       <c r="J44" s="16">
         <f>H44*EXP(GAMMALN(1+1/G44))</f>
-        <v>6.18636253239053</v>
+        <v>14.6973249449097</v>
       </c>
       <c r="K44" s="17">
         <v>1</v>
       </c>
       <c r="L44" s="18">
-        <v>0.955536611850431</v>
+        <v>0.998436803237273</v>
       </c>
       <c r="M44" s="18">
-        <v>0.871206501011626</v>
+        <v>0.992325493634628</v>
       </c>
       <c r="N44" s="18">
-        <v>0.768145499056309</v>
+        <v>0.980614001367121</v>
       </c>
       <c r="O44" s="18">
-        <v>0.658386839697665</v>
+        <v>0.9627712129329919</v>
       </c>
       <c r="P44" s="18">
-        <v>0.550294712995351</v>
+        <v>0.938582347636975</v>
       </c>
       <c r="Q44" s="18">
-        <v>0.449499901025526</v>
+        <v>0.908095834251287</v>
       </c>
       <c r="R44" s="18">
-        <v>0.359410880467123</v>
+        <v>0.871596115897627</v>
       </c>
       <c r="S44" s="18">
-        <v>0.28166813453042</v>
+        <v>0.829579875747674</v>
       </c>
       <c r="T44" s="18">
-        <v>0.216582935689345</v>
+        <v>0.782728822541326</v>
       </c>
       <c r="U44" s="18">
-        <v>0.163543060120604</v>
+        <v>0.73187701380168</v>
       </c>
       <c r="V44" s="18">
-        <v>0.121363289473475</v>
+        <v>0.677972843611752</v>
       </c>
       <c r="W44" s="18">
-        <v>0.0885672183000034</v>
+        <v>0.62203700807317</v>
       </c>
       <c r="X44" s="18">
-        <v>0.06359723164353</v>
+        <v>0.565118458579269</v>
       </c>
       <c r="Y44" s="18">
-        <v>0.044957743056531</v>
+        <v>0.508250708023754</v>
       </c>
       <c r="Z44" s="18">
-        <v>0.0313019006393527</v>
+        <v>0.452410923099724</v>
       </c>
       <c r="AA44" s="18">
-        <v>0.0214741847378157</v>
+        <v>0.39848405257681</v>
       </c>
       <c r="AB44" s="18">
-        <v>0.014521323728216</v>
+        <v>0.347233847802142</v>
       </c>
       <c r="AC44" s="18">
-        <v>0.00968253992694146</v>
+        <v>0.299282080638504</v>
       </c>
       <c r="AD44" s="18">
-        <v>0.00636801512579199</v>
+        <v>0.255096619318663</v>
       </c>
       <c r="AE44" s="18">
-        <v>0.00413217164336332</v>
+        <v>0.214988353215922</v>
       </c>
       <c r="AF44" s="18">
-        <v>0.00264624944517833</v>
+        <v>0.17911633034797</v>
       </c>
       <c r="AG44" s="18">
-        <v>0.00167290782713203</v>
+        <v>0.147499944427153</v>
       </c>
       <c r="AH44" s="18">
-        <v>0.00104425256822482</v>
+        <v>0.120036624190338</v>
       </c>
       <c r="AI44" s="18">
-        <v>0.000643766697117187</v>
+        <v>0.0965232603929453</v>
       </c>
       <c r="AJ44" s="18">
-        <v>0.000392041681856248</v>
+        <v>0.0766795589578904</v>
       </c>
       <c r="AK44" s="18">
-        <v>0.000235886424993614</v>
+        <v>0.060171617480012</v>
       </c>
       <c r="AL44" s="18">
-        <v>0.000140256212312728</v>
+        <v>0.0466342569190488</v>
       </c>
       <c r="AM44" s="18">
-        <v>8.24265129399926e-05</v>
+        <v>0.0356909616033223</v>
       </c>
       <c r="AN44" s="18">
-        <v>4.78862376166456e-05</v>
+        <v>0.0269706456103461</v>
       </c>
       <c r="AO44" s="18">
-        <v>2.75057315201055e-05</v>
+        <v>0.0201208310148988</v>
       </c>
       <c r="AP44" s="18">
-        <v>1.56232296055769e-05</v>
+        <v>0.0148171585874569</v>
       </c>
       <c r="AQ44" s="18">
-        <v>8.776411343114351e-06</v>
+        <v>0.0107694288594047</v>
       </c>
       <c r="AR44" s="18">
-        <v>4.87665764870027e-06</v>
+        <v>0.00772457632839796</v>
       </c>
       <c r="AS44" s="18">
-        <v>2.68067842368325e-06</v>
+        <v>0.00546710767292191</v>
       </c>
       <c r="AT44" s="18">
-        <v>1.45794089911888e-06</v>
+        <v>0.00381759077534538</v>
       </c>
       <c r="AU44" s="18">
-        <v>7.84623340632784e-07</v>
+        <v>0.00262977622207095</v>
       </c>
       <c r="AV44" s="18">
-        <v>4.17887991321919e-07</v>
+        <v>0.00178688167129681</v>
       </c>
       <c r="AW44" s="18">
-        <v>2.20285153007538e-07</v>
+        <v>0.00119748819070287</v>
       </c>
       <c r="AX44" s="18">
-        <v>1.14943575990623e-07</v>
+        <v>0.000791401588409957</v>
       </c>
       <c r="AY44" s="18">
-        <v>5.9375061978173e-08</v>
+        <v>0.000515733684440689</v>
       </c>
     </row>
     <row r="45" ht="15.35" customHeight="1">
@@ -8156,150 +8155,150 @@
         <v>55</v>
       </c>
       <c r="B45" s="20">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="C45" s="14">
-        <v>4.57</v>
+        <v>11.84</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H45" s="14">
-        <v>4.57</v>
+        <v>11.84</v>
       </c>
       <c r="I45" s="16">
         <f>H45*(LN(2))^(1/G45)</f>
-        <v>3.36721425208747</v>
+        <v>9.85744659610714</v>
       </c>
       <c r="J45" s="16">
         <f>H45*EXP(GAMMALN(1+1/G45))</f>
-        <v>4.29879727223345</v>
+        <v>10.4929267973607</v>
       </c>
       <c r="K45" s="17">
         <v>1</v>
       </c>
       <c r="L45" s="18">
-        <v>0.850889300854578</v>
+        <v>0.992891982017761</v>
       </c>
       <c r="M45" s="18">
-        <v>0.69006596079243</v>
+        <v>0.971869637641807</v>
       </c>
       <c r="N45" s="18">
-        <v>0.546917870364024</v>
+        <v>0.9378168521332551</v>
       </c>
       <c r="O45" s="18">
-        <v>0.426449693527738</v>
+        <v>0.892138040300669</v>
       </c>
       <c r="P45" s="18">
-        <v>0.328260724482205</v>
+        <v>0.836662088623104</v>
       </c>
       <c r="Q45" s="18">
-        <v>0.24997877012068</v>
+        <v>0.773521038287479</v>
       </c>
       <c r="R45" s="18">
-        <v>0.188607881790407</v>
+        <v>0.705014707759673</v>
       </c>
       <c r="S45" s="18">
-        <v>0.141143056081177</v>
+        <v>0.633473178507964</v>
       </c>
       <c r="T45" s="18">
-        <v>0.104849027492654</v>
+        <v>0.561128455537983</v>
       </c>
       <c r="U45" s="18">
-        <v>0.07736828086391789</v>
+        <v>0.49000483076675</v>
       </c>
       <c r="V45" s="18">
-        <v>0.0567401952416042</v>
+        <v>0.421834831819099</v>
       </c>
       <c r="W45" s="18">
-        <v>0.041375630512679</v>
+        <v>0.358004528910127</v>
       </c>
       <c r="X45" s="18">
-        <v>0.0300117328872385</v>
+        <v>0.299528816894477</v>
       </c>
       <c r="Y45" s="18">
-        <v>0.0216607532160739</v>
+        <v>0.247054465820492</v>
       </c>
       <c r="Z45" s="18">
-        <v>0.0155602595049492</v>
+        <v>0.200886528382943</v>
       </c>
       <c r="AA45" s="18">
-        <v>0.0111283447475038</v>
+        <v>0.16103227394534</v>
       </c>
       <c r="AB45" s="18">
-        <v>0.00792523184498894</v>
+        <v>0.127256227654173</v>
       </c>
       <c r="AC45" s="18">
-        <v>0.0056214440185921</v>
+        <v>0.0991400586633432</v>
       </c>
       <c r="AD45" s="18">
-        <v>0.00397206554946339</v>
+        <v>0.076141829098876</v>
       </c>
       <c r="AE45" s="18">
-        <v>0.00279632838251376</v>
+        <v>0.0576502833731282</v>
       </c>
       <c r="AF45" s="18">
-        <v>0.00196167667202918</v>
+        <v>0.0430312136041855</v>
       </c>
       <c r="AG45" s="18">
-        <v>0.00137149075056053</v>
+        <v>0.0316642896859151</v>
       </c>
       <c r="AH45" s="18">
-        <v>0.000955737028827008</v>
+        <v>0.0229699427523022</v>
       </c>
       <c r="AI45" s="18">
-        <v>0.000663916790693331</v>
+        <v>0.0164268421064889</v>
       </c>
       <c r="AJ45" s="18">
-        <v>0.000459795267186758</v>
+        <v>0.0115811652871206</v>
       </c>
       <c r="AK45" s="18">
-        <v>0.000317492535817698</v>
+        <v>0.008049231986422271</v>
       </c>
       <c r="AL45" s="18">
-        <v>0.000218605122211835</v>
+        <v>0.00551519199855077</v>
       </c>
       <c r="AM45" s="18">
-        <v>0.000150100417264598</v>
+        <v>0.00372538219744767</v>
       </c>
       <c r="AN45" s="18">
-        <v>0.000102785721956877</v>
+        <v>0.0024807616581709</v>
       </c>
       <c r="AO45" s="18">
-        <v>7.02013439500826e-05</v>
+        <v>0.00162855809009077</v>
       </c>
       <c r="AP45" s="18">
-        <v>4.78244818327145e-05</v>
+        <v>0.00105396326671015</v>
       </c>
       <c r="AQ45" s="18">
-        <v>3.24994507812093e-05</v>
+        <v>0.000672437155990191</v>
       </c>
       <c r="AR45" s="18">
-        <v>2.20317879466858e-05</v>
+        <v>0.00042294309371671</v>
       </c>
       <c r="AS45" s="18">
-        <v>1.49003690742555e-05</v>
+        <v>0.000262250412499387</v>
       </c>
       <c r="AT45" s="18">
-        <v>1.00540745278099e-05</v>
+        <v>0.000160307717095631</v>
       </c>
       <c r="AU45" s="18">
-        <v>6.76874176630538e-06</v>
+        <v>9.6604350776075e-05</v>
       </c>
       <c r="AV45" s="18">
-        <v>4.54691032614196e-06</v>
+        <v>5.73908887394614e-05</v>
       </c>
       <c r="AW45" s="18">
-        <v>3.04781212467908e-06</v>
+        <v>3.36119122722467e-05</v>
       </c>
       <c r="AX45" s="18">
-        <v>2.03865215575583e-06</v>
+        <v>1.94065126540854e-05</v>
       </c>
       <c r="AY45" s="18">
-        <v>1.36081805979238e-06</v>
+        <v>1.10460189879369e-05</v>
       </c>
     </row>
     <row r="46" ht="15.35" customHeight="1">
@@ -8307,150 +8306,150 @@
         <v>56</v>
       </c>
       <c r="B46" s="20">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="14">
-        <v>16.59</v>
+        <v>6.6</v>
       </c>
       <c r="D46" s="14"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H46" s="14">
-        <v>16.59</v>
+        <v>6.6</v>
       </c>
       <c r="I46" s="16">
         <f>H46*(LN(2))^(1/G46)</f>
-        <v>14.146208822776</v>
+        <v>5.4948604336408</v>
       </c>
       <c r="J46" s="16">
         <f>H46*EXP(GAMMALN(1+1/G46))</f>
-        <v>14.6973249449097</v>
+        <v>5.8490977079882</v>
       </c>
       <c r="K46" s="17">
         <v>1</v>
       </c>
       <c r="L46" s="18">
-        <v>0.998436803237273</v>
+        <v>0.977304662219488</v>
       </c>
       <c r="M46" s="18">
-        <v>0.992325493634628</v>
+        <v>0.912262624816315</v>
       </c>
       <c r="N46" s="18">
-        <v>0.980614001367121</v>
+        <v>0.813335512349839</v>
       </c>
       <c r="O46" s="18">
-        <v>0.9627712129329919</v>
+        <v>0.692595282575667</v>
       </c>
       <c r="P46" s="18">
-        <v>0.938582347636975</v>
+        <v>0.563312339004762</v>
       </c>
       <c r="Q46" s="18">
-        <v>0.908095834251287</v>
+        <v>0.437601639638911</v>
       </c>
       <c r="R46" s="18">
-        <v>0.871596115897627</v>
+        <v>0.324689734472739</v>
       </c>
       <c r="S46" s="18">
-        <v>0.829579875747674</v>
+        <v>0.230100793631598</v>
       </c>
       <c r="T46" s="18">
-        <v>0.782728822541326</v>
+        <v>0.155749842549783</v>
       </c>
       <c r="U46" s="18">
-        <v>0.73187701380168</v>
+        <v>0.100692484575402</v>
       </c>
       <c r="V46" s="18">
-        <v>0.677972843611752</v>
+        <v>0.0621765240221163</v>
       </c>
       <c r="W46" s="18">
-        <v>0.62203700807317</v>
+        <v>0.0366704097137038</v>
       </c>
       <c r="X46" s="18">
-        <v>0.565118458579269</v>
+        <v>0.0206568942680895</v>
       </c>
       <c r="Y46" s="18">
-        <v>0.508250708023754</v>
+        <v>0.0111140982587213</v>
       </c>
       <c r="Z46" s="18">
-        <v>0.452410923099724</v>
+        <v>0.00571141053914537</v>
       </c>
       <c r="AA46" s="18">
-        <v>0.39848405257681</v>
+        <v>0.0028033186499844</v>
       </c>
       <c r="AB46" s="18">
-        <v>0.347233847802142</v>
+        <v>0.00131420009781325</v>
       </c>
       <c r="AC46" s="18">
-        <v>0.299282080638504</v>
+        <v>0.000588451216748109</v>
       </c>
       <c r="AD46" s="18">
-        <v>0.255096619318663</v>
+        <v>0.00025166300401902</v>
       </c>
       <c r="AE46" s="18">
-        <v>0.214988353215922</v>
+        <v>0.000102798843452989</v>
       </c>
       <c r="AF46" s="18">
-        <v>0.17911633034797</v>
+        <v>4.010670854937e-05</v>
       </c>
       <c r="AG46" s="18">
-        <v>0.147499944427153</v>
+        <v>1.49453385247522e-05</v>
       </c>
       <c r="AH46" s="18">
-        <v>0.120036624190338</v>
+        <v>5.31929936098408e-06</v>
       </c>
       <c r="AI46" s="18">
-        <v>0.0965232603929453</v>
+        <v>1.80826905060716e-06</v>
       </c>
       <c r="AJ46" s="18">
-        <v>0.0766795589578904</v>
+        <v>5.87126397944004e-07</v>
       </c>
       <c r="AK46" s="18">
-        <v>0.060171617480012</v>
+        <v>1.82079103461241e-07</v>
       </c>
       <c r="AL46" s="18">
-        <v>0.0466342569190488</v>
+        <v>5.39322509984785e-08</v>
       </c>
       <c r="AM46" s="18">
-        <v>0.0356909616033223</v>
+        <v>1.52579759937765e-08</v>
       </c>
       <c r="AN46" s="18">
-        <v>0.0269706456103461</v>
+        <v>4.12292322504726e-09</v>
       </c>
       <c r="AO46" s="18">
-        <v>0.0201208310148988</v>
+        <v>1.06407815891885e-09</v>
       </c>
       <c r="AP46" s="18">
-        <v>0.0148171585874569</v>
+        <v>2.62302068954057e-10</v>
       </c>
       <c r="AQ46" s="18">
-        <v>0.0107694288594047</v>
+        <v>6.17574880124039e-11</v>
       </c>
       <c r="AR46" s="18">
-        <v>0.00772457632839796</v>
+        <v>1.38878908373385e-11</v>
       </c>
       <c r="AS46" s="18">
-        <v>0.00546710767292191</v>
+        <v>2.98294722256287e-12</v>
       </c>
       <c r="AT46" s="18">
-        <v>0.00381759077534538</v>
+        <v>6.11954931173386e-13</v>
       </c>
       <c r="AU46" s="18">
-        <v>0.00262977622207095</v>
+        <v>1.19904086659517e-13</v>
       </c>
       <c r="AV46" s="18">
-        <v>0.00178688167129681</v>
+        <v>2.24265050974282e-14</v>
       </c>
       <c r="AW46" s="18">
-        <v>0.00119748819070287</v>
+        <v>3.99680288865056e-15</v>
       </c>
       <c r="AX46" s="18">
-        <v>0.000791401588409957</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="18">
-        <v>0.000515733684440689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="15.35" customHeight="1">
@@ -8458,150 +8457,150 @@
         <v>57</v>
       </c>
       <c r="B47" s="20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="C47" s="14">
-        <v>11.84</v>
+        <v>11.6</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H47" s="14">
-        <v>11.84</v>
+        <v>11.6</v>
       </c>
       <c r="I47" s="16">
         <f>H47*(LN(2))^(1/G47)</f>
-        <v>9.85744659610714</v>
+        <v>9.56493264419448</v>
       </c>
       <c r="J47" s="16">
         <f>H47*EXP(GAMMALN(1+1/G47))</f>
-        <v>10.4929267973607</v>
+        <v>10.2934144643452</v>
       </c>
       <c r="K47" s="17">
         <v>1</v>
       </c>
       <c r="L47" s="18">
-        <v>0.992891982017761</v>
+        <v>0.990549180393095</v>
       </c>
       <c r="M47" s="18">
-        <v>0.971869637641807</v>
+        <v>0.9651811868640821</v>
       </c>
       <c r="N47" s="18">
-        <v>0.9378168521332551</v>
+        <v>0.926287817519878</v>
       </c>
       <c r="O47" s="18">
-        <v>0.892138040300669</v>
+        <v>0.876109097597037</v>
       </c>
       <c r="P47" s="18">
-        <v>0.836662088623104</v>
+        <v>0.817010745449809</v>
       </c>
       <c r="Q47" s="18">
-        <v>0.773521038287479</v>
+        <v>0.75143514864546</v>
       </c>
       <c r="R47" s="18">
-        <v>0.705014707759673</v>
+        <v>0.681802483398622</v>
       </c>
       <c r="S47" s="18">
-        <v>0.633473178507964</v>
+        <v>0.610407112105675</v>
       </c>
       <c r="T47" s="18">
-        <v>0.561128455537983</v>
+        <v>0.539326539146466</v>
       </c>
       <c r="U47" s="18">
-        <v>0.49000483076675</v>
+        <v>0.470351408614438</v>
       </c>
       <c r="V47" s="18">
-        <v>0.421834831819099</v>
+        <v>0.404940314402897</v>
       </c>
       <c r="W47" s="18">
-        <v>0.358004528910127</v>
+        <v>0.344199884559645</v>
       </c>
       <c r="X47" s="18">
-        <v>0.299528816894477</v>
+        <v>0.288888132603382</v>
       </c>
       <c r="Y47" s="18">
-        <v>0.247054465820492</v>
+        <v>0.239437331961036</v>
       </c>
       <c r="Z47" s="18">
-        <v>0.200886528382943</v>
+        <v>0.195991636696542</v>
       </c>
       <c r="AA47" s="18">
-        <v>0.16103227394534</v>
+        <v>0.158454289604521</v>
       </c>
       <c r="AB47" s="18">
-        <v>0.127256227654173</v>
+        <v>0.126539431504115</v>
       </c>
       <c r="AC47" s="18">
-        <v>0.0991400586633432</v>
+        <v>0.0998241221189866</v>
       </c>
       <c r="AD47" s="18">
-        <v>0.076141829098876</v>
+        <v>0.07779705515299121</v>
       </c>
       <c r="AE47" s="18">
-        <v>0.0576502833731282</v>
+        <v>0.0599014521052105</v>
       </c>
       <c r="AF47" s="18">
-        <v>0.0430312136041855</v>
+        <v>0.0455706232044586</v>
       </c>
       <c r="AG47" s="18">
-        <v>0.0316642896859151</v>
+        <v>0.0342555905988844</v>
       </c>
       <c r="AH47" s="18">
-        <v>0.0229699427523022</v>
+        <v>0.0254449132567841</v>
       </c>
       <c r="AI47" s="18">
-        <v>0.0164268421064889</v>
+        <v>0.0186774027152993</v>
       </c>
       <c r="AJ47" s="18">
-        <v>0.0115811652871206</v>
+        <v>0.0135487703125206</v>
       </c>
       <c r="AK47" s="18">
-        <v>0.008049231986422271</v>
+        <v>0.009713418059275499</v>
       </c>
       <c r="AL47" s="18">
-        <v>0.00551519199855077</v>
+        <v>0.00688260898859083</v>
       </c>
       <c r="AM47" s="18">
-        <v>0.00372538219744767</v>
+        <v>0.0048201673072169</v>
       </c>
       <c r="AN47" s="18">
-        <v>0.0024807616581709</v>
+        <v>0.00333670293927124</v>
       </c>
       <c r="AO47" s="18">
-        <v>0.00162855809009077</v>
+        <v>0.00228316394349026</v>
       </c>
       <c r="AP47" s="18">
-        <v>0.00105396326671015</v>
+        <v>0.00154432186382758</v>
       </c>
       <c r="AQ47" s="18">
-        <v>0.000672437155990191</v>
+        <v>0.0010326095685762</v>
       </c>
       <c r="AR47" s="18">
-        <v>0.00042294309371671</v>
+        <v>0.000682571156226608</v>
       </c>
       <c r="AS47" s="18">
-        <v>0.000262250412499387</v>
+        <v>0.000446055095240983</v>
       </c>
       <c r="AT47" s="18">
-        <v>0.000160307717095631</v>
+        <v>0.000288185870197855</v>
       </c>
       <c r="AU47" s="18">
-        <v>9.6604350776075e-05</v>
+        <v>0.000184083480653796</v>
       </c>
       <c r="AV47" s="18">
-        <v>5.73908887394614e-05</v>
+        <v>0.000116259596410928</v>
       </c>
       <c r="AW47" s="18">
-        <v>3.36119122722467e-05</v>
+        <v>7.25985840298593e-05</v>
       </c>
       <c r="AX47" s="18">
-        <v>1.94065126540854e-05</v>
+        <v>4.48255808596087e-05</v>
       </c>
       <c r="AY47" s="18">
-        <v>1.10460189879369e-05</v>
+        <v>2.73674828857873e-05</v>
       </c>
     </row>
     <row r="48" ht="15.35" customHeight="1">
@@ -8609,150 +8608,150 @@
         <v>58</v>
       </c>
       <c r="B48" s="20">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="C48" s="14">
-        <v>6.6</v>
+        <v>15.7</v>
       </c>
       <c r="D48" s="14"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H48" s="14">
-        <v>6.6</v>
+        <v>15.7</v>
       </c>
       <c r="I48" s="16">
         <f>H48*(LN(2))^(1/G48)</f>
-        <v>5.4948604336408</v>
+        <v>13.6357388753172</v>
       </c>
       <c r="J48" s="16">
         <f>H48*EXP(GAMMALN(1+1/G48))</f>
-        <v>5.8490977079882</v>
+        <v>13.9449038253066</v>
       </c>
       <c r="K48" s="17">
         <v>1</v>
       </c>
       <c r="L48" s="18">
-        <v>0.977304662219488</v>
+        <v>0.999222872821104</v>
       </c>
       <c r="M48" s="18">
-        <v>0.912262624816315</v>
+        <v>0.995297641002908</v>
       </c>
       <c r="N48" s="18">
-        <v>0.813335512349839</v>
+        <v>0.986564856876742</v>
       </c>
       <c r="O48" s="18">
-        <v>0.692595282575667</v>
+        <v>0.971827444795883</v>
       </c>
       <c r="P48" s="18">
-        <v>0.563312339004762</v>
+        <v>0.950232590994344</v>
       </c>
       <c r="Q48" s="18">
-        <v>0.437601639638911</v>
+        <v>0.921264947917625</v>
       </c>
       <c r="R48" s="18">
-        <v>0.324689734472739</v>
+        <v>0.884760862947669</v>
       </c>
       <c r="S48" s="18">
-        <v>0.230100793631598</v>
+        <v>0.840920101593796</v>
       </c>
       <c r="T48" s="18">
-        <v>0.155749842549783</v>
+        <v>0.790303951652833</v>
       </c>
       <c r="U48" s="18">
-        <v>0.100692484575402</v>
+        <v>0.733813640461769</v>
       </c>
       <c r="V48" s="18">
-        <v>0.0621765240221163</v>
+        <v>0.6726465131830039</v>
       </c>
       <c r="W48" s="18">
-        <v>0.0366704097137038</v>
+        <v>0.608230612692505</v>
       </c>
       <c r="X48" s="18">
-        <v>0.0206568942680895</v>
+        <v>0.542141300970914</v>
       </c>
       <c r="Y48" s="18">
-        <v>0.0111140982587213</v>
+        <v>0.47600615053967</v>
       </c>
       <c r="Z48" s="18">
-        <v>0.00571141053914537</v>
+        <v>0.411406192887469</v>
       </c>
       <c r="AA48" s="18">
-        <v>0.0028033186499844</v>
+        <v>0.34978245027025</v>
       </c>
       <c r="AB48" s="18">
-        <v>0.00131420009781325</v>
+        <v>0.29235633154598</v>
       </c>
       <c r="AC48" s="18">
-        <v>0.000588451216748109</v>
+        <v>0.240070955505338</v>
       </c>
       <c r="AD48" s="18">
-        <v>0.00025166300401902</v>
+        <v>0.19355798676036</v>
       </c>
       <c r="AE48" s="18">
-        <v>0.000102798843452989</v>
+        <v>0.153131508950156</v>
       </c>
       <c r="AF48" s="18">
-        <v>4.010670854937e-05</v>
+        <v>0.118807299154668</v>
       </c>
       <c r="AG48" s="18">
-        <v>1.49453385247522e-05</v>
+        <v>0.09034309751816159</v>
       </c>
       <c r="AH48" s="18">
-        <v>5.31929936098408e-06</v>
+        <v>0.06729349356890529</v>
       </c>
       <c r="AI48" s="18">
-        <v>1.80826905060716e-06</v>
+        <v>0.0490721207190062</v>
       </c>
       <c r="AJ48" s="18">
-        <v>5.87126397944004e-07</v>
+        <v>0.0350140078789966</v>
       </c>
       <c r="AK48" s="18">
-        <v>1.82079103461241e-07</v>
+        <v>0.0244320330367449</v>
       </c>
       <c r="AL48" s="18">
-        <v>5.39322509984785e-08</v>
+        <v>0.0166631626596314</v>
       </c>
       <c r="AM48" s="18">
-        <v>1.52579759937765e-08</v>
+        <v>0.0111021755883079</v>
       </c>
       <c r="AN48" s="18">
-        <v>4.12292322504726e-09</v>
+        <v>0.00722250265662028</v>
       </c>
       <c r="AO48" s="18">
-        <v>1.06407815891885e-09</v>
+        <v>0.00458538278379139</v>
       </c>
       <c r="AP48" s="18">
-        <v>2.62302068954057e-10</v>
+        <v>0.00283957981522509</v>
       </c>
       <c r="AQ48" s="18">
-        <v>6.17574880124039e-11</v>
+        <v>0.00171438508202981</v>
       </c>
       <c r="AR48" s="18">
-        <v>1.38878908373385e-11</v>
+        <v>0.00100861741459757</v>
       </c>
       <c r="AS48" s="18">
-        <v>2.98294722256287e-12</v>
+        <v>0.000577961535193072</v>
       </c>
       <c r="AT48" s="18">
-        <v>6.11954931173386e-13</v>
+        <v>0.000322417739833103</v>
       </c>
       <c r="AU48" s="18">
-        <v>1.19904086659517e-13</v>
+        <v>0.000175017707870317</v>
       </c>
       <c r="AV48" s="18">
-        <v>2.24265050974282e-14</v>
+        <v>9.240298425527981e-05</v>
       </c>
       <c r="AW48" s="18">
-        <v>3.99680288865056e-15</v>
+        <v>4.7427589715987e-05</v>
       </c>
       <c r="AX48" s="18">
-        <v>0</v>
+        <v>2.36548076065768e-05</v>
       </c>
       <c r="AY48" s="18">
-        <v>0</v>
+        <v>1.14592296832638e-05</v>
       </c>
     </row>
     <row r="49" ht="15.35" customHeight="1">
@@ -8760,150 +8759,154 @@
         <v>59</v>
       </c>
       <c r="B49" s="20">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="C49" s="14">
-        <v>11.6</v>
+        <v>4.7</v>
       </c>
       <c r="D49" s="14"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="H49" s="14">
-        <v>11.6</v>
+      <c r="E49" s="15">
+        <v>1.14</v>
+      </c>
+      <c r="F49" s="15">
+        <v>4.78</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1.14</v>
+      </c>
+      <c r="H49" s="15">
+        <v>4.78</v>
       </c>
       <c r="I49" s="16">
         <f>H49*(LN(2))^(1/G49)</f>
-        <v>9.56493264419448</v>
+        <v>3.465780932488</v>
       </c>
       <c r="J49" s="16">
         <f>H49*EXP(GAMMALN(1+1/G49))</f>
-        <v>10.2934144643452</v>
+        <v>4.56086643383512</v>
       </c>
       <c r="K49" s="17">
         <v>1</v>
       </c>
       <c r="L49" s="18">
-        <v>0.990549180393095</v>
+        <v>0.845307093015476</v>
       </c>
       <c r="M49" s="18">
-        <v>0.9651811868640821</v>
+        <v>0.690484346406105</v>
       </c>
       <c r="N49" s="18">
-        <v>0.926287817519878</v>
+        <v>0.555442235971533</v>
       </c>
       <c r="O49" s="18">
-        <v>0.876109097597037</v>
+        <v>0.442105157241985</v>
       </c>
       <c r="P49" s="18">
-        <v>0.817010745449809</v>
+        <v>0.349016710578968</v>
       </c>
       <c r="Q49" s="18">
-        <v>0.75143514864546</v>
+        <v>0.273673405353629</v>
       </c>
       <c r="R49" s="18">
-        <v>0.681802483398622</v>
+        <v>0.213360834788604</v>
       </c>
       <c r="S49" s="18">
-        <v>0.610407112105675</v>
+        <v>0.165502915478083</v>
       </c>
       <c r="T49" s="18">
-        <v>0.539326539146466</v>
+        <v>0.127803989524285</v>
       </c>
       <c r="U49" s="18">
-        <v>0.470351408614438</v>
+        <v>0.0982923740016898</v>
       </c>
       <c r="V49" s="18">
-        <v>0.404940314402897</v>
+        <v>0.07531563608482281</v>
       </c>
       <c r="W49" s="18">
-        <v>0.344199884559645</v>
+        <v>0.0575131874548137</v>
       </c>
       <c r="X49" s="18">
-        <v>0.288888132603382</v>
+        <v>0.0437798087180433</v>
       </c>
       <c r="Y49" s="18">
-        <v>0.239437331961036</v>
+        <v>0.0332273813360308</v>
       </c>
       <c r="Z49" s="18">
-        <v>0.195991636696542</v>
+        <v>0.0251485891981789</v>
       </c>
       <c r="AA49" s="18">
-        <v>0.158454289604521</v>
+        <v>0.0189843571461364</v>
       </c>
       <c r="AB49" s="18">
-        <v>0.126539431504115</v>
+        <v>0.0142956626810615</v>
       </c>
       <c r="AC49" s="18">
-        <v>0.0998241221189866</v>
+        <v>0.0107397316824058</v>
       </c>
       <c r="AD49" s="18">
-        <v>0.07779705515299121</v>
+        <v>0.00805030348356695</v>
       </c>
       <c r="AE49" s="18">
-        <v>0.0599014521052105</v>
+        <v>0.00602150263699008</v>
       </c>
       <c r="AF49" s="18">
-        <v>0.0455706232044586</v>
+        <v>0.00449480976422034</v>
       </c>
       <c r="AG49" s="18">
-        <v>0.0342555905988844</v>
+        <v>0.00334863643608385</v>
       </c>
       <c r="AH49" s="18">
-        <v>0.0254449132567841</v>
+        <v>0.00249005119603207</v>
       </c>
       <c r="AI49" s="18">
-        <v>0.0186774027152993</v>
+        <v>0.00184825882632789</v>
       </c>
       <c r="AJ49" s="18">
-        <v>0.0135487703125206</v>
+        <v>0.0013694929201935</v>
       </c>
       <c r="AK49" s="18">
-        <v>0.009713418059275499</v>
+        <v>0.00101303728494728</v>
       </c>
       <c r="AL49" s="18">
-        <v>0.00688260898859083</v>
+        <v>0.000748141890936749</v>
       </c>
       <c r="AM49" s="18">
-        <v>0.0048201673072169</v>
+        <v>0.000551642873557801</v>
       </c>
       <c r="AN49" s="18">
-        <v>0.00333670293927124</v>
+        <v>0.000406133330888458</v>
       </c>
       <c r="AO49" s="18">
-        <v>0.00228316394349026</v>
+        <v>0.00029856271066564</v>
       </c>
       <c r="AP49" s="18">
-        <v>0.00154432186382758</v>
+        <v>0.000219168083920196</v>
       </c>
       <c r="AQ49" s="18">
-        <v>0.0010326095685762</v>
+        <v>0.000160661293620024</v>
       </c>
       <c r="AR49" s="18">
-        <v>0.000682571156226608</v>
+        <v>0.000117612582694937</v>
       </c>
       <c r="AS49" s="18">
-        <v>0.000446055095240983</v>
+        <v>8.59845342806587e-05</v>
       </c>
       <c r="AT49" s="18">
-        <v>0.000288185870197855</v>
+        <v>6.278061009401541e-05</v>
       </c>
       <c r="AU49" s="18">
-        <v>0.000184083480653796</v>
+        <v>4.57807789029374e-05</v>
       </c>
       <c r="AV49" s="18">
-        <v>0.000116259596410928</v>
+        <v>3.33431318022548e-05</v>
       </c>
       <c r="AW49" s="18">
-        <v>7.25985840298593e-05</v>
+        <v>2.42553539039347e-05</v>
       </c>
       <c r="AX49" s="18">
-        <v>4.48255808596087e-05</v>
+        <v>1.76237650707511e-05</v>
       </c>
       <c r="AY49" s="18">
-        <v>2.73674828857873e-05</v>
+        <v>1.27905994551369e-05</v>
       </c>
     </row>
     <row r="50" ht="15.35" customHeight="1">
@@ -8911,150 +8914,150 @@
         <v>60</v>
       </c>
       <c r="B50" s="20">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="C50" s="14">
-        <v>15.7</v>
+        <v>5.6</v>
       </c>
       <c r="D50" s="14"/>
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
       <c r="G50" s="20">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H50" s="14">
-        <v>15.7</v>
+        <v>5.6</v>
       </c>
       <c r="I50" s="16">
         <f>H50*(LN(2))^(1/G50)</f>
-        <v>13.6357388753172</v>
+        <v>4.12612687345511</v>
       </c>
       <c r="J50" s="16">
         <f>H50*EXP(GAMMALN(1+1/G50))</f>
-        <v>13.9449038253066</v>
+        <v>5.26767280623792</v>
       </c>
       <c r="K50" s="17">
         <v>1</v>
       </c>
       <c r="L50" s="18">
-        <v>0.999222872821104</v>
+        <v>0.881152628336345</v>
       </c>
       <c r="M50" s="18">
-        <v>0.995297641002908</v>
+        <v>0.747757318186021</v>
       </c>
       <c r="N50" s="18">
-        <v>0.986564856876742</v>
+        <v>0.623225936274558</v>
       </c>
       <c r="O50" s="18">
-        <v>0.971827444795883</v>
+        <v>0.512835621269238</v>
       </c>
       <c r="P50" s="18">
-        <v>0.950232590994344</v>
+        <v>0.417760281208712</v>
       </c>
       <c r="Q50" s="18">
-        <v>0.921264947917625</v>
+        <v>0.337457659692819</v>
       </c>
       <c r="R50" s="18">
-        <v>0.884760862947669</v>
+        <v>0.270617352106545</v>
       </c>
       <c r="S50" s="18">
-        <v>0.840920101593796</v>
+        <v>0.21562784012394</v>
       </c>
       <c r="T50" s="18">
-        <v>0.790303951652833</v>
+        <v>0.170824715938071</v>
       </c>
       <c r="U50" s="18">
-        <v>0.733813640461769</v>
+        <v>0.134623003070813</v>
       </c>
       <c r="V50" s="18">
-        <v>0.6726465131830039</v>
+        <v>0.10558329483202</v>
       </c>
       <c r="W50" s="18">
-        <v>0.608230612692505</v>
+        <v>0.0824389686116751</v>
       </c>
       <c r="X50" s="18">
-        <v>0.542141300970914</v>
+        <v>0.06410057630400789</v>
       </c>
       <c r="Y50" s="18">
-        <v>0.47600615053967</v>
+        <v>0.0496473092185469</v>
       </c>
       <c r="Z50" s="18">
-        <v>0.411406192887469</v>
+        <v>0.0383117204629375</v>
       </c>
       <c r="AA50" s="18">
-        <v>0.34978245027025</v>
+        <v>0.0294615556355445</v>
       </c>
       <c r="AB50" s="18">
-        <v>0.29235633154598</v>
+        <v>0.0225810404103193</v>
       </c>
       <c r="AC50" s="18">
-        <v>0.240070955505338</v>
+        <v>0.0172529959219688</v>
       </c>
       <c r="AD50" s="18">
-        <v>0.19355798676036</v>
+        <v>0.0131425180105533</v>
       </c>
       <c r="AE50" s="18">
-        <v>0.153131508950156</v>
+        <v>0.00998254980979885</v>
       </c>
       <c r="AF50" s="18">
-        <v>0.118807299154668</v>
+        <v>0.00756142371971524</v>
       </c>
       <c r="AG50" s="18">
-        <v>0.09034309751816159</v>
+        <v>0.00571229791070871</v>
       </c>
       <c r="AH50" s="18">
-        <v>0.06729349356890529</v>
+        <v>0.00430432961677696</v>
       </c>
       <c r="AI50" s="18">
-        <v>0.0490721207190062</v>
+        <v>0.00323538885873642</v>
       </c>
       <c r="AJ50" s="18">
-        <v>0.0350140078789966</v>
+        <v>0.00242610561544632</v>
       </c>
       <c r="AK50" s="18">
-        <v>0.0244320330367449</v>
+        <v>0.00181504974765867</v>
       </c>
       <c r="AL50" s="18">
-        <v>0.0166631626596314</v>
+        <v>0.00135485873038843</v>
       </c>
       <c r="AM50" s="18">
-        <v>0.0111021755883079</v>
+        <v>0.00100914856631384</v>
       </c>
       <c r="AN50" s="18">
-        <v>0.00722250265662028</v>
+        <v>0.000750065005634348</v>
       </c>
       <c r="AO50" s="18">
-        <v>0.00458538278379139</v>
+        <v>0.000556353475829496</v>
       </c>
       <c r="AP50" s="18">
-        <v>0.00283957981522509</v>
+        <v>0.000411845841540748</v>
       </c>
       <c r="AQ50" s="18">
-        <v>0.00171438508202981</v>
+        <v>0.000304279730900192</v>
       </c>
       <c r="AR50" s="18">
-        <v>0.00100861741459757</v>
+        <v>0.000224381492407111</v>
       </c>
       <c r="AS50" s="18">
-        <v>0.000577961535193072</v>
+        <v>0.000165156915083675</v>
       </c>
       <c r="AT50" s="18">
-        <v>0.000322417739833103</v>
+        <v>0.000121344808014401</v>
       </c>
       <c r="AU50" s="18">
-        <v>0.000175017707870317</v>
+        <v>8.89976108668922e-05</v>
       </c>
       <c r="AV50" s="18">
-        <v>9.240298425527981e-05</v>
+        <v>6.51606357506829e-05</v>
       </c>
       <c r="AW50" s="18">
-        <v>4.7427589715987e-05</v>
+        <v>4.76275631137169e-05</v>
       </c>
       <c r="AX50" s="18">
-        <v>2.36548076065768e-05</v>
+        <v>3.47546555228284e-05</v>
       </c>
       <c r="AY50" s="18">
-        <v>1.14592296832638e-05</v>
+        <v>2.53200157873668e-05</v>
       </c>
     </row>
     <row r="51" ht="15.35" customHeight="1">
@@ -9062,154 +9065,150 @@
         <v>61</v>
       </c>
       <c r="B51" s="20">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="C51" s="14">
-        <v>4.7</v>
+        <v>11.6</v>
       </c>
       <c r="D51" s="14"/>
-      <c r="E51" s="15">
-        <v>1.14</v>
-      </c>
-      <c r="F51" s="15">
-        <v>4.78</v>
-      </c>
-      <c r="G51" s="15">
-        <v>1.14</v>
-      </c>
-      <c r="H51" s="15">
-        <v>4.78</v>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="20">
+        <v>2.4</v>
+      </c>
+      <c r="H51" s="14">
+        <v>11.6</v>
       </c>
       <c r="I51" s="16">
         <f>H51*(LN(2))^(1/G51)</f>
-        <v>3.465780932488</v>
+        <v>9.9571549301075</v>
       </c>
       <c r="J51" s="16">
         <f>H51*EXP(GAMMALN(1+1/G51))</f>
-        <v>4.56086643383512</v>
+        <v>10.2831924499107</v>
       </c>
       <c r="K51" s="17">
         <v>1</v>
       </c>
       <c r="L51" s="18">
-        <v>0.845307093015476</v>
+        <v>0.99721583128709</v>
       </c>
       <c r="M51" s="18">
-        <v>0.690484346406105</v>
+        <v>0.985392317530002</v>
       </c>
       <c r="N51" s="18">
-        <v>0.555442235971533</v>
+        <v>0.961808770358044</v>
       </c>
       <c r="O51" s="18">
-        <v>0.442105157241985</v>
+        <v>0.925271121733532</v>
       </c>
       <c r="P51" s="18">
-        <v>0.349016710578968</v>
+        <v>0.875739032150198</v>
       </c>
       <c r="Q51" s="18">
-        <v>0.273673405353629</v>
+        <v>0.814220058673839</v>
       </c>
       <c r="R51" s="18">
-        <v>0.213360834788604</v>
+        <v>0.7426475764874459</v>
       </c>
       <c r="S51" s="18">
-        <v>0.165502915478083</v>
+        <v>0.66369226433329</v>
       </c>
       <c r="T51" s="18">
-        <v>0.127803989524285</v>
+        <v>0.580506283872381</v>
       </c>
       <c r="U51" s="18">
-        <v>0.0982923740016898</v>
+        <v>0.496422982448477</v>
       </c>
       <c r="V51" s="18">
-        <v>0.07531563608482281</v>
+        <v>0.414647931749194</v>
       </c>
       <c r="W51" s="18">
-        <v>0.0575131874548137</v>
+        <v>0.337981073696585</v>
       </c>
       <c r="X51" s="18">
-        <v>0.0437798087180433</v>
+        <v>0.268605113514079</v>
       </c>
       <c r="Y51" s="18">
-        <v>0.0332273813360308</v>
+        <v>0.207963616579787</v>
       </c>
       <c r="Z51" s="18">
-        <v>0.0251485891981789</v>
+        <v>0.156736446117099</v>
       </c>
       <c r="AA51" s="18">
-        <v>0.0189843571461364</v>
+        <v>0.114903935407832</v>
       </c>
       <c r="AB51" s="18">
-        <v>0.0142956626810615</v>
+        <v>0.0818780839513478</v>
       </c>
       <c r="AC51" s="18">
-        <v>0.0107397316824058</v>
+        <v>0.056671600449838</v>
       </c>
       <c r="AD51" s="18">
-        <v>0.00805030348356695</v>
+        <v>0.0380746588583641</v>
       </c>
       <c r="AE51" s="18">
-        <v>0.00602150263699008</v>
+        <v>0.0248139895766241</v>
       </c>
       <c r="AF51" s="18">
-        <v>0.00449480976422034</v>
+        <v>0.0156773731677997</v>
       </c>
       <c r="AG51" s="18">
-        <v>0.00334863643608385</v>
+        <v>0.009596222776037781</v>
       </c>
       <c r="AH51" s="18">
-        <v>0.00249005119603207</v>
+        <v>0.00568747324178909</v>
       </c>
       <c r="AI51" s="18">
-        <v>0.00184825882632789</v>
+        <v>0.00326196337956741</v>
       </c>
       <c r="AJ51" s="18">
-        <v>0.0013694929201935</v>
+        <v>0.00180940003436203</v>
       </c>
       <c r="AK51" s="18">
-        <v>0.00101303728494728</v>
+        <v>0.000970168311495434</v>
       </c>
       <c r="AL51" s="18">
-        <v>0.000748141890936749</v>
+        <v>0.000502554772179309</v>
       </c>
       <c r="AM51" s="18">
-        <v>0.000551642873557801</v>
+        <v>0.000251371312346316</v>
       </c>
       <c r="AN51" s="18">
-        <v>0.000406133330888458</v>
+        <v>0.000121344808014401</v>
       </c>
       <c r="AO51" s="18">
-        <v>0.00029856271066564</v>
+        <v>5.65043349325389e-05</v>
       </c>
       <c r="AP51" s="18">
-        <v>0.000219168083920196</v>
+        <v>2.53678577638583e-05</v>
       </c>
       <c r="AQ51" s="18">
-        <v>0.000160661293620024</v>
+        <v>1.09753375473476e-05</v>
       </c>
       <c r="AR51" s="18">
-        <v>0.000117612582694937</v>
+        <v>4.57381576290938e-06</v>
       </c>
       <c r="AS51" s="18">
-        <v>8.59845342806587e-05</v>
+        <v>1.8351204599254e-06</v>
       </c>
       <c r="AT51" s="18">
-        <v>6.278061009401541e-05</v>
+        <v>7.08561727402746e-07</v>
       </c>
       <c r="AU51" s="18">
-        <v>4.57807789029374e-05</v>
+        <v>2.63162221347812e-07</v>
       </c>
       <c r="AV51" s="18">
-        <v>3.33431318022548e-05</v>
+        <v>9.397470701610899e-08</v>
       </c>
       <c r="AW51" s="18">
-        <v>2.42553539039347e-05</v>
+        <v>3.22516549022822e-08</v>
       </c>
       <c r="AX51" s="18">
-        <v>1.76237650707511e-05</v>
+        <v>1.06331428106898e-08</v>
       </c>
       <c r="AY51" s="18">
-        <v>1.27905994551369e-05</v>
+        <v>3.36633887432214e-09</v>
       </c>
     </row>
     <row r="52" ht="15.35" customHeight="1">
@@ -9217,458 +9216,458 @@
         <v>62</v>
       </c>
       <c r="B52" s="20">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="C52" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="H52" s="14">
-        <v>5.6</v>
+        <v>7.6</v>
+      </c>
+      <c r="D52" t="s" s="22">
+        <v>63</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F52" s="15">
+        <v>14</v>
+      </c>
+      <c r="G52" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="H52" s="15">
+        <v>14</v>
       </c>
       <c r="I52" s="16">
         <f>H52*(LN(2))^(1/G52)</f>
-        <v>4.12612687345511</v>
+        <v>12.0908886084332</v>
       </c>
       <c r="J52" s="16">
         <f>H52*EXP(GAMMALN(1+1/G52))</f>
-        <v>5.26767280623792</v>
+        <v>12.4216934450431</v>
       </c>
       <c r="K52" s="17">
         <v>1</v>
       </c>
       <c r="L52" s="18">
-        <v>0.881152628336345</v>
+        <v>0.998637351484885</v>
       </c>
       <c r="M52" s="18">
-        <v>0.747757318186021</v>
+        <v>0.992316112491206</v>
       </c>
       <c r="N52" s="18">
-        <v>0.623225936274558</v>
+        <v>0.978968244430014</v>
       </c>
       <c r="O52" s="18">
-        <v>0.512835621269238</v>
+        <v>0.9573037991046</v>
       </c>
       <c r="P52" s="18">
-        <v>0.417760281208712</v>
+        <v>0.926606478465869</v>
       </c>
       <c r="Q52" s="18">
-        <v>0.337457659692819</v>
+        <v>0.886705374881179</v>
       </c>
       <c r="R52" s="18">
-        <v>0.270617352106545</v>
+        <v>0.837966885578756</v>
       </c>
       <c r="S52" s="18">
-        <v>0.21562784012394</v>
+        <v>0.781270419309404</v>
       </c>
       <c r="T52" s="18">
-        <v>0.170824715938071</v>
+        <v>0.717954274242568</v>
       </c>
       <c r="U52" s="18">
-        <v>0.134623003070813</v>
+        <v>0.6497282045595421</v>
       </c>
       <c r="V52" s="18">
-        <v>0.10558329483202</v>
+        <v>0.578556208812128</v>
       </c>
       <c r="W52" s="18">
-        <v>0.0824389686116751</v>
+        <v>0.5065185363533929</v>
       </c>
       <c r="X52" s="18">
-        <v>0.06410057630400789</v>
+        <v>0.435665743140238</v>
       </c>
       <c r="Y52" s="18">
-        <v>0.0496473092185469</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="Z52" s="18">
-        <v>0.0383117204629375</v>
+        <v>0.304753921043869</v>
       </c>
       <c r="AA52" s="18">
-        <v>0.0294615556355445</v>
+        <v>0.247510163983666</v>
       </c>
       <c r="AB52" s="18">
-        <v>0.0225810404103193</v>
+        <v>0.196949363906392</v>
       </c>
       <c r="AC52" s="18">
-        <v>0.0172529959219688</v>
+        <v>0.153447737276369</v>
       </c>
       <c r="AD52" s="18">
-        <v>0.0131425180105533</v>
+        <v>0.116989058926733</v>
       </c>
       <c r="AE52" s="18">
-        <v>0.00998254980979885</v>
+        <v>0.0872269392115235</v>
       </c>
       <c r="AF52" s="18">
-        <v>0.00756142371971524</v>
+        <v>0.0635660370046254</v>
       </c>
       <c r="AG52" s="18">
-        <v>0.00571229791070871</v>
+        <v>0.0452505084329606</v>
       </c>
       <c r="AH52" s="18">
-        <v>0.00430432961677696</v>
+        <v>0.031448946241015</v>
       </c>
       <c r="AI52" s="18">
-        <v>0.00323538885873642</v>
+        <v>0.0213274490038289</v>
       </c>
       <c r="AJ52" s="18">
-        <v>0.00242610561544632</v>
+        <v>0.0141056406543797</v>
       </c>
       <c r="AK52" s="18">
-        <v>0.00181504974765867</v>
+        <v>0.009093759128663949</v>
       </c>
       <c r="AL52" s="18">
-        <v>0.00135485873038843</v>
+        <v>0.00571177232514741</v>
       </c>
       <c r="AM52" s="18">
-        <v>0.00100914856631384</v>
+        <v>0.00349348927664617</v>
       </c>
       <c r="AN52" s="18">
-        <v>0.000750065005634348</v>
+        <v>0.00207968357649857</v>
       </c>
       <c r="AO52" s="18">
-        <v>0.000556353475829496</v>
+        <v>0.00120441572333196</v>
       </c>
       <c r="AP52" s="18">
-        <v>0.000411845841540748</v>
+        <v>0.00067825408919131</v>
       </c>
       <c r="AQ52" s="18">
-        <v>0.000304279730900192</v>
+        <v>0.000371230969478442</v>
       </c>
       <c r="AR52" s="18">
-        <v>0.000224381492407111</v>
+        <v>0.000197393976385185</v>
       </c>
       <c r="AS52" s="18">
-        <v>0.000165156915083675</v>
+        <v>0.000101921714664388</v>
       </c>
       <c r="AT52" s="18">
-        <v>0.000121344808014401</v>
+        <v>5.10799917645688e-05</v>
       </c>
       <c r="AU52" s="18">
-        <v>8.89976108668922e-05</v>
+        <v>2.48368852928671e-05</v>
       </c>
       <c r="AV52" s="18">
-        <v>6.51606357506829e-05</v>
+        <v>1.17116824124297e-05</v>
       </c>
       <c r="AW52" s="18">
-        <v>4.76275631137169e-05</v>
+        <v>5.35344670182791e-06</v>
       </c>
       <c r="AX52" s="18">
-        <v>3.47546555228284e-05</v>
+        <v>2.37114649415116e-06</v>
       </c>
       <c r="AY52" s="18">
-        <v>2.53200157873668e-05</v>
+        <v>1.01722033551965e-06</v>
       </c>
     </row>
     <row r="53" ht="15.35" customHeight="1">
       <c r="A53" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" s="20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="C53" s="14">
-        <v>11.6</v>
+        <v>19.2</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="20">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H53" s="14">
-        <v>11.6</v>
+        <v>19.2</v>
       </c>
       <c r="I53" s="16">
         <f>H53*(LN(2))^(1/G53)</f>
-        <v>9.9571549301075</v>
+        <v>16.6755532742733</v>
       </c>
       <c r="J53" s="16">
         <f>H53*EXP(GAMMALN(1+1/G53))</f>
-        <v>10.2831924499107</v>
+        <v>17.0536403468718</v>
       </c>
       <c r="K53" s="17">
         <v>1</v>
       </c>
       <c r="L53" s="18">
-        <v>0.99721583128709</v>
+        <v>0.999539407597682</v>
       </c>
       <c r="M53" s="18">
-        <v>0.985392317530002</v>
+        <v>0.997210743783285</v>
       </c>
       <c r="N53" s="18">
-        <v>0.961808770358044</v>
+        <v>0.992016511928243</v>
       </c>
       <c r="O53" s="18">
-        <v>0.925271121733532</v>
+        <v>0.983208067150228</v>
       </c>
       <c r="P53" s="18">
-        <v>0.875739032150198</v>
+        <v>0.9702020443889831</v>
       </c>
       <c r="Q53" s="18">
-        <v>0.814220058673839</v>
+        <v>0.95256487247237</v>
       </c>
       <c r="R53" s="18">
-        <v>0.7426475764874459</v>
+        <v>0.93001391656529</v>
       </c>
       <c r="S53" s="18">
-        <v>0.66369226433329</v>
+        <v>0.902423186424153</v>
       </c>
       <c r="T53" s="18">
-        <v>0.580506283872381</v>
+        <v>0.8698284666971789</v>
       </c>
       <c r="U53" s="18">
-        <v>0.496422982448477</v>
+        <v>0.832428972295622</v>
       </c>
       <c r="V53" s="18">
-        <v>0.414647931749194</v>
+        <v>0.790583715095567</v>
       </c>
       <c r="W53" s="18">
-        <v>0.337981073696585</v>
+        <v>0.744801516851103</v>
       </c>
       <c r="X53" s="18">
-        <v>0.268605113514079</v>
+        <v>0.695724261090083</v>
       </c>
       <c r="Y53" s="18">
-        <v>0.207963616579787</v>
+        <v>0.644103609730057</v>
       </c>
       <c r="Z53" s="18">
-        <v>0.156736446117099</v>
+        <v>0.590772015434014</v>
       </c>
       <c r="AA53" s="18">
-        <v>0.114903935407832</v>
+        <v>0.5366094055809</v>
       </c>
       <c r="AB53" s="18">
-        <v>0.0818780839513478</v>
+        <v>0.482507353939694</v>
       </c>
       <c r="AC53" s="18">
-        <v>0.056671600449838</v>
+        <v>0.429332848035134</v>
       </c>
       <c r="AD53" s="18">
-        <v>0.0380746588583641</v>
+        <v>0.377893869832848</v>
       </c>
       <c r="AE53" s="18">
-        <v>0.0248139895766241</v>
+        <v>0.328908917486916</v>
       </c>
       <c r="AF53" s="18">
-        <v>0.0156773731677997</v>
+        <v>0.282982310243913</v>
       </c>
       <c r="AG53" s="18">
-        <v>0.009596222776037781</v>
+        <v>0.240586663197775</v>
       </c>
       <c r="AH53" s="18">
-        <v>0.00568747324178909</v>
+        <v>0.202053339572849</v>
       </c>
       <c r="AI53" s="18">
-        <v>0.00326196337956741</v>
+        <v>0.167571046558081</v>
       </c>
       <c r="AJ53" s="18">
-        <v>0.00180940003436203</v>
+        <v>0.137192104573347</v>
       </c>
       <c r="AK53" s="18">
-        <v>0.000970168311495434</v>
+        <v>0.110845355632852</v>
       </c>
       <c r="AL53" s="18">
-        <v>0.000502554772179309</v>
+        <v>0.0883542401432191</v>
       </c>
       <c r="AM53" s="18">
-        <v>0.000251371312346316</v>
+        <v>0.0694583014375131</v>
       </c>
       <c r="AN53" s="18">
-        <v>0.000121344808014401</v>
+        <v>0.0538362900754701</v>
       </c>
       <c r="AO53" s="18">
-        <v>5.65043349325389e-05</v>
+        <v>0.0411291290016961</v>
       </c>
       <c r="AP53" s="18">
-        <v>2.53678577638583e-05</v>
+        <v>0.0309612391473189</v>
       </c>
       <c r="AQ53" s="18">
-        <v>1.09753375473476e-05</v>
+        <v>0.022959070906335</v>
       </c>
       <c r="AR53" s="18">
-        <v>4.57381576290938e-06</v>
+        <v>0.0167660899438179</v>
       </c>
       <c r="AS53" s="18">
-        <v>1.8351204599254e-06</v>
+        <v>0.012053875331323</v>
       </c>
       <c r="AT53" s="18">
-        <v>7.08561727402746e-07</v>
+        <v>0.008529359715211959</v>
       </c>
       <c r="AU53" s="18">
-        <v>2.63162221347812e-07</v>
+        <v>0.00593854212767952</v>
       </c>
       <c r="AV53" s="18">
-        <v>9.397470701610899e-08</v>
+        <v>0.00406721518354158</v>
       </c>
       <c r="AW53" s="18">
-        <v>3.22516549022822e-08</v>
+        <v>0.00273936499382887</v>
       </c>
       <c r="AX53" s="18">
-        <v>1.06331428106898e-08</v>
+        <v>0.0018139316382203</v>
       </c>
       <c r="AY53" s="18">
-        <v>3.36633887432214e-09</v>
+        <v>0.0011805767864822</v>
       </c>
     </row>
     <row r="54" ht="15.35" customHeight="1">
       <c r="A54" t="s" s="12">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" s="20">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="C54" s="14">
-        <v>7.6</v>
-      </c>
-      <c r="D54" t="s" s="22">
-        <v>65</v>
-      </c>
-      <c r="E54" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="F54" s="15">
-        <v>14</v>
-      </c>
-      <c r="G54" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="H54" s="15">
-        <v>14</v>
+        <v>9.6</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="20">
+        <v>1.7</v>
+      </c>
+      <c r="H54" s="14">
+        <v>9.6</v>
       </c>
       <c r="I54" s="16">
         <f>H54*(LN(2))^(1/G54)</f>
-        <v>12.0908886084332</v>
+        <v>7.73818576498484</v>
       </c>
       <c r="J54" s="16">
         <f>H54*EXP(GAMMALN(1+1/G54))</f>
-        <v>12.4216934450431</v>
+        <v>8.56554722399351</v>
       </c>
       <c r="K54" s="17">
         <v>1</v>
       </c>
       <c r="L54" s="18">
-        <v>0.998637351484885</v>
+        <v>0.978840608721254</v>
       </c>
       <c r="M54" s="18">
-        <v>0.992316112491206</v>
+        <v>0.932874300331955</v>
       </c>
       <c r="N54" s="18">
-        <v>0.978968244430014</v>
+        <v>0.870720087184043</v>
       </c>
       <c r="O54" s="18">
-        <v>0.9573037991046</v>
+        <v>0.797912110158169</v>
       </c>
       <c r="P54" s="18">
-        <v>0.926606478465869</v>
+        <v>0.718992573231186</v>
       </c>
       <c r="Q54" s="18">
-        <v>0.886705374881179</v>
+        <v>0.6377711603459369</v>
       </c>
       <c r="R54" s="18">
-        <v>0.837966885578756</v>
+        <v>0.557368688552678</v>
       </c>
       <c r="S54" s="18">
-        <v>0.781270419309404</v>
+        <v>0.480231937243704</v>
       </c>
       <c r="T54" s="18">
-        <v>0.717954274242568</v>
+        <v>0.408162847178236</v>
       </c>
       <c r="U54" s="18">
-        <v>0.6497282045595421</v>
+        <v>0.342370404971658</v>
       </c>
       <c r="V54" s="18">
-        <v>0.578556208812128</v>
+        <v>0.283542172374435</v>
       </c>
       <c r="W54" s="18">
-        <v>0.5065185363533929</v>
+        <v>0.23192860314984</v>
       </c>
       <c r="X54" s="18">
-        <v>0.435665743140238</v>
+        <v>0.187432602355827</v>
       </c>
       <c r="Y54" s="18">
-        <v>0.367879441171442</v>
+        <v>0.149697576254026</v>
       </c>
       <c r="Z54" s="18">
-        <v>0.304753921043869</v>
+        <v>0.11818869746917</v>
       </c>
       <c r="AA54" s="18">
-        <v>0.247510163983666</v>
+        <v>0.09226380730605931</v>
       </c>
       <c r="AB54" s="18">
-        <v>0.196949363906392</v>
+        <v>0.07123200998795889</v>
       </c>
       <c r="AC54" s="18">
-        <v>0.153447737276369</v>
+        <v>0.0543994133329362</v>
       </c>
       <c r="AD54" s="18">
-        <v>0.116989058926733</v>
+        <v>0.0411025538768002</v>
       </c>
       <c r="AE54" s="18">
-        <v>0.0872269392115235</v>
+        <v>0.0307307914595558</v>
       </c>
       <c r="AF54" s="18">
-        <v>0.0635660370046254</v>
+        <v>0.0227393920689315</v>
       </c>
       <c r="AG54" s="18">
-        <v>0.0452505084329606</v>
+        <v>0.0166551879616423</v>
       </c>
       <c r="AH54" s="18">
-        <v>0.031448946241015</v>
+        <v>0.0120766727071455</v>
       </c>
       <c r="AI54" s="18">
-        <v>0.0213274490038289</v>
+        <v>0.008670219200852539</v>
       </c>
       <c r="AJ54" s="18">
-        <v>0.0141056406543797</v>
+        <v>0.00616385828738264</v>
       </c>
       <c r="AK54" s="18">
-        <v>0.009093759128663949</v>
+        <v>0.0043397716033029</v>
       </c>
       <c r="AL54" s="18">
-        <v>0.00571177232514741</v>
+        <v>0.00302636987351723</v>
       </c>
       <c r="AM54" s="18">
-        <v>0.00349348927664617</v>
+        <v>0.00209057078882979</v>
       </c>
       <c r="AN54" s="18">
-        <v>0.00207968357649857</v>
+        <v>0.00143067216203874</v>
       </c>
       <c r="AO54" s="18">
-        <v>0.00120441572333196</v>
+        <v>0.000970041601936145</v>
       </c>
       <c r="AP54" s="18">
-        <v>0.00067825408919131</v>
+        <v>0.000651712899072066</v>
       </c>
       <c r="AQ54" s="18">
-        <v>0.000371230969478442</v>
+        <v>0.000433887368527786</v>
       </c>
       <c r="AR54" s="18">
-        <v>0.000197393976385185</v>
+        <v>0.00028627922795943</v>
       </c>
       <c r="AS54" s="18">
-        <v>0.000101921714664388</v>
+        <v>0.000187210724787557</v>
       </c>
       <c r="AT54" s="18">
-        <v>5.10799917645688e-05</v>
+        <v>0.000121348439955926</v>
       </c>
       <c r="AU54" s="18">
-        <v>2.48368852928671e-05</v>
+        <v>7.797106894913421e-05</v>
       </c>
       <c r="AV54" s="18">
-        <v>1.17116824124297e-05</v>
+        <v>4.96661638770268e-05</v>
       </c>
       <c r="AW54" s="18">
-        <v>5.35344670182791e-06</v>
+        <v>3.13650849550484e-05</v>
       </c>
       <c r="AX54" s="18">
-        <v>2.37114649415116e-06</v>
+        <v>1.96390673024016e-05</v>
       </c>
       <c r="AY54" s="18">
-        <v>1.01722033551965e-06</v>
+        <v>1.21930569380035e-05</v>
       </c>
     </row>
     <row r="55" ht="15.35" customHeight="1">
@@ -9676,150 +9675,150 @@
         <v>66</v>
       </c>
       <c r="B55" s="20">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="C55" s="14">
-        <v>19.2</v>
+        <v>11.6</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="20">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H55" s="14">
-        <v>19.2</v>
+        <v>11.6</v>
       </c>
       <c r="I55" s="16">
         <f>H55*(LN(2))^(1/G55)</f>
-        <v>16.6755532742733</v>
+        <v>9.56493264419448</v>
       </c>
       <c r="J55" s="16">
         <f>H55*EXP(GAMMALN(1+1/G55))</f>
-        <v>17.0536403468718</v>
+        <v>10.2934144643452</v>
       </c>
       <c r="K55" s="17">
         <v>1</v>
       </c>
       <c r="L55" s="18">
-        <v>0.999539407597682</v>
+        <v>0.990549180393095</v>
       </c>
       <c r="M55" s="18">
-        <v>0.997210743783285</v>
+        <v>0.9651811868640821</v>
       </c>
       <c r="N55" s="18">
-        <v>0.992016511928243</v>
+        <v>0.926287817519878</v>
       </c>
       <c r="O55" s="18">
-        <v>0.983208067150228</v>
+        <v>0.876109097597037</v>
       </c>
       <c r="P55" s="18">
-        <v>0.9702020443889831</v>
+        <v>0.817010745449809</v>
       </c>
       <c r="Q55" s="18">
-        <v>0.95256487247237</v>
+        <v>0.75143514864546</v>
       </c>
       <c r="R55" s="18">
-        <v>0.93001391656529</v>
+        <v>0.681802483398622</v>
       </c>
       <c r="S55" s="18">
-        <v>0.902423186424153</v>
+        <v>0.610407112105675</v>
       </c>
       <c r="T55" s="18">
-        <v>0.8698284666971789</v>
+        <v>0.539326539146466</v>
       </c>
       <c r="U55" s="18">
-        <v>0.832428972295622</v>
+        <v>0.470351408614438</v>
       </c>
       <c r="V55" s="18">
-        <v>0.790583715095567</v>
+        <v>0.404940314402897</v>
       </c>
       <c r="W55" s="18">
-        <v>0.744801516851103</v>
+        <v>0.344199884559645</v>
       </c>
       <c r="X55" s="18">
-        <v>0.695724261090083</v>
+        <v>0.288888132603382</v>
       </c>
       <c r="Y55" s="18">
-        <v>0.644103609730057</v>
+        <v>0.239437331961036</v>
       </c>
       <c r="Z55" s="18">
-        <v>0.590772015434014</v>
+        <v>0.195991636696542</v>
       </c>
       <c r="AA55" s="18">
-        <v>0.5366094055809</v>
+        <v>0.158454289604521</v>
       </c>
       <c r="AB55" s="18">
-        <v>0.482507353939694</v>
+        <v>0.126539431504115</v>
       </c>
       <c r="AC55" s="18">
-        <v>0.429332848035134</v>
+        <v>0.0998241221189866</v>
       </c>
       <c r="AD55" s="18">
-        <v>0.377893869832848</v>
+        <v>0.07779705515299121</v>
       </c>
       <c r="AE55" s="18">
-        <v>0.328908917486916</v>
+        <v>0.0599014521052105</v>
       </c>
       <c r="AF55" s="18">
-        <v>0.282982310243913</v>
+        <v>0.0455706232044586</v>
       </c>
       <c r="AG55" s="18">
-        <v>0.240586663197775</v>
+        <v>0.0342555905988844</v>
       </c>
       <c r="AH55" s="18">
-        <v>0.202053339572849</v>
+        <v>0.0254449132567841</v>
       </c>
       <c r="AI55" s="18">
-        <v>0.167571046558081</v>
+        <v>0.0186774027152993</v>
       </c>
       <c r="AJ55" s="18">
-        <v>0.137192104573347</v>
+        <v>0.0135487703125206</v>
       </c>
       <c r="AK55" s="18">
-        <v>0.110845355632852</v>
+        <v>0.009713418059275499</v>
       </c>
       <c r="AL55" s="18">
-        <v>0.0883542401432191</v>
+        <v>0.00688260898859083</v>
       </c>
       <c r="AM55" s="18">
-        <v>0.0694583014375131</v>
+        <v>0.0048201673072169</v>
       </c>
       <c r="AN55" s="18">
-        <v>0.0538362900754701</v>
+        <v>0.00333670293927124</v>
       </c>
       <c r="AO55" s="18">
-        <v>0.0411291290016961</v>
+        <v>0.00228316394349026</v>
       </c>
       <c r="AP55" s="18">
-        <v>0.0309612391473189</v>
+        <v>0.00154432186382758</v>
       </c>
       <c r="AQ55" s="18">
-        <v>0.022959070906335</v>
+        <v>0.0010326095685762</v>
       </c>
       <c r="AR55" s="18">
-        <v>0.0167660899438179</v>
+        <v>0.000682571156226608</v>
       </c>
       <c r="AS55" s="18">
-        <v>0.012053875331323</v>
+        <v>0.000446055095240983</v>
       </c>
       <c r="AT55" s="18">
-        <v>0.008529359715211959</v>
+        <v>0.000288185870197855</v>
       </c>
       <c r="AU55" s="18">
-        <v>0.00593854212767952</v>
+        <v>0.000184083480653796</v>
       </c>
       <c r="AV55" s="18">
-        <v>0.00406721518354158</v>
+        <v>0.000116259596410928</v>
       </c>
       <c r="AW55" s="18">
-        <v>0.00273936499382887</v>
+        <v>7.25985840298593e-05</v>
       </c>
       <c r="AX55" s="18">
-        <v>0.0018139316382203</v>
+        <v>4.48255808596087e-05</v>
       </c>
       <c r="AY55" s="18">
-        <v>0.0011805767864822</v>
+        <v>2.73674828857873e-05</v>
       </c>
     </row>
     <row r="56" ht="15.35" customHeight="1">
@@ -9827,461 +9826,461 @@
         <v>67</v>
       </c>
       <c r="B56" s="20">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="C56" s="14">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20">
-        <v>1.7</v>
-      </c>
-      <c r="H56" s="14">
-        <v>9.6</v>
+      <c r="E56" s="15">
+        <v>2</v>
+      </c>
+      <c r="F56" s="15">
+        <v>15</v>
+      </c>
+      <c r="G56" s="15">
+        <v>2</v>
+      </c>
+      <c r="H56" s="15">
+        <v>15</v>
       </c>
       <c r="I56" s="16">
         <f>H56*(LN(2))^(1/G56)</f>
-        <v>7.73818576498484</v>
+        <v>12.4883191673655</v>
       </c>
       <c r="J56" s="16">
         <f>H56*EXP(GAMMALN(1+1/G56))</f>
-        <v>8.56554722399351</v>
+        <v>13.2934038817914</v>
       </c>
       <c r="K56" s="17">
         <v>1</v>
       </c>
       <c r="L56" s="18">
-        <v>0.978840608721254</v>
+        <v>0.995565417483093</v>
       </c>
       <c r="M56" s="18">
-        <v>0.932874300331955</v>
+        <v>0.982379314618178</v>
       </c>
       <c r="N56" s="18">
-        <v>0.870720087184043</v>
+        <v>0.960789439152323</v>
       </c>
       <c r="O56" s="18">
-        <v>0.797912110158169</v>
+        <v>0.931358402111352</v>
       </c>
       <c r="P56" s="18">
-        <v>0.718992573231186</v>
+        <v>0.89483931681437</v>
       </c>
       <c r="Q56" s="18">
-        <v>0.6377711603459369</v>
+        <v>0.852143788966211</v>
       </c>
       <c r="R56" s="18">
-        <v>0.557368688552678</v>
+        <v>0.804304156065572</v>
       </c>
       <c r="S56" s="18">
-        <v>0.480231937243704</v>
+        <v>0.752432156089303</v>
       </c>
       <c r="T56" s="18">
-        <v>0.408162847178236</v>
+        <v>0.697676326071031</v>
       </c>
       <c r="U56" s="18">
-        <v>0.342370404971658</v>
+        <v>0.641180388429955</v>
       </c>
       <c r="V56" s="18">
-        <v>0.283542172374435</v>
+        <v>0.584044688441383</v>
       </c>
       <c r="W56" s="18">
-        <v>0.23192860314984</v>
+        <v>0.527292424043049</v>
       </c>
       <c r="X56" s="18">
-        <v>0.187432602355827</v>
+        <v>0.471841992492074</v>
       </c>
       <c r="Y56" s="18">
-        <v>0.149697576254026</v>
+        <v>0.418486306042565</v>
       </c>
       <c r="Z56" s="18">
-        <v>0.11818869746917</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="AA56" s="18">
-        <v>0.09226380730605931</v>
+        <v>0.320530521015541</v>
       </c>
       <c r="AB56" s="18">
-        <v>0.07123200998795889</v>
+        <v>0.276804321101556</v>
       </c>
       <c r="AC56" s="18">
-        <v>0.0543994133329362</v>
+        <v>0.236927758682122</v>
       </c>
       <c r="AD56" s="18">
-        <v>0.0411025538768002</v>
+        <v>0.201001191225732</v>
       </c>
       <c r="AE56" s="18">
-        <v>0.0307307914595558</v>
+        <v>0.169013315406066</v>
       </c>
       <c r="AF56" s="18">
-        <v>0.0227393920689315</v>
+        <v>0.140858420921045</v>
       </c>
       <c r="AG56" s="18">
-        <v>0.0166551879616423</v>
+        <v>0.116354802808704</v>
       </c>
       <c r="AH56" s="18">
-        <v>0.0120766727071455</v>
+        <v>0.0952632553278101</v>
       </c>
       <c r="AI56" s="18">
-        <v>0.008670219200852539</v>
+        <v>0.0773047404432997</v>
       </c>
       <c r="AJ56" s="18">
-        <v>0.00616385828738264</v>
+        <v>0.0621765240221163</v>
       </c>
       <c r="AK56" s="18">
-        <v>0.0043397716033029</v>
+        <v>0.0495662835049118</v>
       </c>
       <c r="AL56" s="18">
-        <v>0.00302636987351723</v>
+        <v>0.0391638950989871</v>
       </c>
       <c r="AM56" s="18">
-        <v>0.00209057078882979</v>
+        <v>0.0306707930263941</v>
       </c>
       <c r="AN56" s="18">
-        <v>0.00143067216203874</v>
+        <v>0.023806948722729</v>
       </c>
       <c r="AO56" s="18">
-        <v>0.000970041601936145</v>
+        <v>0.0183156388887342</v>
       </c>
       <c r="AP56" s="18">
-        <v>0.000651712899072066</v>
+        <v>0.0139662564662582</v>
       </c>
       <c r="AQ56" s="18">
-        <v>0.000433887368527786</v>
+        <v>0.0105554695661988</v>
       </c>
       <c r="AR56" s="18">
-        <v>0.00028627922795943</v>
+        <v>0.007907054051593421</v>
       </c>
       <c r="AS56" s="18">
-        <v>0.000187210724787557</v>
+        <v>0.00587072127573851</v>
       </c>
       <c r="AT56" s="18">
-        <v>0.000121348439955926</v>
+        <v>0.0043202394740941</v>
       </c>
       <c r="AU56" s="18">
-        <v>7.797106894913421e-05</v>
+        <v>0.00315111159844439</v>
       </c>
       <c r="AV56" s="18">
-        <v>4.96661638770268e-05</v>
+        <v>0.00227802954474154</v>
       </c>
       <c r="AW56" s="18">
-        <v>3.13650849550484e-05</v>
+        <v>0.00163227949521949</v>
       </c>
       <c r="AX56" s="18">
-        <v>1.96390673024016e-05</v>
+        <v>0.00115922917390454</v>
       </c>
       <c r="AY56" s="18">
-        <v>1.21930569380035e-05</v>
+        <v>0.000815987835072196</v>
       </c>
     </row>
     <row r="57" ht="15.35" customHeight="1">
-      <c r="A57" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="B57" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="C57" s="14">
-        <v>11.6</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20">
-        <v>1.9</v>
-      </c>
-      <c r="H57" s="14">
-        <v>11.6</v>
+      <c r="A57" s="24">
+        <v>1101</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="F57" s="15">
+        <v>15.5</v>
+      </c>
+      <c r="G57" s="15">
+        <v>3.6</v>
+      </c>
+      <c r="H57" s="15">
+        <v>15.5</v>
       </c>
       <c r="I57" s="16">
         <f>H57*(LN(2))^(1/G57)</f>
-        <v>9.56493264419448</v>
+        <v>13.9996297007522</v>
       </c>
       <c r="J57" s="16">
         <f>H57*EXP(GAMMALN(1+1/G57))</f>
-        <v>10.2934144643452</v>
+        <v>13.9671380908755</v>
       </c>
       <c r="K57" s="17">
         <v>1</v>
       </c>
       <c r="L57" s="18">
-        <v>0.990549180393095</v>
+        <v>0.999948144523891</v>
       </c>
       <c r="M57" s="18">
-        <v>0.9651811868640821</v>
+        <v>0.999371395717339</v>
       </c>
       <c r="N57" s="18">
-        <v>0.926287817519878</v>
+        <v>0.997296945634236</v>
       </c>
       <c r="O57" s="18">
-        <v>0.876109097597037</v>
+        <v>0.99240431006084</v>
       </c>
       <c r="P57" s="18">
-        <v>0.817010745449809</v>
+        <v>0.9831186908242801</v>
       </c>
       <c r="Q57" s="18">
-        <v>0.75143514864546</v>
+        <v>0.967711868426441</v>
       </c>
       <c r="R57" s="18">
-        <v>0.681802483398622</v>
+        <v>0.944434665880868</v>
       </c>
       <c r="S57" s="18">
-        <v>0.610407112105675</v>
+        <v>0.911690345406277</v>
       </c>
       <c r="T57" s="18">
-        <v>0.539326539146466</v>
+        <v>0.868246667440523</v>
       </c>
       <c r="U57" s="18">
-        <v>0.470351408614438</v>
+        <v>0.813470414269837</v>
       </c>
       <c r="V57" s="18">
-        <v>0.404940314402897</v>
+        <v>0.747552457952807</v>
       </c>
       <c r="W57" s="18">
-        <v>0.344199884559645</v>
+        <v>0.67167723082913</v>
       </c>
       <c r="X57" s="18">
-        <v>0.288888132603382</v>
+        <v>0.588083206225355</v>
       </c>
       <c r="Y57" s="18">
-        <v>0.239437331961036</v>
+        <v>0.499966998411233</v>
       </c>
       <c r="Z57" s="18">
-        <v>0.195991636696542</v>
+        <v>0.411207421064898</v>
       </c>
       <c r="AA57" s="18">
-        <v>0.158454289604521</v>
+        <v>0.325926576814757</v>
       </c>
       <c r="AB57" s="18">
-        <v>0.126539431504115</v>
+        <v>0.247954209233806</v>
       </c>
       <c r="AC57" s="18">
-        <v>0.0998241221189866</v>
+        <v>0.180302996879611</v>
       </c>
       <c r="AD57" s="18">
-        <v>0.07779705515299121</v>
+        <v>0.12477737644198</v>
       </c>
       <c r="AE57" s="18">
-        <v>0.0599014521052105</v>
+        <v>0.0818141063930765</v>
       </c>
       <c r="AF57" s="18">
-        <v>0.0455706232044586</v>
+        <v>0.0505912749196817</v>
       </c>
       <c r="AG57" s="18">
-        <v>0.0342555905988844</v>
+        <v>0.0293638321662315</v>
       </c>
       <c r="AH57" s="18">
-        <v>0.0254449132567841</v>
+        <v>0.015918942553977</v>
       </c>
       <c r="AI57" s="18">
-        <v>0.0186774027152993</v>
+        <v>0.008020399196914441</v>
       </c>
       <c r="AJ57" s="18">
-        <v>0.0135487703125206</v>
+        <v>0.00373608035699935</v>
       </c>
       <c r="AK57" s="18">
-        <v>0.009713418059275499</v>
+        <v>0.00160057593876051</v>
       </c>
       <c r="AL57" s="18">
-        <v>0.00688260898859083</v>
+        <v>0.000627222685113171</v>
       </c>
       <c r="AM57" s="18">
-        <v>0.0048201673072169</v>
+        <v>0.000223585273418703</v>
       </c>
       <c r="AN57" s="18">
-        <v>0.00333670293927124</v>
+        <v>7.20903289601615e-05</v>
       </c>
       <c r="AO57" s="18">
-        <v>0.00228316394349026</v>
+        <v>2.09028849662563e-05</v>
       </c>
       <c r="AP57" s="18">
-        <v>0.00154432186382758</v>
+        <v>5.41827785416338e-06</v>
       </c>
       <c r="AQ57" s="18">
-        <v>0.0010326095685762</v>
+        <v>1.24801734169289e-06</v>
       </c>
       <c r="AR57" s="18">
-        <v>0.000682571156226608</v>
+        <v>2.53870079180984e-07</v>
       </c>
       <c r="AS57" s="18">
-        <v>0.000446055095240983</v>
+        <v>4.53221616902866e-08</v>
       </c>
       <c r="AT57" s="18">
-        <v>0.000288185870197855</v>
+        <v>7.05577274384694e-09</v>
       </c>
       <c r="AU57" s="18">
-        <v>0.000184083480653796</v>
+        <v>9.516795129727029e-10</v>
       </c>
       <c r="AV57" s="18">
-        <v>0.000116259596410928</v>
+        <v>1.10478404202752e-10</v>
       </c>
       <c r="AW57" s="18">
-        <v>7.25985840298593e-05</v>
+        <v>1.09644515688956e-11</v>
       </c>
       <c r="AX57" s="18">
-        <v>4.48255808596087e-05</v>
+        <v>9.239276010930551e-13</v>
       </c>
       <c r="AY57" s="18">
-        <v>2.73674828857873e-05</v>
+        <v>6.56141807553468e-14</v>
       </c>
     </row>
     <row r="58" ht="15.35" customHeight="1">
       <c r="A58" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="B58" s="20">
-        <v>2</v>
-      </c>
-      <c r="C58" s="14">
-        <v>10.1</v>
-      </c>
-      <c r="D58" s="14"/>
+        <v>68</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="15">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="F58" s="15">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="G58" s="15">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H58" s="15">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="I58" s="16">
         <f>H58*(LN(2))^(1/G58)</f>
-        <v>12.4883191673655</v>
+        <v>13.9996297007522</v>
       </c>
       <c r="J58" s="16">
         <f>H58*EXP(GAMMALN(1+1/G58))</f>
-        <v>13.2934038817914</v>
+        <v>13.9671380908755</v>
       </c>
       <c r="K58" s="17">
         <v>1</v>
       </c>
       <c r="L58" s="18">
-        <v>0.995565417483093</v>
+        <v>0.999948144523891</v>
       </c>
       <c r="M58" s="18">
-        <v>0.982379314618178</v>
+        <v>0.999371395717339</v>
       </c>
       <c r="N58" s="18">
-        <v>0.960789439152323</v>
+        <v>0.997296945634236</v>
       </c>
       <c r="O58" s="18">
-        <v>0.931358402111352</v>
+        <v>0.99240431006084</v>
       </c>
       <c r="P58" s="18">
-        <v>0.89483931681437</v>
+        <v>0.9831186908242801</v>
       </c>
       <c r="Q58" s="18">
-        <v>0.852143788966211</v>
+        <v>0.967711868426441</v>
       </c>
       <c r="R58" s="18">
-        <v>0.804304156065572</v>
+        <v>0.944434665880868</v>
       </c>
       <c r="S58" s="18">
-        <v>0.752432156089303</v>
+        <v>0.911690345406277</v>
       </c>
       <c r="T58" s="18">
-        <v>0.697676326071031</v>
+        <v>0.868246667440523</v>
       </c>
       <c r="U58" s="18">
-        <v>0.641180388429955</v>
+        <v>0.813470414269837</v>
       </c>
       <c r="V58" s="18">
-        <v>0.584044688441383</v>
+        <v>0.747552457952807</v>
       </c>
       <c r="W58" s="18">
-        <v>0.527292424043049</v>
+        <v>0.67167723082913</v>
       </c>
       <c r="X58" s="18">
-        <v>0.471841992492074</v>
+        <v>0.588083206225355</v>
       </c>
       <c r="Y58" s="18">
-        <v>0.418486306042565</v>
+        <v>0.499966998411233</v>
       </c>
       <c r="Z58" s="18">
-        <v>0.367879441171442</v>
+        <v>0.411207421064898</v>
       </c>
       <c r="AA58" s="18">
-        <v>0.320530521015541</v>
+        <v>0.325926576814757</v>
       </c>
       <c r="AB58" s="18">
-        <v>0.276804321101556</v>
+        <v>0.247954209233806</v>
       </c>
       <c r="AC58" s="18">
-        <v>0.236927758682122</v>
+        <v>0.180302996879611</v>
       </c>
       <c r="AD58" s="18">
-        <v>0.201001191225732</v>
+        <v>0.12477737644198</v>
       </c>
       <c r="AE58" s="18">
-        <v>0.169013315406066</v>
+        <v>0.0818141063930765</v>
       </c>
       <c r="AF58" s="18">
-        <v>0.140858420921045</v>
+        <v>0.0505912749196817</v>
       </c>
       <c r="AG58" s="18">
-        <v>0.116354802808704</v>
+        <v>0.0293638321662315</v>
       </c>
       <c r="AH58" s="18">
-        <v>0.0952632553278101</v>
+        <v>0.015918942553977</v>
       </c>
       <c r="AI58" s="18">
-        <v>0.0773047404432997</v>
+        <v>0.008020399196914441</v>
       </c>
       <c r="AJ58" s="18">
-        <v>0.0621765240221163</v>
+        <v>0.00373608035699935</v>
       </c>
       <c r="AK58" s="18">
-        <v>0.0495662835049118</v>
+        <v>0.00160057593876051</v>
       </c>
       <c r="AL58" s="18">
-        <v>0.0391638950989871</v>
+        <v>0.000627222685113171</v>
       </c>
       <c r="AM58" s="18">
-        <v>0.0306707930263941</v>
+        <v>0.000223585273418703</v>
       </c>
       <c r="AN58" s="18">
-        <v>0.023806948722729</v>
+        <v>7.20903289601615e-05</v>
       </c>
       <c r="AO58" s="18">
-        <v>0.0183156388887342</v>
+        <v>2.09028849662563e-05</v>
       </c>
       <c r="AP58" s="18">
-        <v>0.0139662564662582</v>
+        <v>5.41827785416338e-06</v>
       </c>
       <c r="AQ58" s="18">
-        <v>0.0105554695661988</v>
+        <v>1.24801734169289e-06</v>
       </c>
       <c r="AR58" s="18">
-        <v>0.007907054051593421</v>
+        <v>2.53870079180984e-07</v>
       </c>
       <c r="AS58" s="18">
-        <v>0.00587072127573851</v>
+        <v>4.53221616902866e-08</v>
       </c>
       <c r="AT58" s="18">
-        <v>0.0043202394740941</v>
+        <v>7.05577274384694e-09</v>
       </c>
       <c r="AU58" s="18">
-        <v>0.00315111159844439</v>
+        <v>9.516795129727029e-10</v>
       </c>
       <c r="AV58" s="18">
-        <v>0.00227802954474154</v>
+        <v>1.10478404202752e-10</v>
       </c>
       <c r="AW58" s="18">
-        <v>0.00163227949521949</v>
+        <v>1.09644515688956e-11</v>
       </c>
       <c r="AX58" s="18">
-        <v>0.00115922917390454</v>
+        <v>9.239276010930551e-13</v>
       </c>
       <c r="AY58" s="18">
-        <v>0.000815987835072196</v>
+        <v>6.56141807553468e-14</v>
       </c>
     </row>
     <row r="59" ht="15.35" customHeight="1">
-      <c r="A59" s="24">
-        <v>1101</v>
+      <c r="A59" t="s" s="12">
+        <v>69</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -10431,8 +10430,8 @@
       </c>
     </row>
     <row r="60" ht="15.35" customHeight="1">
-      <c r="A60" t="s" s="12">
-        <v>70</v>
+      <c r="A60" s="24">
+        <v>1103</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -10582,8 +10581,8 @@
       </c>
     </row>
     <row r="61" ht="15.35" customHeight="1">
-      <c r="A61" t="s" s="12">
-        <v>71</v>
+      <c r="A61" s="24">
+        <v>1104</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -10734,913 +10733,913 @@
     </row>
     <row r="62" ht="15.35" customHeight="1">
       <c r="A62" s="24">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="F62" s="15">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="G62" s="15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H62" s="15">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="I62" s="16">
         <f>H62*(LN(2))^(1/G62)</f>
-        <v>13.9996297007522</v>
+        <v>20.5822631863279</v>
       </c>
       <c r="J62" s="16">
         <f>H62*EXP(GAMMALN(1+1/G62))</f>
-        <v>13.9671380908755</v>
+        <v>20.6313529989696</v>
       </c>
       <c r="K62" s="17">
         <v>1</v>
       </c>
       <c r="L62" s="18">
-        <v>0.999948144523891</v>
+        <v>0.999967915803017</v>
       </c>
       <c r="M62" s="18">
-        <v>0.999371395717339</v>
+        <v>0.999684042616626</v>
       </c>
       <c r="N62" s="18">
-        <v>0.997296945634236</v>
+        <v>0.998796248727446</v>
       </c>
       <c r="O62" s="18">
-        <v>0.99240431006084</v>
+        <v>0.996892433452774</v>
       </c>
       <c r="P62" s="18">
-        <v>0.9831186908242801</v>
+        <v>0.993521290469391</v>
       </c>
       <c r="Q62" s="18">
-        <v>0.967711868426441</v>
+        <v>0.988207014078142</v>
       </c>
       <c r="R62" s="18">
-        <v>0.944434665880868</v>
+        <v>0.980463603745111</v>
       </c>
       <c r="S62" s="18">
-        <v>0.911690345406277</v>
+        <v>0.969810525790875</v>
       </c>
       <c r="T62" s="18">
-        <v>0.868246667440523</v>
+        <v>0.955790383532706</v>
       </c>
       <c r="U62" s="18">
-        <v>0.813470414269837</v>
+        <v>0.937988663260465</v>
       </c>
       <c r="V62" s="18">
-        <v>0.747552457952807</v>
+        <v>0.916055176423712</v>
       </c>
       <c r="W62" s="18">
-        <v>0.67167723082913</v>
+        <v>0.889726412002961</v>
       </c>
       <c r="X62" s="18">
-        <v>0.588083206225355</v>
+        <v>0.85884763260776</v>
       </c>
       <c r="Y62" s="18">
-        <v>0.499966998411233</v>
+        <v>0.823393212775707</v>
       </c>
       <c r="Z62" s="18">
-        <v>0.411207421064898</v>
+        <v>0.783483465791101</v>
       </c>
       <c r="AA62" s="18">
-        <v>0.325926576814757</v>
+        <v>0.739396082882651</v>
       </c>
       <c r="AB62" s="18">
-        <v>0.247954209233806</v>
+        <v>0.6915703634971621</v>
       </c>
       <c r="AC62" s="18">
-        <v>0.180302996879611</v>
+        <v>0.640602686374937</v>
       </c>
       <c r="AD62" s="18">
-        <v>0.12477737644198</v>
+        <v>0.587232178162074</v>
       </c>
       <c r="AE62" s="18">
-        <v>0.0818141063930765</v>
+        <v>0.532316270024105</v>
       </c>
       <c r="AF62" s="18">
-        <v>0.0505912749196817</v>
+        <v>0.476796747444112</v>
       </c>
       <c r="AG62" s="18">
-        <v>0.0293638321662315</v>
+        <v>0.421657909389253</v>
       </c>
       <c r="AH62" s="18">
-        <v>0.015918942553977</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="AI62" s="18">
-        <v>0.008020399196914441</v>
+        <v>0.316387429805527</v>
       </c>
       <c r="AJ62" s="18">
-        <v>0.00373608035699935</v>
+        <v>0.268007469546633</v>
       </c>
       <c r="AK62" s="18">
-        <v>0.00160057593876051</v>
+        <v>0.223423901255787</v>
       </c>
       <c r="AL62" s="18">
-        <v>0.000627222685113171</v>
+        <v>0.183148835984215</v>
       </c>
       <c r="AM62" s="18">
-        <v>0.000223585273418703</v>
+        <v>0.147503736373594</v>
       </c>
       <c r="AN62" s="18">
-        <v>7.20903289601615e-05</v>
+        <v>0.116615056420087</v>
       </c>
       <c r="AO62" s="18">
-        <v>2.09028849662563e-05</v>
+        <v>0.09042393341241819</v>
       </c>
       <c r="AP62" s="18">
-        <v>5.41827785416338e-06</v>
+        <v>0.0687083999372822</v>
       </c>
       <c r="AQ62" s="18">
-        <v>1.24801734169289e-06</v>
+        <v>0.0511152679183722</v>
       </c>
       <c r="AR62" s="18">
-        <v>2.53870079180984e-07</v>
+        <v>0.0371979306401921</v>
       </c>
       <c r="AS62" s="18">
-        <v>4.53221616902866e-08</v>
+        <v>0.0264559627762974</v>
       </c>
       <c r="AT62" s="18">
-        <v>7.05577274384694e-09</v>
+        <v>0.0183726060927233</v>
       </c>
       <c r="AU62" s="18">
-        <v>9.516795129727029e-10</v>
+        <v>0.0124469405528891</v>
       </c>
       <c r="AV62" s="18">
-        <v>1.10478404202752e-10</v>
+        <v>0.00821860213259884</v>
       </c>
       <c r="AW62" s="18">
-        <v>1.09644515688956e-11</v>
+        <v>0.00528411500260506</v>
       </c>
       <c r="AX62" s="18">
-        <v>9.239276010930551e-13</v>
+        <v>0.0033050475218529</v>
       </c>
       <c r="AY62" s="18">
-        <v>6.56141807553468e-14</v>
+        <v>0.00200910782695651</v>
       </c>
     </row>
     <row r="63" ht="15.35" customHeight="1">
       <c r="A63" s="24">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="F63" s="15">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="G63" s="15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H63" s="15">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="I63" s="16">
         <f>H63*(LN(2))^(1/G63)</f>
-        <v>13.9996297007522</v>
+        <v>20.5822631863279</v>
       </c>
       <c r="J63" s="16">
         <f>H63*EXP(GAMMALN(1+1/G63))</f>
-        <v>13.9671380908755</v>
+        <v>20.6313529989696</v>
       </c>
       <c r="K63" s="17">
         <v>1</v>
       </c>
       <c r="L63" s="18">
-        <v>0.999948144523891</v>
+        <v>0.999967915803017</v>
       </c>
       <c r="M63" s="18">
-        <v>0.999371395717339</v>
+        <v>0.999684042616626</v>
       </c>
       <c r="N63" s="18">
-        <v>0.997296945634236</v>
+        <v>0.998796248727446</v>
       </c>
       <c r="O63" s="18">
-        <v>0.99240431006084</v>
+        <v>0.996892433452774</v>
       </c>
       <c r="P63" s="18">
-        <v>0.9831186908242801</v>
+        <v>0.993521290469391</v>
       </c>
       <c r="Q63" s="18">
-        <v>0.967711868426441</v>
+        <v>0.988207014078142</v>
       </c>
       <c r="R63" s="18">
-        <v>0.944434665880868</v>
+        <v>0.980463603745111</v>
       </c>
       <c r="S63" s="18">
-        <v>0.911690345406277</v>
+        <v>0.969810525790875</v>
       </c>
       <c r="T63" s="18">
-        <v>0.868246667440523</v>
+        <v>0.955790383532706</v>
       </c>
       <c r="U63" s="18">
-        <v>0.813470414269837</v>
+        <v>0.937988663260465</v>
       </c>
       <c r="V63" s="18">
-        <v>0.747552457952807</v>
+        <v>0.916055176423712</v>
       </c>
       <c r="W63" s="18">
-        <v>0.67167723082913</v>
+        <v>0.889726412002961</v>
       </c>
       <c r="X63" s="18">
-        <v>0.588083206225355</v>
+        <v>0.85884763260776</v>
       </c>
       <c r="Y63" s="18">
-        <v>0.499966998411233</v>
+        <v>0.823393212775707</v>
       </c>
       <c r="Z63" s="18">
-        <v>0.411207421064898</v>
+        <v>0.783483465791101</v>
       </c>
       <c r="AA63" s="18">
-        <v>0.325926576814757</v>
+        <v>0.739396082882651</v>
       </c>
       <c r="AB63" s="18">
-        <v>0.247954209233806</v>
+        <v>0.6915703634971621</v>
       </c>
       <c r="AC63" s="18">
-        <v>0.180302996879611</v>
+        <v>0.640602686374937</v>
       </c>
       <c r="AD63" s="18">
-        <v>0.12477737644198</v>
+        <v>0.587232178162074</v>
       </c>
       <c r="AE63" s="18">
-        <v>0.0818141063930765</v>
+        <v>0.532316270024105</v>
       </c>
       <c r="AF63" s="18">
-        <v>0.0505912749196817</v>
+        <v>0.476796747444112</v>
       </c>
       <c r="AG63" s="18">
-        <v>0.0293638321662315</v>
+        <v>0.421657909389253</v>
       </c>
       <c r="AH63" s="18">
-        <v>0.015918942553977</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="AI63" s="18">
-        <v>0.008020399196914441</v>
+        <v>0.316387429805527</v>
       </c>
       <c r="AJ63" s="18">
-        <v>0.00373608035699935</v>
+        <v>0.268007469546633</v>
       </c>
       <c r="AK63" s="18">
-        <v>0.00160057593876051</v>
+        <v>0.223423901255787</v>
       </c>
       <c r="AL63" s="18">
-        <v>0.000627222685113171</v>
+        <v>0.183148835984215</v>
       </c>
       <c r="AM63" s="18">
-        <v>0.000223585273418703</v>
+        <v>0.147503736373594</v>
       </c>
       <c r="AN63" s="18">
-        <v>7.20903289601615e-05</v>
+        <v>0.116615056420087</v>
       </c>
       <c r="AO63" s="18">
-        <v>2.09028849662563e-05</v>
+        <v>0.09042393341241819</v>
       </c>
       <c r="AP63" s="18">
-        <v>5.41827785416338e-06</v>
+        <v>0.0687083999372822</v>
       </c>
       <c r="AQ63" s="18">
-        <v>1.24801734169289e-06</v>
+        <v>0.0511152679183722</v>
       </c>
       <c r="AR63" s="18">
-        <v>2.53870079180984e-07</v>
+        <v>0.0371979306401921</v>
       </c>
       <c r="AS63" s="18">
-        <v>4.53221616902866e-08</v>
+        <v>0.0264559627762974</v>
       </c>
       <c r="AT63" s="18">
-        <v>7.05577274384694e-09</v>
+        <v>0.0183726060927233</v>
       </c>
       <c r="AU63" s="18">
-        <v>9.516795129727029e-10</v>
+        <v>0.0124469405528891</v>
       </c>
       <c r="AV63" s="18">
-        <v>1.10478404202752e-10</v>
+        <v>0.00821860213259884</v>
       </c>
       <c r="AW63" s="18">
-        <v>1.09644515688956e-11</v>
+        <v>0.00528411500260506</v>
       </c>
       <c r="AX63" s="18">
-        <v>9.239276010930551e-13</v>
+        <v>0.0033050475218529</v>
       </c>
       <c r="AY63" s="18">
-        <v>6.56141807553468e-14</v>
+        <v>0.00200910782695651</v>
       </c>
     </row>
     <row r="64" ht="15.35" customHeight="1">
       <c r="A64" s="24">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="15">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F64" s="15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G64" s="15">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H64" s="15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I64" s="16">
         <f>H64*(LN(2))^(1/G64)</f>
-        <v>20.5822631863279</v>
+        <v>13.868152923576</v>
       </c>
       <c r="J64" s="16">
         <f>H64*EXP(GAMMALN(1+1/G64))</f>
-        <v>20.6313529989696</v>
+        <v>15.1178744516876</v>
       </c>
       <c r="K64" s="17">
         <v>1</v>
       </c>
       <c r="L64" s="18">
-        <v>0.999967915803017</v>
+        <v>0.993920491965237</v>
       </c>
       <c r="M64" s="18">
-        <v>0.999684042616626</v>
+        <v>0.978989178229112</v>
       </c>
       <c r="N64" s="18">
-        <v>0.998796248727446</v>
+        <v>0.956899870942217</v>
       </c>
       <c r="O64" s="18">
-        <v>0.996892433452774</v>
+        <v>0.928724177523448</v>
       </c>
       <c r="P64" s="18">
-        <v>0.993521290469391</v>
+        <v>0.895391872571533</v>
       </c>
       <c r="Q64" s="18">
-        <v>0.988207014078142</v>
+        <v>0.85777477244737</v>
       </c>
       <c r="R64" s="18">
-        <v>0.980463603745111</v>
+        <v>0.816708040048472</v>
       </c>
       <c r="S64" s="18">
-        <v>0.969810525790875</v>
+        <v>0.772992311790999</v>
       </c>
       <c r="T64" s="18">
-        <v>0.955790383532706</v>
+        <v>0.727388901183589</v>
       </c>
       <c r="U64" s="18">
-        <v>0.937988663260465</v>
+        <v>0.680612742634354</v>
       </c>
       <c r="V64" s="18">
-        <v>0.916055176423712</v>
+        <v>0.633325187322185</v>
       </c>
       <c r="W64" s="18">
-        <v>0.889726412002961</v>
+        <v>0.586127702518473</v>
       </c>
       <c r="X64" s="18">
-        <v>0.85884763260776</v>
+        <v>0.539557005705243</v>
       </c>
       <c r="Y64" s="18">
-        <v>0.823393212775707</v>
+        <v>0.494081873130259</v>
       </c>
       <c r="Z64" s="18">
-        <v>0.783483465791101</v>
+        <v>0.450101681409268</v>
       </c>
       <c r="AA64" s="18">
-        <v>0.739396082882651</v>
+        <v>0.407946621188631</v>
       </c>
       <c r="AB64" s="18">
-        <v>0.6915703634971621</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="AC64" s="18">
-        <v>0.640602686374937</v>
+        <v>0.330098527629952</v>
       </c>
       <c r="AD64" s="18">
-        <v>0.587232178162074</v>
+        <v>0.294742092429229</v>
       </c>
       <c r="AE64" s="18">
-        <v>0.532316270024105</v>
+        <v>0.261893227333086</v>
       </c>
       <c r="AF64" s="18">
-        <v>0.476796747444112</v>
+        <v>0.231585580725008</v>
       </c>
       <c r="AG64" s="18">
-        <v>0.421657909389253</v>
+        <v>0.203809422107969</v>
       </c>
       <c r="AH64" s="18">
-        <v>0.367879441171442</v>
+        <v>0.178517877367215</v>
       </c>
       <c r="AI64" s="18">
-        <v>0.316387429805527</v>
+        <v>0.155633141505578</v>
       </c>
       <c r="AJ64" s="18">
-        <v>0.268007469546633</v>
+        <v>0.135052503301753</v>
       </c>
       <c r="AK64" s="18">
-        <v>0.223423901255787</v>
+        <v>0.116654046225322</v>
       </c>
       <c r="AL64" s="18">
-        <v>0.183148835984215</v>
+        <v>0.100301920340221</v>
       </c>
       <c r="AM64" s="18">
-        <v>0.147503736373594</v>
+        <v>0.0858511094796283</v>
       </c>
       <c r="AN64" s="18">
-        <v>0.116615056420087</v>
+        <v>0.07315164559651489</v>
       </c>
       <c r="AO64" s="18">
-        <v>0.09042393341241819</v>
+        <v>0.0620522470786923</v>
       </c>
       <c r="AP64" s="18">
-        <v>0.0687083999372822</v>
+        <v>0.052403379422057</v>
       </c>
       <c r="AQ64" s="18">
-        <v>0.0511152679183722</v>
+        <v>0.0440597546792603</v>
       </c>
       <c r="AR64" s="18">
-        <v>0.0371979306401921</v>
+        <v>0.0368823004526017</v>
       </c>
       <c r="AS64" s="18">
-        <v>0.0264559627762974</v>
+        <v>0.0307396399656127</v>
       </c>
       <c r="AT64" s="18">
-        <v>0.0183726060927233</v>
+        <v>0.025509132153114</v>
       </c>
       <c r="AU64" s="18">
-        <v>0.0124469405528891</v>
+        <v>0.0210775250828121</v>
       </c>
       <c r="AV64" s="18">
-        <v>0.00821860213259884</v>
+        <v>0.0173412777589221</v>
       </c>
       <c r="AW64" s="18">
-        <v>0.00528411500260506</v>
+        <v>0.0142066048923768</v>
       </c>
       <c r="AX64" s="18">
-        <v>0.0033050475218529</v>
+        <v>0.011589296994725</v>
       </c>
       <c r="AY64" s="18">
-        <v>0.00200910782695651</v>
+        <v>0.00941436459273526</v>
       </c>
     </row>
     <row r="65" ht="15.35" customHeight="1">
       <c r="A65" s="24">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="15">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="F65" s="15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G65" s="15">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="H65" s="15">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I65" s="16">
         <f>H65*(LN(2))^(1/G65)</f>
-        <v>20.5822631863279</v>
+        <v>8.157737013868211</v>
       </c>
       <c r="J65" s="16">
         <f>H65*EXP(GAMMALN(1+1/G65))</f>
-        <v>20.6313529989696</v>
+        <v>8.892867324522131</v>
       </c>
       <c r="K65" s="17">
         <v>1</v>
       </c>
       <c r="L65" s="18">
-        <v>0.999967915803017</v>
+        <v>0.9842760015056909</v>
       </c>
       <c r="M65" s="18">
-        <v>0.999684042616626</v>
+        <v>0.946306102717369</v>
       </c>
       <c r="N65" s="18">
-        <v>0.998796248727446</v>
+        <v>0.891808935435056</v>
       </c>
       <c r="O65" s="18">
-        <v>0.996892433452774</v>
+        <v>0.825158401353316</v>
       </c>
       <c r="P65" s="18">
-        <v>0.993521290469391</v>
+        <v>0.750380709370621</v>
       </c>
       <c r="Q65" s="18">
-        <v>0.988207014078142</v>
+        <v>0.671175998491495</v>
       </c>
       <c r="R65" s="18">
-        <v>0.980463603745111</v>
+        <v>0.590827576629339</v>
       </c>
       <c r="S65" s="18">
-        <v>0.969810525790875</v>
+        <v>0.512113338768273</v>
       </c>
       <c r="T65" s="18">
-        <v>0.955790383532706</v>
+        <v>0.437250287766264</v>
       </c>
       <c r="U65" s="18">
-        <v>0.937988663260465</v>
+        <v>0.367879441171442</v>
       </c>
       <c r="V65" s="18">
-        <v>0.916055176423712</v>
+        <v>0.305088500213846</v>
       </c>
       <c r="W65" s="18">
-        <v>0.889726412002961</v>
+        <v>0.249464862402164</v>
       </c>
       <c r="X65" s="18">
-        <v>0.85884763260776</v>
+        <v>0.201169521608075</v>
       </c>
       <c r="Y65" s="18">
-        <v>0.823393212775707</v>
+        <v>0.160022162574364</v>
       </c>
       <c r="Z65" s="18">
-        <v>0.783483465791101</v>
+        <v>0.125588724654872</v>
       </c>
       <c r="AA65" s="18">
-        <v>0.739396082882651</v>
+        <v>0.0972644054071555</v>
       </c>
       <c r="AB65" s="18">
-        <v>0.6915703634971621</v>
+        <v>0.0743470974247615</v>
       </c>
       <c r="AC65" s="18">
-        <v>0.640602686374937</v>
+        <v>0.0560982816488246</v>
       </c>
       <c r="AD65" s="18">
-        <v>0.587232178162074</v>
+        <v>0.0417902078795499</v>
       </c>
       <c r="AE65" s="18">
-        <v>0.532316270024105</v>
+        <v>0.0307396399656127</v>
       </c>
       <c r="AF65" s="18">
-        <v>0.476796747444112</v>
+        <v>0.0223294725634742</v>
       </c>
       <c r="AG65" s="18">
-        <v>0.421657909389253</v>
+        <v>0.016020146795562</v>
       </c>
       <c r="AH65" s="18">
-        <v>0.367879441171442</v>
+        <v>0.0113530567498576</v>
       </c>
       <c r="AI65" s="18">
-        <v>0.316387429805527</v>
+        <v>0.007948125483829621</v>
       </c>
       <c r="AJ65" s="18">
-        <v>0.268007469546633</v>
+        <v>0.00549752358033251</v>
       </c>
       <c r="AK65" s="18">
-        <v>0.223423901255787</v>
+        <v>0.00375718573643757</v>
       </c>
       <c r="AL65" s="18">
-        <v>0.183148835984215</v>
+        <v>0.00253741850695932</v>
       </c>
       <c r="AM65" s="18">
-        <v>0.147503736373594</v>
+        <v>0.00169353537950656</v>
       </c>
       <c r="AN65" s="18">
-        <v>0.116615056420087</v>
+        <v>0.00111713676596303</v>
       </c>
       <c r="AO65" s="18">
-        <v>0.09042393341241819</v>
+        <v>0.0007283899148391451</v>
       </c>
       <c r="AP65" s="18">
-        <v>0.0687083999372822</v>
+        <v>0.000469462788038943</v>
       </c>
       <c r="AQ65" s="18">
-        <v>0.0511152679183722</v>
+        <v>0.000299123763519926</v>
       </c>
       <c r="AR65" s="18">
-        <v>0.0371979306401921</v>
+        <v>0.000188427691610205</v>
       </c>
       <c r="AS65" s="18">
-        <v>0.0264559627762974</v>
+        <v>0.00011735808657154</v>
       </c>
       <c r="AT65" s="18">
-        <v>0.0183726060927233</v>
+        <v>7.22745039104522e-05</v>
       </c>
       <c r="AU65" s="18">
-        <v>0.0124469405528891</v>
+        <v>4.40138474561147e-05</v>
       </c>
       <c r="AV65" s="18">
-        <v>0.00821860213259884</v>
+        <v>2.65065385457453e-05</v>
       </c>
       <c r="AW65" s="18">
-        <v>0.00528411500260506</v>
+        <v>1.57871096928552e-05</v>
       </c>
       <c r="AX65" s="18">
-        <v>0.0033050475218529</v>
+        <v>9.29958938389319e-06</v>
       </c>
       <c r="AY65" s="18">
-        <v>0.00200910782695651</v>
+        <v>5.41827785416338e-06</v>
       </c>
     </row>
     <row r="66" ht="15.35" customHeight="1">
       <c r="A66" s="24">
-        <v>1107</v>
+        <v>1201</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="F66" s="15">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="G66" s="15">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H66" s="15">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="I66" s="16">
         <f>H66*(LN(2))^(1/G66)</f>
-        <v>13.868152923576</v>
+        <v>13.0797701385367</v>
       </c>
       <c r="J66" s="16">
         <f>H66*EXP(GAMMALN(1+1/G66))</f>
-        <v>15.1178744516876</v>
+        <v>15.0758463922806</v>
       </c>
       <c r="K66" s="17">
         <v>1</v>
       </c>
       <c r="L66" s="18">
-        <v>0.993920491965237</v>
+        <v>0.985453874532803</v>
       </c>
       <c r="M66" s="18">
-        <v>0.978989178229112</v>
+        <v>0.959402271043854</v>
       </c>
       <c r="N66" s="18">
-        <v>0.956899870942217</v>
+        <v>0.926687386953203</v>
       </c>
       <c r="O66" s="18">
-        <v>0.928724177523448</v>
+        <v>0.889386249992564</v>
       </c>
       <c r="P66" s="18">
-        <v>0.895391872571533</v>
+        <v>0.848890525294705</v>
       </c>
       <c r="Q66" s="18">
-        <v>0.85777477244737</v>
+        <v>0.80625628445595</v>
       </c>
       <c r="R66" s="18">
-        <v>0.816708040048472</v>
+        <v>0.762329369928166</v>
       </c>
       <c r="S66" s="18">
-        <v>0.772992311790999</v>
+        <v>0.71780410448834</v>
       </c>
       <c r="T66" s="18">
-        <v>0.727388901183589</v>
+        <v>0.673255851761753</v>
       </c>
       <c r="U66" s="18">
-        <v>0.680612742634354</v>
+        <v>0.629161558745475</v>
       </c>
       <c r="V66" s="18">
-        <v>0.633325187322185</v>
+        <v>0.585914158616081</v>
       </c>
       <c r="W66" s="18">
-        <v>0.586127702518473</v>
+        <v>0.543833573742546</v>
       </c>
       <c r="X66" s="18">
-        <v>0.539557005705243</v>
+        <v>0.503175697794721</v>
       </c>
       <c r="Y66" s="18">
-        <v>0.494081873130259</v>
+        <v>0.464140087686428</v>
       </c>
       <c r="Z66" s="18">
-        <v>0.450101681409268</v>
+        <v>0.426876765820033</v>
       </c>
       <c r="AA66" s="18">
-        <v>0.407946621188631</v>
+        <v>0.391492356584972</v>
       </c>
       <c r="AB66" s="18">
-        <v>0.367879441171442</v>
+        <v>0.35805568380001</v>
       </c>
       <c r="AC66" s="18">
-        <v>0.330098527629952</v>
+        <v>0.326602901442858</v>
       </c>
       <c r="AD66" s="18">
-        <v>0.294742092429229</v>
+        <v>0.2971421997815</v>
       </c>
       <c r="AE66" s="18">
-        <v>0.261893227333086</v>
+        <v>0.269658112689841</v>
       </c>
       <c r="AF66" s="18">
-        <v>0.231585580725008</v>
+        <v>0.244115443708404</v>
       </c>
       <c r="AG66" s="18">
-        <v>0.203809422107969</v>
+        <v>0.220462824909479</v>
       </c>
       <c r="AH66" s="18">
-        <v>0.178517877367215</v>
+        <v>0.198635921808897</v>
       </c>
       <c r="AI66" s="18">
-        <v>0.155633141505578</v>
+        <v>0.178560298188539</v>
       </c>
       <c r="AJ66" s="18">
-        <v>0.135052503301753</v>
+        <v>0.160153955987425</v>
       </c>
       <c r="AK66" s="18">
-        <v>0.116654046225322</v>
+        <v>0.143329566914588</v>
       </c>
       <c r="AL66" s="18">
-        <v>0.100301920340221</v>
+        <v>0.127996413851416</v>
       </c>
       <c r="AM66" s="18">
-        <v>0.0858511094796283</v>
+        <v>0.114062061284408</v>
       </c>
       <c r="AN66" s="18">
-        <v>0.07315164559651489</v>
+        <v>0.101433774859587</v>
       </c>
       <c r="AO66" s="18">
-        <v>0.0620522470786923</v>
+        <v>0.0900197106474564</v>
       </c>
       <c r="AP66" s="18">
-        <v>0.052403379422057</v>
+        <v>0.07972989485568791</v>
       </c>
       <c r="AQ66" s="18">
-        <v>0.0440597546792603</v>
+        <v>0.07047701454998249</v>
       </c>
       <c r="AR66" s="18">
-        <v>0.0368823004526017</v>
+        <v>0.0621770394783231</v>
       </c>
       <c r="AS66" s="18">
-        <v>0.0307396399656127</v>
+        <v>0.0547496943831179</v>
       </c>
       <c r="AT66" s="18">
-        <v>0.025509132153114</v>
+        <v>0.04811880027479</v>
       </c>
       <c r="AU66" s="18">
-        <v>0.0210775250828121</v>
+        <v>0.0422125020740183</v>
       </c>
       <c r="AV66" s="18">
-        <v>0.0173412777589221</v>
+        <v>0.0369633988505245</v>
       </c>
       <c r="AW66" s="18">
-        <v>0.0142066048923768</v>
+        <v>0.0323085916328965</v>
       </c>
       <c r="AX66" s="18">
-        <v>0.011589296994725</v>
+        <v>0.0281896624711048</v>
       </c>
       <c r="AY66" s="18">
-        <v>0.00941436459273526</v>
+        <v>0.0245525971311159</v>
       </c>
     </row>
     <row r="67" ht="15.35" customHeight="1">
       <c r="A67" s="24">
-        <v>1109</v>
+        <v>1202</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="F67" s="15">
-        <v>10</v>
+        <v>27.1</v>
       </c>
       <c r="G67" s="15">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H67" s="15">
-        <v>10</v>
+        <v>27.1</v>
       </c>
       <c r="I67" s="16">
         <f>H67*(LN(2))^(1/G67)</f>
-        <v>8.157737013868211</v>
+        <v>22.941257928785</v>
       </c>
       <c r="J67" s="16">
         <f>H67*EXP(GAMMALN(1+1/G67))</f>
-        <v>8.892867324522131</v>
+        <v>24.0004310082006</v>
       </c>
       <c r="K67" s="17">
         <v>1</v>
       </c>
       <c r="L67" s="18">
-        <v>0.9842760015056909</v>
+        <v>0.999296417977055</v>
       </c>
       <c r="M67" s="18">
-        <v>0.946306102717369</v>
+        <v>0.996771271731748</v>
       </c>
       <c r="N67" s="18">
-        <v>0.891808935435056</v>
+        <v>0.992140011160435</v>
       </c>
       <c r="O67" s="18">
-        <v>0.825158401353316</v>
+        <v>0.985250514486723</v>
       </c>
       <c r="P67" s="18">
-        <v>0.750380709370621</v>
+        <v>0.976014958632018</v>
       </c>
       <c r="Q67" s="18">
-        <v>0.671175998491495</v>
+        <v>0.964391732902926</v>
       </c>
       <c r="R67" s="18">
-        <v>0.590827576629339</v>
+        <v>0.950377549611376</v>
       </c>
       <c r="S67" s="18">
-        <v>0.512113338768273</v>
+        <v>0.934003025974532</v>
       </c>
       <c r="T67" s="18">
-        <v>0.437250287766264</v>
+        <v>0.9153296279386109</v>
       </c>
       <c r="U67" s="18">
-        <v>0.367879441171442</v>
+        <v>0.894447130775375</v>
       </c>
       <c r="V67" s="18">
-        <v>0.305088500213846</v>
+        <v>0.871471210776481</v>
       </c>
       <c r="W67" s="18">
-        <v>0.249464862402164</v>
+        <v>0.846540982710782</v>
       </c>
       <c r="X67" s="18">
-        <v>0.201169521608075</v>
+        <v>0.819816397797925</v>
       </c>
       <c r="Y67" s="18">
-        <v>0.160022162574364</v>
+        <v>0.791475472678039</v>
       </c>
       <c r="Z67" s="18">
-        <v>0.125588724654872</v>
+        <v>0.7617113536176729</v>
       </c>
       <c r="AA67" s="18">
-        <v>0.0972644054071555</v>
+        <v>0.730729241855684</v>
       </c>
       <c r="AB67" s="18">
-        <v>0.0743470974247615</v>
+        <v>0.698743220237301</v>
       </c>
       <c r="AC67" s="18">
-        <v>0.0560982816488246</v>
+        <v>0.665973030466387</v>
       </c>
       <c r="AD67" s="18">
-        <v>0.0417902078795499</v>
+        <v>0.632640855688425</v>
       </c>
       <c r="AE67" s="18">
-        <v>0.0307396399656127</v>
+        <v>0.598968165434737</v>
       </c>
       <c r="AF67" s="18">
-        <v>0.0223294725634742</v>
+        <v>0.565172679692198</v>
       </c>
       <c r="AG67" s="18">
-        <v>0.016020146795562</v>
+        <v>0.531465506377003</v>
       </c>
       <c r="AH67" s="18">
-        <v>0.0113530567498576</v>
+        <v>0.498048502105462</v>
       </c>
       <c r="AI67" s="18">
-        <v>0.007948125483829621</v>
+        <v>0.465111900179432</v>
       </c>
       <c r="AJ67" s="18">
-        <v>0.00549752358033251</v>
+        <v>0.432832242454316</v>
       </c>
       <c r="AK67" s="18">
-        <v>0.00375718573643757</v>
+        <v>0.401370643558508</v>
       </c>
       <c r="AL67" s="18">
-        <v>0.00253741850695932</v>
+        <v>0.370871407115889</v>
       </c>
       <c r="AM67" s="18">
-        <v>0.00169353537950656</v>
+        <v>0.341461004518117</v>
       </c>
       <c r="AN67" s="18">
-        <v>0.00111713676596303</v>
+        <v>0.313247417721928</v>
       </c>
       <c r="AO67" s="18">
-        <v>0.0007283899148391451</v>
+        <v>0.286319838810128</v>
       </c>
       <c r="AP67" s="18">
-        <v>0.000469462788038943</v>
+        <v>0.260748710926422</v>
       </c>
       <c r="AQ67" s="18">
-        <v>0.000299123763519926</v>
+        <v>0.236586087909498</v>
       </c>
       <c r="AR67" s="18">
-        <v>0.000188427691610205</v>
+        <v>0.213866283702959</v>
       </c>
       <c r="AS67" s="18">
-        <v>0.00011735808657154</v>
+        <v>0.192606777548188</v>
       </c>
       <c r="AT67" s="18">
-        <v>7.22745039104522e-05</v>
+        <v>0.172809337169056</v>
       </c>
       <c r="AU67" s="18">
-        <v>4.40138474561147e-05</v>
+        <v>0.154461319671002</v>
       </c>
       <c r="AV67" s="18">
-        <v>2.65065385457453e-05</v>
+        <v>0.137537108692915</v>
       </c>
       <c r="AW67" s="18">
-        <v>1.57871096928552e-05</v>
+        <v>0.121999646412814</v>
       </c>
       <c r="AX67" s="18">
-        <v>9.29958938389319e-06</v>
+        <v>0.107802020221245</v>
       </c>
       <c r="AY67" s="18">
-        <v>5.41827785416338e-06</v>
+        <v>0.0948890661096341</v>
       </c>
     </row>
     <row r="68" ht="15.35" customHeight="1">
       <c r="A68" s="24">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -11791,1058 +11790,756 @@
     </row>
     <row r="69" ht="15.35" customHeight="1">
       <c r="A69" s="24">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="15">
-        <v>27.1</v>
+        <v>16.7</v>
       </c>
       <c r="G69" s="15">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H69" s="15">
-        <v>27.1</v>
+        <v>16.7</v>
       </c>
       <c r="I69" s="16">
         <f>H69*(LN(2))^(1/G69)</f>
-        <v>22.941257928785</v>
+        <v>13.0797701385367</v>
       </c>
       <c r="J69" s="16">
         <f>H69*EXP(GAMMALN(1+1/G69))</f>
-        <v>24.0004310082006</v>
+        <v>15.0758463922806</v>
       </c>
       <c r="K69" s="17">
         <v>1</v>
       </c>
       <c r="L69" s="18">
-        <v>0.999296417977055</v>
+        <v>0.985453874532803</v>
       </c>
       <c r="M69" s="18">
-        <v>0.996771271731748</v>
+        <v>0.959402271043854</v>
       </c>
       <c r="N69" s="18">
-        <v>0.992140011160435</v>
+        <v>0.926687386953203</v>
       </c>
       <c r="O69" s="18">
-        <v>0.985250514486723</v>
+        <v>0.889386249992564</v>
       </c>
       <c r="P69" s="18">
-        <v>0.976014958632018</v>
+        <v>0.848890525294705</v>
       </c>
       <c r="Q69" s="18">
-        <v>0.964391732902926</v>
+        <v>0.80625628445595</v>
       </c>
       <c r="R69" s="18">
-        <v>0.950377549611376</v>
+        <v>0.762329369928166</v>
       </c>
       <c r="S69" s="18">
-        <v>0.934003025974532</v>
+        <v>0.71780410448834</v>
       </c>
       <c r="T69" s="18">
-        <v>0.9153296279386109</v>
+        <v>0.673255851761753</v>
       </c>
       <c r="U69" s="18">
-        <v>0.894447130775375</v>
+        <v>0.629161558745475</v>
       </c>
       <c r="V69" s="18">
-        <v>0.871471210776481</v>
+        <v>0.585914158616081</v>
       </c>
       <c r="W69" s="18">
-        <v>0.846540982710782</v>
+        <v>0.543833573742546</v>
       </c>
       <c r="X69" s="18">
-        <v>0.819816397797925</v>
+        <v>0.503175697794721</v>
       </c>
       <c r="Y69" s="18">
-        <v>0.791475472678039</v>
+        <v>0.464140087686428</v>
       </c>
       <c r="Z69" s="18">
-        <v>0.7617113536176729</v>
+        <v>0.426876765820033</v>
       </c>
       <c r="AA69" s="18">
-        <v>0.730729241855684</v>
+        <v>0.391492356584972</v>
       </c>
       <c r="AB69" s="18">
-        <v>0.698743220237301</v>
+        <v>0.35805568380001</v>
       </c>
       <c r="AC69" s="18">
-        <v>0.665973030466387</v>
+        <v>0.326602901442858</v>
       </c>
       <c r="AD69" s="18">
-        <v>0.632640855688425</v>
+        <v>0.2971421997815</v>
       </c>
       <c r="AE69" s="18">
-        <v>0.598968165434737</v>
+        <v>0.269658112689841</v>
       </c>
       <c r="AF69" s="18">
-        <v>0.565172679692198</v>
+        <v>0.244115443708404</v>
       </c>
       <c r="AG69" s="18">
-        <v>0.531465506377003</v>
+        <v>0.220462824909479</v>
       </c>
       <c r="AH69" s="18">
-        <v>0.498048502105462</v>
+        <v>0.198635921808897</v>
       </c>
       <c r="AI69" s="18">
-        <v>0.465111900179432</v>
+        <v>0.178560298188539</v>
       </c>
       <c r="AJ69" s="18">
-        <v>0.432832242454316</v>
+        <v>0.160153955987425</v>
       </c>
       <c r="AK69" s="18">
-        <v>0.401370643558508</v>
+        <v>0.143329566914588</v>
       </c>
       <c r="AL69" s="18">
-        <v>0.370871407115889</v>
+        <v>0.127996413851416</v>
       </c>
       <c r="AM69" s="18">
-        <v>0.341461004518117</v>
+        <v>0.114062061284408</v>
       </c>
       <c r="AN69" s="18">
-        <v>0.313247417721928</v>
+        <v>0.101433774859587</v>
       </c>
       <c r="AO69" s="18">
-        <v>0.286319838810128</v>
+        <v>0.0900197106474564</v>
       </c>
       <c r="AP69" s="18">
-        <v>0.260748710926422</v>
+        <v>0.07972989485568791</v>
       </c>
       <c r="AQ69" s="18">
-        <v>0.236586087909498</v>
+        <v>0.07047701454998249</v>
       </c>
       <c r="AR69" s="18">
-        <v>0.213866283702959</v>
+        <v>0.0621770394783231</v>
       </c>
       <c r="AS69" s="18">
-        <v>0.192606777548188</v>
+        <v>0.0547496943831179</v>
       </c>
       <c r="AT69" s="18">
-        <v>0.172809337169056</v>
+        <v>0.04811880027479</v>
       </c>
       <c r="AU69" s="18">
-        <v>0.154461319671002</v>
+        <v>0.0422125020740183</v>
       </c>
       <c r="AV69" s="18">
-        <v>0.137537108692915</v>
+        <v>0.0369633988505245</v>
       </c>
       <c r="AW69" s="18">
-        <v>0.121999646412814</v>
+        <v>0.0323085916328965</v>
       </c>
       <c r="AX69" s="18">
-        <v>0.107802020221245</v>
+        <v>0.0281896624711048</v>
       </c>
       <c r="AY69" s="18">
-        <v>0.0948890661096341</v>
+        <v>0.0245525971311159</v>
       </c>
     </row>
     <row r="70" ht="15.35" customHeight="1">
-      <c r="A70" s="24">
-        <v>1203</v>
+      <c r="A70" t="s" s="12">
+        <v>70</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F70" s="15">
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
       <c r="G70" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H70" s="15">
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
       <c r="I70" s="16">
         <f>H70*(LN(2))^(1/G70)</f>
-        <v>13.0797701385367</v>
+        <v>21.8594269991628</v>
       </c>
       <c r="J70" s="16">
         <f>H70*EXP(GAMMALN(1+1/G70))</f>
-        <v>15.0758463922806</v>
+        <v>22.0565939357605</v>
       </c>
       <c r="K70" s="17">
         <v>1</v>
       </c>
       <c r="L70" s="18">
-        <v>0.985453874532803</v>
+        <v>0.9999336417796379</v>
       </c>
       <c r="M70" s="18">
-        <v>0.959402271043854</v>
+        <v>0.999469257516315</v>
       </c>
       <c r="N70" s="18">
-        <v>0.926687386953203</v>
+        <v>0.998209872793972</v>
       </c>
       <c r="O70" s="18">
-        <v>0.889386249992564</v>
+        <v>0.995761939016224</v>
       </c>
       <c r="P70" s="18">
-        <v>0.848890525294705</v>
+        <v>0.99173925624885</v>
       </c>
       <c r="Q70" s="18">
-        <v>0.80625628445595</v>
+        <v>0.98576838937371</v>
       </c>
       <c r="R70" s="18">
-        <v>0.762329369928166</v>
+        <v>0.977495466677855</v>
       </c>
       <c r="S70" s="18">
-        <v>0.71780410448834</v>
+        <v>0.966594184393146</v>
       </c>
       <c r="T70" s="18">
-        <v>0.673255851761753</v>
+        <v>0.952774763693762</v>
       </c>
       <c r="U70" s="18">
-        <v>0.629161558745475</v>
+        <v>0.935793522773786</v>
       </c>
       <c r="V70" s="18">
-        <v>0.585914158616081</v>
+        <v>0.915462641920838</v>
       </c>
       <c r="W70" s="18">
-        <v>0.543833573742546</v>
+        <v>0.891659621472597</v>
       </c>
       <c r="X70" s="18">
-        <v>0.503175697794721</v>
+        <v>0.864335869819981</v>
       </c>
       <c r="Y70" s="18">
-        <v>0.464140087686428</v>
+        <v>0.833523820408949</v>
       </c>
       <c r="Z70" s="18">
-        <v>0.426876765820033</v>
+        <v>0.799341971976062</v>
       </c>
       <c r="AA70" s="18">
-        <v>0.391492356584972</v>
+        <v>0.761997282790427</v>
       </c>
       <c r="AB70" s="18">
-        <v>0.35805568380001</v>
+        <v>0.721784432868935</v>
       </c>
       <c r="AC70" s="18">
-        <v>0.326602901442858</v>
+        <v>0.679081599890674</v>
       </c>
       <c r="AD70" s="18">
-        <v>0.2971421997815</v>
+        <v>0.634342572284569</v>
       </c>
       <c r="AE70" s="18">
-        <v>0.269658112689841</v>
+        <v>0.588085238983947</v>
       </c>
       <c r="AF70" s="18">
-        <v>0.244115443708404</v>
+        <v>0.5408767366192641</v>
       </c>
       <c r="AG70" s="18">
-        <v>0.220462824909479</v>
+        <v>0.493315783639731</v>
       </c>
       <c r="AH70" s="18">
-        <v>0.198635921808897</v>
+        <v>0.446012965615036</v>
       </c>
       <c r="AI70" s="18">
-        <v>0.178560298188539</v>
+        <v>0.399569933700326</v>
       </c>
       <c r="AJ70" s="18">
-        <v>0.160153955987425</v>
+        <v>0.354558616691427</v>
       </c>
       <c r="AK70" s="18">
-        <v>0.143329566914588</v>
+        <v>0.311501607580123</v>
       </c>
       <c r="AL70" s="18">
-        <v>0.127996413851416</v>
+        <v>0.270854855673446</v>
       </c>
       <c r="AM70" s="18">
-        <v>0.114062061284408</v>
+        <v>0.232993671344395</v>
       </c>
       <c r="AN70" s="18">
-        <v>0.101433774859587</v>
+        <v>0.198202838416622</v>
       </c>
       <c r="AO70" s="18">
-        <v>0.0900197106474564</v>
+        <v>0.166671345188095</v>
       </c>
       <c r="AP70" s="18">
-        <v>0.07972989485568791</v>
+        <v>0.138491914134419</v>
       </c>
       <c r="AQ70" s="18">
-        <v>0.07047701454998249</v>
+        <v>0.113665163641506</v>
       </c>
       <c r="AR70" s="18">
-        <v>0.0621770394783231</v>
+        <v>0.0921079066017941</v>
       </c>
       <c r="AS70" s="18">
-        <v>0.0547496943831179</v>
+        <v>0.07366481274334059</v>
       </c>
       <c r="AT70" s="18">
-        <v>0.04811880027479</v>
+        <v>0.058122460846769</v>
       </c>
       <c r="AU70" s="18">
-        <v>0.0422125020740183</v>
+        <v>0.0452247011136686</v>
       </c>
       <c r="AV70" s="18">
-        <v>0.0369633988505245</v>
+        <v>0.0346882431349076</v>
       </c>
       <c r="AW70" s="18">
-        <v>0.0323085916328965</v>
+        <v>0.0262174755427451</v>
       </c>
       <c r="AX70" s="18">
-        <v>0.0281896624711048</v>
+        <v>0.0195176931750154</v>
       </c>
       <c r="AY70" s="18">
-        <v>0.0245525971311159</v>
+        <v>0.0143061320542133</v>
       </c>
     </row>
     <row r="71" ht="15.35" customHeight="1">
-      <c r="A71" s="24">
-        <v>1204</v>
+      <c r="A71" t="s" s="12">
+        <v>71</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="F71" s="15">
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
       <c r="G71" s="15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H71" s="15">
-        <v>16.7</v>
+        <v>24.7</v>
       </c>
       <c r="I71" s="16">
         <f>H71*(LN(2))^(1/G71)</f>
-        <v>13.0797701385367</v>
+        <v>21.8594269991628</v>
       </c>
       <c r="J71" s="16">
         <f>H71*EXP(GAMMALN(1+1/G71))</f>
-        <v>15.0758463922806</v>
+        <v>22.0565939357605</v>
       </c>
       <c r="K71" s="17">
         <v>1</v>
       </c>
       <c r="L71" s="18">
-        <v>0.985453874532803</v>
+        <v>0.9999336417796379</v>
       </c>
       <c r="M71" s="18">
-        <v>0.959402271043854</v>
+        <v>0.999469257516315</v>
       </c>
       <c r="N71" s="18">
-        <v>0.926687386953203</v>
+        <v>0.998209872793972</v>
       </c>
       <c r="O71" s="18">
-        <v>0.889386249992564</v>
+        <v>0.995761939016224</v>
       </c>
       <c r="P71" s="18">
-        <v>0.848890525294705</v>
+        <v>0.99173925624885</v>
       </c>
       <c r="Q71" s="18">
-        <v>0.80625628445595</v>
+        <v>0.98576838937371</v>
       </c>
       <c r="R71" s="18">
-        <v>0.762329369928166</v>
+        <v>0.977495466677855</v>
       </c>
       <c r="S71" s="18">
-        <v>0.71780410448834</v>
+        <v>0.966594184393146</v>
       </c>
       <c r="T71" s="18">
-        <v>0.673255851761753</v>
+        <v>0.952774763693762</v>
       </c>
       <c r="U71" s="18">
-        <v>0.629161558745475</v>
+        <v>0.935793522773786</v>
       </c>
       <c r="V71" s="18">
-        <v>0.585914158616081</v>
+        <v>0.915462641920838</v>
       </c>
       <c r="W71" s="18">
-        <v>0.543833573742546</v>
+        <v>0.891659621472597</v>
       </c>
       <c r="X71" s="18">
-        <v>0.503175697794721</v>
+        <v>0.864335869819981</v>
       </c>
       <c r="Y71" s="18">
-        <v>0.464140087686428</v>
+        <v>0.833523820408949</v>
       </c>
       <c r="Z71" s="18">
-        <v>0.426876765820033</v>
+        <v>0.799341971976062</v>
       </c>
       <c r="AA71" s="18">
-        <v>0.391492356584972</v>
+        <v>0.761997282790427</v>
       </c>
       <c r="AB71" s="18">
-        <v>0.35805568380001</v>
+        <v>0.721784432868935</v>
       </c>
       <c r="AC71" s="18">
-        <v>0.326602901442858</v>
+        <v>0.679081599890674</v>
       </c>
       <c r="AD71" s="18">
-        <v>0.2971421997815</v>
+        <v>0.634342572284569</v>
       </c>
       <c r="AE71" s="18">
-        <v>0.269658112689841</v>
+        <v>0.588085238983947</v>
       </c>
       <c r="AF71" s="18">
-        <v>0.244115443708404</v>
+        <v>0.5408767366192641</v>
       </c>
       <c r="AG71" s="18">
-        <v>0.220462824909479</v>
+        <v>0.493315783639731</v>
       </c>
       <c r="AH71" s="18">
-        <v>0.198635921808897</v>
+        <v>0.446012965615036</v>
       </c>
       <c r="AI71" s="18">
-        <v>0.178560298188539</v>
+        <v>0.399569933700326</v>
       </c>
       <c r="AJ71" s="18">
-        <v>0.160153955987425</v>
+        <v>0.354558616691427</v>
       </c>
       <c r="AK71" s="18">
-        <v>0.143329566914588</v>
+        <v>0.311501607580123</v>
       </c>
       <c r="AL71" s="18">
-        <v>0.127996413851416</v>
+        <v>0.270854855673446</v>
       </c>
       <c r="AM71" s="18">
-        <v>0.114062061284408</v>
+        <v>0.232993671344395</v>
       </c>
       <c r="AN71" s="18">
-        <v>0.101433774859587</v>
+        <v>0.198202838416622</v>
       </c>
       <c r="AO71" s="18">
-        <v>0.0900197106474564</v>
+        <v>0.166671345188095</v>
       </c>
       <c r="AP71" s="18">
-        <v>0.07972989485568791</v>
+        <v>0.138491914134419</v>
       </c>
       <c r="AQ71" s="18">
-        <v>0.07047701454998249</v>
+        <v>0.113665163641506</v>
       </c>
       <c r="AR71" s="18">
-        <v>0.0621770394783231</v>
+        <v>0.0921079066017941</v>
       </c>
       <c r="AS71" s="18">
-        <v>0.0547496943831179</v>
+        <v>0.07366481274334059</v>
       </c>
       <c r="AT71" s="18">
-        <v>0.04811880027479</v>
+        <v>0.058122460846769</v>
       </c>
       <c r="AU71" s="18">
-        <v>0.0422125020740183</v>
+        <v>0.0452247011136686</v>
       </c>
       <c r="AV71" s="18">
-        <v>0.0369633988505245</v>
+        <v>0.0346882431349076</v>
       </c>
       <c r="AW71" s="18">
-        <v>0.0323085916328965</v>
+        <v>0.0262174755427451</v>
       </c>
       <c r="AX71" s="18">
-        <v>0.0281896624711048</v>
+        <v>0.0195176931750154</v>
       </c>
       <c r="AY71" s="18">
-        <v>0.0245525971311159</v>
+        <v>0.0143061320542133</v>
       </c>
     </row>
     <row r="72" ht="15.35" customHeight="1">
-      <c r="A72" t="s" s="12">
-        <v>72</v>
+      <c r="A72" s="24">
+        <v>1206</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="15">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="F72" s="15">
-        <v>24.7</v>
+        <v>13.6</v>
       </c>
       <c r="G72" s="15">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H72" s="15">
-        <v>24.7</v>
+        <v>13.6</v>
       </c>
       <c r="I72" s="16">
         <f>H72*(LN(2))^(1/G72)</f>
-        <v>21.8594269991628</v>
+        <v>11.8736809588374</v>
       </c>
       <c r="J72" s="16">
         <f>H72*EXP(GAMMALN(1+1/G72))</f>
-        <v>22.0565939357605</v>
+        <v>12.0942497875141</v>
       </c>
       <c r="K72" s="17">
         <v>1</v>
       </c>
       <c r="L72" s="18">
-        <v>0.9999336417796379</v>
+        <v>0.999130527049974</v>
       </c>
       <c r="M72" s="18">
-        <v>0.999469257516315</v>
+        <v>0.994363634727537</v>
       </c>
       <c r="N72" s="18">
-        <v>0.998209872793972</v>
+        <v>0.983250204042539</v>
       </c>
       <c r="O72" s="18">
-        <v>0.995761939016224</v>
+        <v>0.963937504707104</v>
       </c>
       <c r="P72" s="18">
-        <v>0.99173925624885</v>
+        <v>0.935110146654333</v>
       </c>
       <c r="Q72" s="18">
-        <v>0.98576838937371</v>
+        <v>0.896047072160587</v>
       </c>
       <c r="R72" s="18">
-        <v>0.977495466677855</v>
+        <v>0.846689206972655</v>
       </c>
       <c r="S72" s="18">
-        <v>0.966594184393146</v>
+        <v>0.787679066586142</v>
       </c>
       <c r="T72" s="18">
-        <v>0.952774763693762</v>
+        <v>0.72034893978931</v>
       </c>
       <c r="U72" s="18">
-        <v>0.935793522773786</v>
+        <v>0.646644692404971</v>
       </c>
       <c r="V72" s="18">
-        <v>0.915462641920838</v>
+        <v>0.568983394636605</v>
       </c>
       <c r="W72" s="18">
-        <v>0.891659621472597</v>
+        <v>0.490054958343138</v>
       </c>
       <c r="X72" s="18">
-        <v>0.864335869819981</v>
+        <v>0.412589087071984</v>
       </c>
       <c r="Y72" s="18">
-        <v>0.833523820408949</v>
+        <v>0.339116811735468</v>
       </c>
       <c r="Z72" s="18">
-        <v>0.799341971976062</v>
+        <v>0.271758686377861</v>
       </c>
       <c r="AA72" s="18">
-        <v>0.761997282790427</v>
+        <v>0.21206831657233</v>
       </c>
       <c r="AB72" s="18">
-        <v>0.721784432868935</v>
+        <v>0.160950707631712</v>
       </c>
       <c r="AC72" s="18">
-        <v>0.679081599890674</v>
+        <v>0.1186618655031</v>
       </c>
       <c r="AD72" s="18">
-        <v>0.634342572284569</v>
+        <v>0.0848821236131667</v>
       </c>
       <c r="AE72" s="18">
-        <v>0.588085238983947</v>
+        <v>0.0588440019465419</v>
       </c>
       <c r="AF72" s="18">
-        <v>0.5408767366192641</v>
+        <v>0.0394885435978316</v>
       </c>
       <c r="AG72" s="18">
-        <v>0.493315783639731</v>
+        <v>0.0256231461631494</v>
       </c>
       <c r="AH72" s="18">
-        <v>0.446012965615036</v>
+        <v>0.0160584139574259</v>
       </c>
       <c r="AI72" s="18">
-        <v>0.399569933700326</v>
+        <v>0.009709674972265939</v>
       </c>
       <c r="AJ72" s="18">
-        <v>0.354558616691427</v>
+        <v>0.00565806275911895</v>
       </c>
       <c r="AK72" s="18">
-        <v>0.311501607580123</v>
+        <v>0.00317414588036635</v>
       </c>
       <c r="AL72" s="18">
-        <v>0.270854855673446</v>
+        <v>0.00171246868461394</v>
       </c>
       <c r="AM72" s="18">
-        <v>0.232993671344395</v>
+        <v>0.000887566456885258</v>
       </c>
       <c r="AN72" s="18">
-        <v>0.198202838416622</v>
+        <v>0.000441481474175109</v>
       </c>
       <c r="AO72" s="18">
-        <v>0.166671345188095</v>
+        <v>0.000210529573539509</v>
       </c>
       <c r="AP72" s="18">
-        <v>0.138491914134419</v>
+        <v>9.61530354290918e-05</v>
       </c>
       <c r="AQ72" s="18">
-        <v>0.113665163641506</v>
+        <v>4.20171667526725e-05</v>
       </c>
       <c r="AR72" s="18">
-        <v>0.0921079066017941</v>
+        <v>1.75498422593234e-05</v>
       </c>
       <c r="AS72" s="18">
-        <v>0.07366481274334059</v>
+        <v>6.99963177008822e-06</v>
       </c>
       <c r="AT72" s="18">
-        <v>0.058122460846769</v>
+        <v>2.66323442643657e-06</v>
       </c>
       <c r="AU72" s="18">
-        <v>0.0452247011136686</v>
+        <v>9.657311662580881e-07</v>
       </c>
       <c r="AV72" s="18">
-        <v>0.0346882431349076</v>
+        <v>3.33426222409727e-07</v>
       </c>
       <c r="AW72" s="18">
-        <v>0.0262174755427451</v>
+        <v>1.09503340617323e-07</v>
       </c>
       <c r="AX72" s="18">
-        <v>0.0195176931750154</v>
+        <v>3.41766811517985e-08</v>
       </c>
       <c r="AY72" s="18">
-        <v>0.0143061320542133</v>
+        <v>1.01274781894034e-08</v>
       </c>
     </row>
     <row r="73" ht="15.35" customHeight="1">
-      <c r="A73" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="15">
-        <v>3</v>
-      </c>
-      <c r="F73" s="15">
-        <v>24.7</v>
-      </c>
-      <c r="G73" s="15">
-        <v>3</v>
-      </c>
-      <c r="H73" s="15">
-        <v>24.7</v>
-      </c>
-      <c r="I73" s="16">
+      <c r="A73" s="25">
+        <v>1301</v>
+      </c>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F73" s="27">
+        <v>2.3</v>
+      </c>
+      <c r="G73" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="H73" s="27">
+        <v>2.3</v>
+      </c>
+      <c r="I73" s="28">
         <f>H73*(LN(2))^(1/G73)</f>
-        <v>21.8594269991628</v>
-      </c>
-      <c r="J73" s="16">
+        <v>1.8014054681817</v>
+      </c>
+      <c r="J73" s="28">
         <f>H73*EXP(GAMMALN(1+1/G73))</f>
-        <v>22.0565939357605</v>
+        <v>2.07631417378715</v>
       </c>
       <c r="K73" s="17">
         <v>1</v>
       </c>
       <c r="L73" s="18">
-        <v>0.9999336417796379</v>
+        <v>0.750746553894766</v>
       </c>
       <c r="M73" s="18">
-        <v>0.999469257516315</v>
+        <v>0.444469542895493</v>
       </c>
       <c r="N73" s="18">
-        <v>0.998209872793972</v>
+        <v>0.22544699723612</v>
       </c>
       <c r="O73" s="18">
-        <v>0.995761939016224</v>
+        <v>0.100912921360322</v>
       </c>
       <c r="P73" s="18">
-        <v>0.99173925624885</v>
+        <v>0.0405483610836228</v>
       </c>
       <c r="Q73" s="18">
-        <v>0.98576838937371</v>
+        <v>0.0147956274959643</v>
       </c>
       <c r="R73" s="18">
-        <v>0.977495466677855</v>
+        <v>0.00494429669503282</v>
       </c>
       <c r="S73" s="18">
-        <v>0.966594184393146</v>
+        <v>0.0015231267717265</v>
       </c>
       <c r="T73" s="18">
-        <v>0.952774763693762</v>
+        <v>0.000434830880320924</v>
       </c>
       <c r="U73" s="18">
-        <v>0.935793522773786</v>
+        <v>0.000115545739958645</v>
       </c>
       <c r="V73" s="18">
-        <v>0.915462641920838</v>
+        <v>2.86839952698958e-05</v>
       </c>
       <c r="W73" s="18">
-        <v>0.891659621472597</v>
+        <v>6.67353038164009e-06</v>
       </c>
       <c r="X73" s="18">
-        <v>0.864335869819981</v>
+        <v>1.45916175120497e-06</v>
       </c>
       <c r="Y73" s="18">
-        <v>0.833523820408949</v>
+        <v>3.00567963185117e-07</v>
       </c>
       <c r="Z73" s="18">
-        <v>0.799341971976062</v>
+        <v>5.84543879966759e-08</v>
       </c>
       <c r="AA73" s="18">
-        <v>0.761997282790427</v>
+        <v>1.07541039406911e-08</v>
       </c>
       <c r="AB73" s="18">
-        <v>0.721784432868935</v>
+        <v>1.87491089320702e-09</v>
       </c>
       <c r="AC73" s="18">
-        <v>0.679081599890674</v>
+        <v>3.10266035086215e-10</v>
       </c>
       <c r="AD73" s="18">
-        <v>0.634342572284569</v>
+        <v>4.88060702963367e-11</v>
       </c>
       <c r="AE73" s="18">
-        <v>0.588085238983947</v>
+        <v>7.30782101499017e-12</v>
       </c>
       <c r="AF73" s="18">
-        <v>0.5408767366192641</v>
+        <v>1.04283248703041e-12</v>
       </c>
       <c r="AG73" s="18">
-        <v>0.493315783639731</v>
+        <v>1.41997524849558e-13</v>
       </c>
       <c r="AH73" s="18">
-        <v>0.446012965615036</v>
+        <v>1.84297022087776e-14</v>
       </c>
       <c r="AI73" s="18">
-        <v>0.399569933700326</v>
+        <v>2.33146835171283e-15</v>
       </c>
       <c r="AJ73" s="18">
-        <v>0.354558616691427</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="18">
-        <v>0.311501607580123</v>
+        <v>0</v>
       </c>
       <c r="AL73" s="18">
-        <v>0.270854855673446</v>
+        <v>0</v>
       </c>
       <c r="AM73" s="18">
-        <v>0.232993671344395</v>
+        <v>0</v>
       </c>
       <c r="AN73" s="18">
-        <v>0.198202838416622</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="18">
-        <v>0.166671345188095</v>
+        <v>0</v>
       </c>
       <c r="AP73" s="18">
-        <v>0.138491914134419</v>
+        <v>0</v>
       </c>
       <c r="AQ73" s="18">
-        <v>0.113665163641506</v>
+        <v>0</v>
       </c>
       <c r="AR73" s="18">
-        <v>0.0921079066017941</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="18">
-        <v>0.07366481274334059</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="18">
-        <v>0.058122460846769</v>
+        <v>0</v>
       </c>
       <c r="AU73" s="18">
-        <v>0.0452247011136686</v>
+        <v>0</v>
       </c>
       <c r="AV73" s="18">
-        <v>0.0346882431349076</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="18">
-        <v>0.0262174755427451</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="18">
-        <v>0.0195176931750154</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="18">
-        <v>0.0143061320542133</v>
-      </c>
-    </row>
-    <row r="74" ht="15.35" customHeight="1">
-      <c r="A74" s="24">
-        <v>1206</v>
-      </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="F74" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="G74" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="H74" s="15">
-        <v>13.6</v>
-      </c>
-      <c r="I74" s="16">
-        <f>H74*(LN(2))^(1/G74)</f>
-        <v>11.8736809588374</v>
-      </c>
-      <c r="J74" s="16">
-        <f>H74*EXP(GAMMALN(1+1/G74))</f>
-        <v>12.0942497875141</v>
-      </c>
-      <c r="K74" s="17">
-        <v>1</v>
-      </c>
-      <c r="L74" s="18">
-        <v>0.999130527049974</v>
-      </c>
-      <c r="M74" s="18">
-        <v>0.994363634727537</v>
-      </c>
-      <c r="N74" s="18">
-        <v>0.983250204042539</v>
-      </c>
-      <c r="O74" s="18">
-        <v>0.963937504707104</v>
-      </c>
-      <c r="P74" s="18">
-        <v>0.935110146654333</v>
-      </c>
-      <c r="Q74" s="18">
-        <v>0.896047072160587</v>
-      </c>
-      <c r="R74" s="18">
-        <v>0.846689206972655</v>
-      </c>
-      <c r="S74" s="18">
-        <v>0.787679066586142</v>
-      </c>
-      <c r="T74" s="18">
-        <v>0.72034893978931</v>
-      </c>
-      <c r="U74" s="18">
-        <v>0.646644692404971</v>
-      </c>
-      <c r="V74" s="18">
-        <v>0.568983394636605</v>
-      </c>
-      <c r="W74" s="18">
-        <v>0.490054958343138</v>
-      </c>
-      <c r="X74" s="18">
-        <v>0.412589087071984</v>
-      </c>
-      <c r="Y74" s="18">
-        <v>0.339116811735468</v>
-      </c>
-      <c r="Z74" s="18">
-        <v>0.271758686377861</v>
-      </c>
-      <c r="AA74" s="18">
-        <v>0.21206831657233</v>
-      </c>
-      <c r="AB74" s="18">
-        <v>0.160950707631712</v>
-      </c>
-      <c r="AC74" s="18">
-        <v>0.1186618655031</v>
-      </c>
-      <c r="AD74" s="18">
-        <v>0.0848821236131667</v>
-      </c>
-      <c r="AE74" s="18">
-        <v>0.0588440019465419</v>
-      </c>
-      <c r="AF74" s="18">
-        <v>0.0394885435978316</v>
-      </c>
-      <c r="AG74" s="18">
-        <v>0.0256231461631494</v>
-      </c>
-      <c r="AH74" s="18">
-        <v>0.0160584139574259</v>
-      </c>
-      <c r="AI74" s="18">
-        <v>0.009709674972265939</v>
-      </c>
-      <c r="AJ74" s="18">
-        <v>0.00565806275911895</v>
-      </c>
-      <c r="AK74" s="18">
-        <v>0.00317414588036635</v>
-      </c>
-      <c r="AL74" s="18">
-        <v>0.00171246868461394</v>
-      </c>
-      <c r="AM74" s="18">
-        <v>0.000887566456885258</v>
-      </c>
-      <c r="AN74" s="18">
-        <v>0.000441481474175109</v>
-      </c>
-      <c r="AO74" s="18">
-        <v>0.000210529573539509</v>
-      </c>
-      <c r="AP74" s="18">
-        <v>9.61530354290918e-05</v>
-      </c>
-      <c r="AQ74" s="18">
-        <v>4.20171667526725e-05</v>
-      </c>
-      <c r="AR74" s="18">
-        <v>1.75498422593234e-05</v>
-      </c>
-      <c r="AS74" s="18">
-        <v>6.99963177008822e-06</v>
-      </c>
-      <c r="AT74" s="18">
-        <v>2.66323442643657e-06</v>
-      </c>
-      <c r="AU74" s="18">
-        <v>9.657311662580881e-07</v>
-      </c>
-      <c r="AV74" s="18">
-        <v>3.33426222409727e-07</v>
-      </c>
-      <c r="AW74" s="18">
-        <v>1.09503340617323e-07</v>
-      </c>
-      <c r="AX74" s="18">
-        <v>3.41766811517985e-08</v>
-      </c>
-      <c r="AY74" s="18">
-        <v>1.01274781894034e-08</v>
-      </c>
-    </row>
-    <row r="75" ht="15.35" customHeight="1">
-      <c r="A75" s="25">
-        <v>1301</v>
-      </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F75" s="27">
-        <v>2.3</v>
-      </c>
-      <c r="G75" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="H75" s="27">
-        <v>2.3</v>
-      </c>
-      <c r="I75" s="28">
-        <f>H75*(LN(2))^(1/G75)</f>
-        <v>1.8014054681817</v>
-      </c>
-      <c r="J75" s="28">
-        <f>H75*EXP(GAMMALN(1+1/G75))</f>
-        <v>2.07631417378715</v>
-      </c>
-      <c r="K75" s="17">
-        <v>1</v>
-      </c>
-      <c r="L75" s="18">
-        <v>0.750746553894766</v>
-      </c>
-      <c r="M75" s="18">
-        <v>0.444469542895493</v>
-      </c>
-      <c r="N75" s="18">
-        <v>0.22544699723612</v>
-      </c>
-      <c r="O75" s="18">
-        <v>0.100912921360322</v>
-      </c>
-      <c r="P75" s="18">
-        <v>0.0405483610836228</v>
-      </c>
-      <c r="Q75" s="18">
-        <v>0.0147956274959643</v>
-      </c>
-      <c r="R75" s="18">
-        <v>0.00494429669503282</v>
-      </c>
-      <c r="S75" s="18">
-        <v>0.0015231267717265</v>
-      </c>
-      <c r="T75" s="18">
-        <v>0.000434830880320924</v>
-      </c>
-      <c r="U75" s="18">
-        <v>0.000115545739958645</v>
-      </c>
-      <c r="V75" s="18">
-        <v>2.86839952698958e-05</v>
-      </c>
-      <c r="W75" s="18">
-        <v>6.67353038164009e-06</v>
-      </c>
-      <c r="X75" s="18">
-        <v>1.45916175120497e-06</v>
-      </c>
-      <c r="Y75" s="18">
-        <v>3.00567963185117e-07</v>
-      </c>
-      <c r="Z75" s="18">
-        <v>5.84543879966759e-08</v>
-      </c>
-      <c r="AA75" s="18">
-        <v>1.07541039406911e-08</v>
-      </c>
-      <c r="AB75" s="18">
-        <v>1.87491089320702e-09</v>
-      </c>
-      <c r="AC75" s="18">
-        <v>3.10266035086215e-10</v>
-      </c>
-      <c r="AD75" s="18">
-        <v>4.88060702963367e-11</v>
-      </c>
-      <c r="AE75" s="18">
-        <v>7.30782101499017e-12</v>
-      </c>
-      <c r="AF75" s="18">
-        <v>1.04283248703041e-12</v>
-      </c>
-      <c r="AG75" s="18">
-        <v>1.41997524849558e-13</v>
-      </c>
-      <c r="AH75" s="18">
-        <v>1.84297022087776e-14</v>
-      </c>
-      <c r="AI75" s="18">
-        <v>2.33146835171283e-15</v>
-      </c>
-      <c r="AJ75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AR75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AU75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AV75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AX75" s="18">
-        <v>0</v>
-      </c>
-      <c r="AY75" s="18">
         <v>0</v>
       </c>
     </row>
